--- a/docs/excel_base_google.xlsx
+++ b/docs/excel_base_google.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="129">
   <si>
     <t>02/15/20</t>
   </si>
@@ -310,6 +310,18 @@
     <t>05/21/20</t>
   </si>
   <si>
+    <t>05/22/20</t>
+  </si>
+  <si>
+    <t>05/23/20</t>
+  </si>
+  <si>
+    <t>05/24/20</t>
+  </si>
+  <si>
+    <t>05/25/20</t>
+  </si>
+  <si>
     <t>AC</t>
   </si>
   <si>
@@ -735,10 +747,22 @@
       <c r="CT1" t="s">
         <v>96</v>
       </c>
+      <c r="CU1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B2" t="n">
         <v>0.004335522292705126</v>
@@ -1029,12 +1053,24 @@
         <v>-0.12139462419574354</v>
       </c>
       <c r="CT2" t="n">
+        <v>-0.11489134075668585</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>-0.13006566878115378</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>-0.13656895222021148</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>-0.15607880253738454</v>
+      </c>
+      <c r="CX2" t="n">
         <v>-0.11489134075668585</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B3" t="n">
         <v>0.04013436700937573</v>
@@ -1326,11 +1362,23 @@
       </c>
       <c r="CT3" t="n">
         <v>-0.47358553071063353</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>-0.48161240411250866</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>-0.497666150916259</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>-0.5859617583368856</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>-0.45753178390688326</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B4" t="n">
         <v>0.12741864323896848</v>
@@ -1622,11 +1670,23 @@
       </c>
       <c r="CT4" t="n">
         <v>-0.6795660972744986</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>-0.6654084702479466</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>-0.778669486460363</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>-0.8211423675400191</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>-0.6512508432213945</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B5" t="n">
         <v>0.025865180736859797</v>
@@ -1918,11 +1978,23 @@
       </c>
       <c r="CT5" t="n">
         <v>-0.1857590252919931</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>-0.18340764522500586</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>-0.19046178542596762</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>-0.19516454555994212</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>-0.1810562651580186</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B6" t="n">
         <v>-0.04080933048911967</v>
@@ -2214,11 +2286,23 @@
       </c>
       <c r="CT6" t="n">
         <v>-2.4077504988580607</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>-2.2853225073907018</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>-2.4077504988580607</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>-2.775034473260138</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>-2.611797151303659</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B7" t="n">
         <v>-0.04492882442895002</v>
@@ -2510,11 +2594,23 @@
       </c>
       <c r="CT7" t="n">
         <v>-1.5275800305843008</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>-1.5500444427987756</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>-1.6623665038711508</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>-1.7297597405145757</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>-1.5051156183698258</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B8" t="n">
         <v>0.37167081904072646</v>
@@ -2806,11 +2902,23 @@
       </c>
       <c r="CT8" t="n">
         <v>-1.895521177107705</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>-1.895521177107705</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>-2.007022422819923</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>-2.3043590780525043</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>-1.9326882590117778</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B9" t="n">
         <v>-0.017218041926451627</v>
@@ -3102,11 +3210,23 @@
       </c>
       <c r="CT9" t="n">
         <v>-0.8264660124696781</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>-0.878120138249033</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>-0.9814283898077427</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>-1.1363907671458073</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>-0.9125562221019362</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B10" t="n">
         <v>0.08744769448076166</v>
@@ -3397,12 +3517,24 @@
         <v>-1.2242677227306633</v>
       </c>
       <c r="CT10" t="n">
+        <v>-1.2242677227306633</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>-1.3408646487050122</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>-1.5157600376665354</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>-1.8072523526024078</v>
+      </c>
+      <c r="CX10" t="n">
         <v>-1.2242677227306633</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B11" t="n">
         <v>-0.040795919322778346</v>
@@ -3694,11 +3826,23 @@
       </c>
       <c r="CT11" t="n">
         <v>-0.7615238273585291</v>
+      </c>
+      <c r="CU11" t="n">
+        <v>-0.7479251875842696</v>
+      </c>
+      <c r="CV11" t="n">
+        <v>-0.8023197466813073</v>
+      </c>
+      <c r="CW11" t="n">
+        <v>-0.8567143057783452</v>
+      </c>
+      <c r="CX11" t="n">
+        <v>-0.6799319887129723</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B12" t="n">
         <v>0.6126686787596378</v>
@@ -3989,12 +4133,24 @@
         <v>-3.500963878626502</v>
       </c>
       <c r="CT12" t="n">
+        <v>-3.3259156846951767</v>
+      </c>
+      <c r="CU12" t="n">
+        <v>-3.500963878626502</v>
+      </c>
+      <c r="CV12" t="n">
+        <v>-4.2886807513174645</v>
+      </c>
+      <c r="CW12" t="n">
+        <v>-5.426494011871078</v>
+      </c>
+      <c r="CX12" t="n">
         <v>-3.3259156846951767</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B13" t="n">
         <v>0.08783307806781981</v>
@@ -4285,12 +4441,24 @@
         <v>-0.38061000496055253</v>
       </c>
       <c r="CT13" t="n">
+        <v>-0.3659711586159159</v>
+      </c>
+      <c r="CU13" t="n">
+        <v>-0.483081929373009</v>
+      </c>
+      <c r="CV13" t="n">
+        <v>-0.4977207757176456</v>
+      </c>
+      <c r="CW13" t="n">
+        <v>-0.6733869318532852</v>
+      </c>
+      <c r="CX13" t="n">
         <v>-0.3659711586159159</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -4582,11 +4750,23 @@
       </c>
       <c r="CT14" t="n">
         <v>-0.5008008124450497</v>
+      </c>
+      <c r="CU14" t="n">
+        <v>-0.5778470912827497</v>
+      </c>
+      <c r="CV14" t="n">
+        <v>-0.7512012186675746</v>
+      </c>
+      <c r="CW14" t="n">
+        <v>-0.9245553460523995</v>
+      </c>
+      <c r="CX14" t="n">
+        <v>-0.5585855215733248</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -4878,11 +5058,23 @@
       </c>
       <c r="CT15" t="n">
         <v>-1.3908678682109459</v>
+      </c>
+      <c r="CU15" t="n">
+        <v>-1.3908678682109459</v>
+      </c>
+      <c r="CV15" t="n">
+        <v>-1.5087380265339074</v>
+      </c>
+      <c r="CW15" t="n">
+        <v>-1.5794601215276844</v>
+      </c>
+      <c r="CX15" t="n">
+        <v>-1.1079794882358383</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B16" t="n">
         <v>0.018952989106065358</v>
@@ -5173,12 +5365,24 @@
         <v>-0.6159721459471241</v>
       </c>
       <c r="CT16" t="n">
+        <v>-0.6159721459471241</v>
+      </c>
+      <c r="CU16" t="n">
+        <v>-0.6254486405001568</v>
+      </c>
+      <c r="CV16" t="n">
+        <v>-0.6823076078183529</v>
+      </c>
+      <c r="CW16" t="n">
+        <v>-0.7486430696895816</v>
+      </c>
+      <c r="CX16" t="n">
         <v>-0.6159721459471241</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B17" t="n">
         <v>0.13788686376518408</v>
@@ -5470,11 +5674,23 @@
       </c>
       <c r="CT17" t="n">
         <v>-1.82010660170043</v>
+      </c>
+      <c r="CU17" t="n">
+        <v>-1.792529228947393</v>
+      </c>
+      <c r="CV17" t="n">
+        <v>-1.9855708382186508</v>
+      </c>
+      <c r="CW17" t="n">
+        <v>-2.068302956477761</v>
+      </c>
+      <c r="CX17" t="n">
+        <v>-1.7649518561943562</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B18" t="n">
         <v>-0.027559725130014895</v>
@@ -5766,11 +5982,23 @@
       </c>
       <c r="CT18" t="n">
         <v>-0.42028580823272715</v>
+      </c>
+      <c r="CU18" t="n">
+        <v>-0.4891851210577644</v>
+      </c>
+      <c r="CV18" t="n">
+        <v>-0.47540525849275694</v>
+      </c>
+      <c r="CW18" t="n">
+        <v>-0.523634777470283</v>
+      </c>
+      <c r="CX18" t="n">
+        <v>-0.4133958769502234</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B19" t="n">
         <v>0.3200322917200799</v>
@@ -6061,12 +6289,24 @@
         <v>-2.2402260420405593</v>
       </c>
       <c r="CT19" t="n">
+        <v>-2.1122131253525276</v>
+      </c>
+      <c r="CU19" t="n">
+        <v>-2.8802906254807192</v>
+      </c>
+      <c r="CV19" t="n">
+        <v>-2.8802906254807192</v>
+      </c>
+      <c r="CW19" t="n">
+        <v>-3.776381042296943</v>
+      </c>
+      <c r="CX19" t="n">
         <v>-2.1122131253525276</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B20" t="n">
         <v>0.7138552069275143</v>
@@ -6358,11 +6598,23 @@
       </c>
       <c r="CT20" t="n">
         <v>-6.016779601246192</v>
+      </c>
+      <c r="CU20" t="n">
+        <v>-5.710841655420114</v>
+      </c>
+      <c r="CV20" t="n">
+        <v>-6.22073823179691</v>
+      </c>
+      <c r="CW20" t="n">
+        <v>-7.5464693303765795</v>
+      </c>
+      <c r="CX20" t="n">
+        <v>-5.710841655420114</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B21" t="n">
         <v>0.04883140749796015</v>
@@ -6654,11 +6906,23 @@
       </c>
       <c r="CT21" t="n">
         <v>-0.5469117639771537</v>
+      </c>
+      <c r="CU21" t="n">
+        <v>-0.5762106084759299</v>
+      </c>
+      <c r="CV21" t="n">
+        <v>-0.6055094529747059</v>
+      </c>
+      <c r="CW21" t="n">
+        <v>-0.7227048309698103</v>
+      </c>
+      <c r="CX21" t="n">
+        <v>-0.5273792009779696</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B22" t="n">
         <v>0.04626017541948326</v>
@@ -6950,11 +7214,23 @@
       </c>
       <c r="CT22" t="n">
         <v>-0.2313008770974163</v>
+      </c>
+      <c r="CU22" t="n">
+        <v>-0.22469228060891872</v>
+      </c>
+      <c r="CV22" t="n">
+        <v>-0.27095245602840196</v>
+      </c>
+      <c r="CW22" t="n">
+        <v>-0.3568642103788709</v>
+      </c>
+      <c r="CX22" t="n">
+        <v>-0.19825789465492827</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B23" t="n">
         <v>0.016546232578137417</v>
@@ -7246,11 +7522,23 @@
       </c>
       <c r="CT23" t="n">
         <v>-0.08273116289068709</v>
+      </c>
+      <c r="CU23" t="n">
+        <v>-0.08824657375006623</v>
+      </c>
+      <c r="CV23" t="n">
+        <v>-0.09560045489590509</v>
+      </c>
+      <c r="CW23" t="n">
+        <v>-0.12133903890634107</v>
+      </c>
+      <c r="CX23" t="n">
+        <v>-0.0845696331771468</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B24" t="n">
         <v>0.2571049267820831</v>
@@ -7542,11 +7830,23 @@
       </c>
       <c r="CT24" t="n">
         <v>-3.085259121384997</v>
+      </c>
+      <c r="CU24" t="n">
+        <v>-2.763877962907393</v>
+      </c>
+      <c r="CV24" t="n">
+        <v>-3.085259121384997</v>
+      </c>
+      <c r="CW24" t="n">
+        <v>-4.049402596817808</v>
+      </c>
+      <c r="CX24" t="n">
+        <v>-2.3139443410387477</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B25" t="n">
         <v>0.04210519964838624</v>
@@ -7838,11 +8138,23 @@
       </c>
       <c r="CT25" t="n">
         <v>-1.5157871873419047</v>
+      </c>
+      <c r="CU25" t="n">
+        <v>-1.6842079859354497</v>
+      </c>
+      <c r="CV25" t="n">
+        <v>-1.6842079859354497</v>
+      </c>
+      <c r="CW25" t="n">
+        <v>-2.231575581364471</v>
+      </c>
+      <c r="CX25" t="n">
+        <v>-1.5999975866386773</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B26" t="n">
         <v>0.030914319979288857</v>
@@ -8134,11 +8446,23 @@
       </c>
       <c r="CT26" t="n">
         <v>-0.30914319979288857</v>
+      </c>
+      <c r="CU26" t="n">
+        <v>-0.4266176157141862</v>
+      </c>
+      <c r="CV26" t="n">
+        <v>-0.35860611175975077</v>
+      </c>
+      <c r="CW26" t="n">
+        <v>-0.42043475171832845</v>
+      </c>
+      <c r="CX26" t="n">
+        <v>-0.40188615973075514</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B27" t="n">
         <v>1.9320230737634623</v>
@@ -8430,11 +8754,23 @@
       </c>
       <c r="CT27" t="n">
         <v>-17.710211509498404</v>
+      </c>
+      <c r="CU27" t="n">
+        <v>-18.032215355125647</v>
+      </c>
+      <c r="CV27" t="n">
+        <v>-19.96423842888911</v>
+      </c>
+      <c r="CW27" t="n">
+        <v>-21.574257657025328</v>
+      </c>
+      <c r="CX27" t="n">
+        <v>-21.252253811398084</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B28" t="n">
         <v>0.02072005768977931</v>
@@ -8726,11 +9062,23 @@
       </c>
       <c r="CT28" t="n">
         <v>-0.21238059132023793</v>
+      </c>
+      <c r="CU28" t="n">
+        <v>-0.22792063458757242</v>
+      </c>
+      <c r="CV28" t="n">
+        <v>-0.2590007211222414</v>
+      </c>
+      <c r="CW28" t="n">
+        <v>-0.29526082207935517</v>
+      </c>
+      <c r="CX28" t="n">
+        <v>-0.20202056247534828</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B29" t="n">
         <v>4.771294887206965</v>
@@ -9022,6 +9370,18 @@
       </c>
       <c r="CT29" t="n">
         <v>-50.359549482892525</v>
+      </c>
+      <c r="CU29" t="n">
+        <v>-51.63333734620663</v>
+      </c>
+      <c r="CV29" t="n">
+        <v>-56.594042041762066</v>
+      </c>
+      <c r="CW29" t="n">
+        <v>-65.40702526820392</v>
+      </c>
+      <c r="CX29" t="n">
+        <v>-52.82722289835007</v>
       </c>
     </row>
   </sheetData>
@@ -9330,10 +9690,22 @@
       <c r="CT1" t="s">
         <v>96</v>
       </c>
+      <c r="CU1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B2" t="n">
         <v>0.010838805731762815</v>
@@ -9625,11 +9997,23 @@
       </c>
       <c r="CT2" t="n">
         <v>-0.02601313375623076</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>-0.028180894902583322</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>-0.028180894902583322</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>-0.039019700634346136</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>-0.028180894902583322</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B3" t="n">
         <v>0.024080620205625434</v>
@@ -9921,11 +10305,23 @@
       </c>
       <c r="CT3" t="n">
         <v>-0.16856434143937804</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>-0.1444837212337526</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>-0.1444837212337526</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>-0.2889674424675052</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>-0.1444837212337526</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B4" t="n">
         <v>0.09910338918586438</v>
@@ -10217,11 +10613,23 @@
       </c>
       <c r="CT4" t="n">
         <v>-0.02831525405310411</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>-0.14157627026552055</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>-0.014157627026552055</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>0.05663050810620822</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B5" t="n">
         <v>0.014108280401923527</v>
@@ -10513,11 +10921,23 @@
       </c>
       <c r="CT5" t="n">
         <v>-0.06348726180865587</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>-0.049378981406732345</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>-0.05878450167468136</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>-0.05408174154070685</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>-0.04232484120577058</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B6" t="n">
         <v>0.04080933048911967</v>
@@ -10809,11 +11229,23 @@
       </c>
       <c r="CT6" t="n">
         <v>-0.9794239317388722</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>-0.5305212963585557</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>-0.5713306268476754</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>-1.020233262227992</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>-1.1018519232062312</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B7" t="n">
         <v>0.04492882442895002</v>
@@ -11105,11 +11537,23 @@
       </c>
       <c r="CT7" t="n">
         <v>-0.4492882442895002</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>-0.4043594198605502</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>-0.47175265650397524</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>-0.5840747175763503</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>-0.42682383207502517</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B8" t="n">
         <v>0.26016957332850854</v>
@@ -11401,11 +11845,23 @@
       </c>
       <c r="CT8" t="n">
         <v>0.0743341638081453</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>0.2973366552325812</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>0.03716708190407265</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>-0.2973366552325812</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>-0.2230024914244359</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B9" t="n">
         <v>0.06887216770580651</v>
@@ -11697,11 +12153,23 @@
       </c>
       <c r="CT9" t="n">
         <v>-0.10330825155870976</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>-0.05165412577935488</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>-0.12052629348516139</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>-0.3099247546761293</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>-0.25827062889677443</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B10" t="n">
         <v>0.1457461574679361</v>
@@ -11993,11 +12461,23 @@
       </c>
       <c r="CT10" t="n">
         <v>0.08744769448076166</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>0.20404462045511054</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>0.05829846298717444</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>-0.1457461574679361</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -12289,11 +12769,23 @@
       </c>
       <c r="CT11" t="n">
         <v>-0.10878911819407558</v>
+      </c>
+      <c r="CU11" t="n">
+        <v>-0.06799319887129723</v>
+      </c>
+      <c r="CV11" t="n">
+        <v>-0.09519047841981614</v>
+      </c>
+      <c r="CW11" t="n">
+        <v>-0.19038095683963227</v>
+      </c>
+      <c r="CX11" t="n">
+        <v>-0.040795919322778346</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B12" t="n">
         <v>0.43762048482831273</v>
@@ -12585,11 +13077,23 @@
       </c>
       <c r="CT12" t="n">
         <v>0.1750481939313251</v>
+      </c>
+      <c r="CU12" t="n">
+        <v>0.6126686787596378</v>
+      </c>
+      <c r="CV12" t="n">
+        <v>0.08752409696566255</v>
+      </c>
+      <c r="CW12" t="n">
+        <v>-1.3128614544849382</v>
+      </c>
+      <c r="CX12" t="n">
+        <v>-0.26257229089698764</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B13" t="n">
         <v>0.07319423172318318</v>
@@ -12881,11 +13385,23 @@
       </c>
       <c r="CT13" t="n">
         <v>0.05855538537854654</v>
+      </c>
+      <c r="CU13" t="n">
+        <v>-0.04391653903390991</v>
+      </c>
+      <c r="CV13" t="n">
+        <v>0.08783307806781981</v>
+      </c>
+      <c r="CW13" t="n">
+        <v>-0.07319423172318318</v>
+      </c>
+      <c r="CX13" t="n">
+        <v>0.02927769268927327</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B14" t="n">
         <v>0.01926156970942499</v>
@@ -13177,11 +13693,23 @@
       </c>
       <c r="CT14" t="n">
         <v>0.05778470912827497</v>
+      </c>
+      <c r="CU14" t="n">
+        <v>0.05778470912827497</v>
+      </c>
+      <c r="CV14" t="n">
+        <v>0.05778470912827497</v>
+      </c>
+      <c r="CW14" t="n">
+        <v>-0.11556941825654994</v>
+      </c>
+      <c r="CX14" t="n">
+        <v>-0.01926156970942499</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B15" t="n">
         <v>0.023574031664592304</v>
@@ -13473,11 +14001,23 @@
       </c>
       <c r="CT15" t="n">
         <v>-0.42433256996266144</v>
+      </c>
+      <c r="CU15" t="n">
+        <v>-0.35361047496888454</v>
+      </c>
+      <c r="CV15" t="n">
+        <v>-0.44790660162725376</v>
+      </c>
+      <c r="CW15" t="n">
+        <v>-0.5186286966210307</v>
+      </c>
+      <c r="CX15" t="n">
+        <v>-0.11787015832296152</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B16" t="n">
         <v>0.037905978212130716</v>
@@ -13769,11 +14309,23 @@
       </c>
       <c r="CT16" t="n">
         <v>-0.15162391284852286</v>
+      </c>
+      <c r="CU16" t="n">
+        <v>-0.12319442918942483</v>
+      </c>
+      <c r="CV16" t="n">
+        <v>-0.2274358692727843</v>
+      </c>
+      <c r="CW16" t="n">
+        <v>-0.2748183420379477</v>
+      </c>
+      <c r="CX16" t="n">
+        <v>-0.12319442918942483</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B17" t="n">
         <v>0.13788686376518408</v>
@@ -14065,11 +14617,23 @@
       </c>
       <c r="CT17" t="n">
         <v>-0.5515474550607363</v>
+      </c>
+      <c r="CU17" t="n">
+        <v>-0.44123796404858906</v>
+      </c>
+      <c r="CV17" t="n">
+        <v>-0.7721664370850309</v>
+      </c>
+      <c r="CW17" t="n">
+        <v>-0.744589064331994</v>
+      </c>
+      <c r="CX17" t="n">
+        <v>-0.44123796404858906</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -14361,11 +14925,23 @@
       </c>
       <c r="CT18" t="n">
         <v>-0.12401876308506703</v>
+      </c>
+      <c r="CU18" t="n">
+        <v>-0.199808007192608</v>
+      </c>
+      <c r="CV18" t="n">
+        <v>-0.13779862565007447</v>
+      </c>
+      <c r="CW18" t="n">
+        <v>-0.46851532721025324</v>
+      </c>
+      <c r="CX18" t="n">
+        <v>-0.11712883180256331</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B19" t="n">
         <v>0.3200322917200799</v>
@@ -14657,11 +15233,23 @@
       </c>
       <c r="CT19" t="n">
         <v>0.06400645834401598</v>
+      </c>
+      <c r="CU19" t="n">
+        <v>-0.6400645834401598</v>
+      </c>
+      <c r="CV19" t="n">
+        <v>0.19201937503204797</v>
+      </c>
+      <c r="CW19" t="n">
+        <v>-0.9600968751602398</v>
+      </c>
+      <c r="CX19" t="n">
+        <v>-0.25602583337606394</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B20" t="n">
         <v>0.6118758916521551</v>
@@ -14953,11 +15541,23 @@
       </c>
       <c r="CT20" t="n">
         <v>-1.2237517833043101</v>
+      </c>
+      <c r="CU20" t="n">
+        <v>-0.8158345222028734</v>
+      </c>
+      <c r="CV20" t="n">
+        <v>-1.0197931527535917</v>
+      </c>
+      <c r="CW20" t="n">
+        <v>-2.6514621971593386</v>
+      </c>
+      <c r="CX20" t="n">
+        <v>-1.121772468028951</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B21" t="n">
         <v>0.05859768899755219</v>
@@ -15249,11 +15849,23 @@
       </c>
       <c r="CT21" t="n">
         <v>-0.13672794099428842</v>
+      </c>
+      <c r="CU21" t="n">
+        <v>-0.1953256299918406</v>
+      </c>
+      <c r="CV21" t="n">
+        <v>-0.1562605039934725</v>
+      </c>
+      <c r="CW21" t="n">
+        <v>-0.27345588198857684</v>
+      </c>
+      <c r="CX21" t="n">
+        <v>-0.10742909649551234</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B22" t="n">
         <v>0.04626017541948326</v>
@@ -15545,11 +16157,23 @@
       </c>
       <c r="CT22" t="n">
         <v>-0.019825789465492828</v>
+      </c>
+      <c r="CU22" t="n">
+        <v>0.019825789465492828</v>
+      </c>
+      <c r="CV22" t="n">
+        <v>0.013217192976995218</v>
+      </c>
+      <c r="CW22" t="n">
+        <v>-0.039651578930985656</v>
+      </c>
+      <c r="CX22" t="n">
+        <v>0.006608596488497609</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B23" t="n">
         <v>0.007353881145838853</v>
@@ -15840,12 +16464,24 @@
         <v>0.0</v>
       </c>
       <c r="CT23" t="n">
+        <v>-0.007353881145838853</v>
+      </c>
+      <c r="CU23" t="n">
+        <v>-0.007353881145838853</v>
+      </c>
+      <c r="CV23" t="n">
+        <v>-0.0018384702864597132</v>
+      </c>
+      <c r="CW23" t="n">
+        <v>-0.016546232578137417</v>
+      </c>
+      <c r="CX23" t="n">
         <v>-0.007353881145838853</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B24" t="n">
         <v>0.06427623169552077</v>
@@ -16137,11 +16773,23 @@
       </c>
       <c r="CT24" t="n">
         <v>-1.092695938823853</v>
+      </c>
+      <c r="CU24" t="n">
+        <v>-0.3856573901731246</v>
+      </c>
+      <c r="CV24" t="n">
+        <v>-0.32138115847760385</v>
+      </c>
+      <c r="CW24" t="n">
+        <v>-1.3498008656059362</v>
+      </c>
+      <c r="CX24" t="n">
+        <v>-0.3856573901731246</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B25" t="n">
         <v>-0.04210519964838624</v>
@@ -16433,11 +17081,23 @@
       </c>
       <c r="CT25" t="n">
         <v>-0.6315779947257937</v>
+      </c>
+      <c r="CU25" t="n">
+        <v>-0.6736831943741799</v>
+      </c>
+      <c r="CV25" t="n">
+        <v>-0.5473675954290211</v>
+      </c>
+      <c r="CW25" t="n">
+        <v>-1.0947351908580423</v>
+      </c>
+      <c r="CX25" t="n">
+        <v>-0.7999987933193387</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B26" t="n">
         <v>0.0061828639958577715</v>
@@ -16729,11 +17389,23 @@
       </c>
       <c r="CT26" t="n">
         <v>-0.061828639958577715</v>
+      </c>
+      <c r="CU26" t="n">
+        <v>-0.23494883184259532</v>
+      </c>
+      <c r="CV26" t="n">
+        <v>-0.08037723194615103</v>
+      </c>
+      <c r="CW26" t="n">
+        <v>-0.11129155192543988</v>
+      </c>
+      <c r="CX26" t="n">
+        <v>-0.1978516478674487</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B27" t="n">
         <v>1.6100192281362187</v>
@@ -17025,11 +17697,23 @@
       </c>
       <c r="CT27" t="n">
         <v>-0.9660115368817311</v>
+      </c>
+      <c r="CU27" t="n">
+        <v>-1.6100192281362187</v>
+      </c>
+      <c r="CV27" t="n">
+        <v>-2.5760307650179497</v>
+      </c>
+      <c r="CW27" t="n">
+        <v>-5.474065375663143</v>
+      </c>
+      <c r="CX27" t="n">
+        <v>-6.11807306691763</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B28" t="n">
         <v>0.0</v>
@@ -17321,11 +18005,23 @@
       </c>
       <c r="CT28" t="n">
         <v>-0.07770021633667241</v>
+      </c>
+      <c r="CU28" t="n">
+        <v>-0.046620129802003446</v>
+      </c>
+      <c r="CV28" t="n">
+        <v>-0.056980158646893105</v>
+      </c>
+      <c r="CW28" t="n">
+        <v>-0.10878030287134138</v>
+      </c>
+      <c r="CX28" t="n">
+        <v>-0.05180014422444827</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B29" t="n">
         <v>4.120593361962645</v>
@@ -17617,6 +18313,18 @@
       </c>
       <c r="CT29" t="n">
         <v>-6.879009354361003</v>
+      </c>
+      <c r="CU29" t="n">
+        <v>-5.85618599091398</v>
+      </c>
+      <c r="CV29" t="n">
+        <v>-7.443318016457405</v>
+      </c>
+      <c r="CW29" t="n">
+        <v>-18.53198560309681</v>
+      </c>
+      <c r="CX29" t="n">
+        <v>-12.30044502050168</v>
       </c>
     </row>
   </sheetData>
@@ -17925,10 +18633,22 @@
       <c r="CT1" t="s">
         <v>96</v>
       </c>
+      <c r="CU1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B2" t="n">
         <v>-0.004335522292705126</v>
@@ -18220,11 +18940,23 @@
       </c>
       <c r="CT2" t="n">
         <v>-0.09104596814680765</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>-0.10405253502492304</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>-0.11489134075668585</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>-0.12139462419574354</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>-0.08020716241504483</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B3" t="n">
         <v>0.008026873401875145</v>
@@ -18516,11 +19248,23 @@
       </c>
       <c r="CT3" t="n">
         <v>-0.4334511637012578</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>-0.4896392775143838</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>-0.5297736445237595</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>-0.6180692519443861</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>-0.4655586573087584</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B4" t="n">
         <v>-0.02831525405310411</v>
@@ -18812,11 +19556,23 @@
       </c>
       <c r="CT4" t="n">
         <v>-0.6229355891682904</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>-0.6229355891682904</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>-0.792827113486915</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>-0.8069847405134671</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>-0.5804627080886342</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B5" t="n">
         <v>-0.023513800669872544</v>
@@ -19108,11 +19864,23 @@
       </c>
       <c r="CT5" t="n">
         <v>-0.13873142395224802</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>-0.13873142395224802</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>-0.15048832428718428</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>-0.14813694422019702</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>-0.11756900334936272</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B6" t="n">
         <v>-0.6937586183150345</v>
@@ -19404,11 +20172,23 @@
       </c>
       <c r="CT6" t="n">
         <v>-2.162894515923343</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>-2.3261318378798213</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>-2.44855982934718</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>-2.611797151303659</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>-2.2853225073907018</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B7" t="n">
         <v>-0.5166814809329252</v>
@@ -19700,11 +20480,23 @@
       </c>
       <c r="CT7" t="n">
         <v>-1.7522241527290507</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>-1.7971529771580008</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>-1.887010626015901</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>-1.864546213801426</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>-1.7746885649435258</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B8" t="n">
         <v>-0.2973366552325812</v>
@@ -19996,11 +20788,23 @@
       </c>
       <c r="CT8" t="n">
         <v>-1.8583540952036324</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>-2.0441895047239957</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>-2.2671919961484317</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>-2.0441895047239957</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>-2.1556907504362135</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B9" t="n">
         <v>-0.36157888045548414</v>
@@ -20292,11 +21096,23 @@
       </c>
       <c r="CT9" t="n">
         <v>-1.1708268509987105</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>-1.2396990187045172</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>-1.3085711864103238</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>-1.3774433541161302</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>-1.2741351025574204</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B10" t="n">
         <v>-0.20404462045511054</v>
@@ -20588,11 +21404,23 @@
       </c>
       <c r="CT10" t="n">
         <v>-0.34979077792304664</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>-0.5829846298717444</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>-0.8744769448076166</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>-1.0493723337691399</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>-0.6121338613653317</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B11" t="n">
         <v>-0.10878911819407558</v>
@@ -20884,11 +21712,23 @@
       </c>
       <c r="CT11" t="n">
         <v>-0.516748311421859</v>
+      </c>
+      <c r="CU11" t="n">
+        <v>-0.5575442307446373</v>
+      </c>
+      <c r="CV11" t="n">
+        <v>-0.6255374296159346</v>
+      </c>
+      <c r="CW11" t="n">
+        <v>-0.5711428705188968</v>
+      </c>
+      <c r="CX11" t="n">
+        <v>-0.38076191367926454</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B12" t="n">
         <v>0.962765066622288</v>
@@ -21180,11 +22020,23 @@
       </c>
       <c r="CT12" t="n">
         <v>-2.100578327175901</v>
+      </c>
+      <c r="CU12" t="n">
+        <v>-2.275626521107226</v>
+      </c>
+      <c r="CV12" t="n">
+        <v>-2.713247005935539</v>
+      </c>
+      <c r="CW12" t="n">
+        <v>-4.201156654351802</v>
+      </c>
+      <c r="CX12" t="n">
+        <v>-2.363150618072889</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B13" t="n">
         <v>0.014638846344636636</v>
@@ -21476,11 +22328,23 @@
       </c>
       <c r="CT13" t="n">
         <v>-0.38061000496055253</v>
+      </c>
+      <c r="CU13" t="n">
+        <v>-0.5416373147515555</v>
+      </c>
+      <c r="CV13" t="n">
+        <v>-0.644109239164012</v>
+      </c>
+      <c r="CW13" t="n">
+        <v>-0.7026646245425585</v>
+      </c>
+      <c r="CX13" t="n">
+        <v>-0.4538042366837357</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B14" t="n">
         <v>-0.23113883651309988</v>
@@ -21772,11 +22636,23 @@
       </c>
       <c r="CT14" t="n">
         <v>-0.4044929638979248</v>
+      </c>
+      <c r="CU14" t="n">
+        <v>-0.5008008124450497</v>
+      </c>
+      <c r="CV14" t="n">
+        <v>-0.7126780792487246</v>
+      </c>
+      <c r="CW14" t="n">
+        <v>-0.7704627883769997</v>
+      </c>
+      <c r="CX14" t="n">
+        <v>-0.5778470912827497</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B15" t="n">
         <v>-0.11787015832296152</v>
@@ -22068,11 +22944,23 @@
       </c>
       <c r="CT15" t="n">
         <v>-1.084405456571246</v>
+      </c>
+      <c r="CU15" t="n">
+        <v>-1.2258496465587998</v>
+      </c>
+      <c r="CV15" t="n">
+        <v>-1.320145773217169</v>
+      </c>
+      <c r="CW15" t="n">
+        <v>-1.4144418998755381</v>
+      </c>
+      <c r="CX15" t="n">
+        <v>-0.777943044931546</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B16" t="n">
         <v>-0.18952989106065357</v>
@@ -22364,11 +23252,23 @@
       </c>
       <c r="CT16" t="n">
         <v>-0.5496366840758954</v>
+      </c>
+      <c r="CU16" t="n">
+        <v>-0.5875426622880261</v>
+      </c>
+      <c r="CV16" t="n">
+        <v>-0.7107370914774509</v>
+      </c>
+      <c r="CW16" t="n">
+        <v>-0.7581195642426143</v>
+      </c>
+      <c r="CX16" t="n">
+        <v>-0.5875426622880261</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B17" t="n">
         <v>0.08273211825911045</v>
@@ -22660,11 +23560,23 @@
       </c>
       <c r="CT17" t="n">
         <v>-1.4616007559109512</v>
+      </c>
+      <c r="CU17" t="n">
+        <v>-1.5167555014170249</v>
+      </c>
+      <c r="CV17" t="n">
+        <v>-1.8752613472065036</v>
+      </c>
+      <c r="CW17" t="n">
+        <v>-2.0131482109716874</v>
+      </c>
+      <c r="CX17" t="n">
+        <v>-1.489178128663988</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B18" t="n">
         <v>0.04133958769502234</v>
@@ -22956,11 +23868,23 @@
       </c>
       <c r="CT18" t="n">
         <v>-0.1446885569325782</v>
+      </c>
+      <c r="CU18" t="n">
+        <v>-0.26870732001764525</v>
+      </c>
+      <c r="CV18" t="n">
+        <v>-0.27559725130014895</v>
+      </c>
+      <c r="CW18" t="n">
+        <v>-0.3031569764301638</v>
+      </c>
+      <c r="CX18" t="n">
+        <v>-0.2066979384751117</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B19" t="n">
         <v>-0.25602583337606394</v>
@@ -23252,11 +24176,23 @@
       </c>
       <c r="CT19" t="n">
         <v>-1.4721485419123677</v>
+      </c>
+      <c r="CU19" t="n">
+        <v>-3.392342292232847</v>
+      </c>
+      <c r="CV19" t="n">
+        <v>-3.392342292232847</v>
+      </c>
+      <c r="CW19" t="n">
+        <v>-3.840387500640959</v>
+      </c>
+      <c r="CX19" t="n">
+        <v>-2.7522777087926875</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B20" t="n">
         <v>0.4079172611014367</v>
@@ -23548,11 +24484,23 @@
       </c>
       <c r="CT20" t="n">
         <v>-6.22073823179691</v>
+      </c>
+      <c r="CU20" t="n">
+        <v>-6.322717547072269</v>
+      </c>
+      <c r="CV20" t="n">
+        <v>-6.934593438724424</v>
+      </c>
+      <c r="CW20" t="n">
+        <v>-8.56626248313017</v>
+      </c>
+      <c r="CX20" t="n">
+        <v>-6.628655492898346</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B21" t="n">
         <v>-0.13672794099428842</v>
@@ -23844,11 +24792,23 @@
       </c>
       <c r="CT21" t="n">
         <v>-0.5957431714751139</v>
+      </c>
+      <c r="CU21" t="n">
+        <v>-0.644574578973074</v>
+      </c>
+      <c r="CV21" t="n">
+        <v>-0.7227048309698103</v>
+      </c>
+      <c r="CW21" t="n">
+        <v>-0.7520036754685864</v>
+      </c>
+      <c r="CX21" t="n">
+        <v>-0.62504201597389</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B22" t="n">
         <v>0.019825789465492828</v>
@@ -24140,11 +25100,23 @@
       </c>
       <c r="CT22" t="n">
         <v>-0.11895473679295697</v>
+      </c>
+      <c r="CU22" t="n">
+        <v>-0.1453891227469474</v>
+      </c>
+      <c r="CV22" t="n">
+        <v>-0.19825789465492827</v>
+      </c>
+      <c r="CW22" t="n">
+        <v>-0.2313008770974163</v>
+      </c>
+      <c r="CX22" t="n">
+        <v>-0.10573754381596175</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B23" t="n">
         <v>-0.0036769405729194264</v>
@@ -24436,11 +25408,23 @@
       </c>
       <c r="CT23" t="n">
         <v>-0.06434646002608996</v>
+      </c>
+      <c r="CU23" t="n">
+        <v>-0.08640810346360651</v>
+      </c>
+      <c r="CV23" t="n">
+        <v>-0.09008504403652595</v>
+      </c>
+      <c r="CW23" t="n">
+        <v>-0.0974389251823648</v>
+      </c>
+      <c r="CX23" t="n">
+        <v>-0.07353881145838853</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B24" t="n">
         <v>-0.5142098535641662</v>
@@ -24732,11 +25716,23 @@
       </c>
       <c r="CT24" t="n">
         <v>-3.278087816471559</v>
+      </c>
+      <c r="CU24" t="n">
+        <v>-3.4709165115581215</v>
+      </c>
+      <c r="CV24" t="n">
+        <v>-4.113678828513329</v>
+      </c>
+      <c r="CW24" t="n">
+        <v>-4.692164913773016</v>
+      </c>
+      <c r="CX24" t="n">
+        <v>-2.763877962907393</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B25" t="n">
         <v>-0.6315779947257937</v>
@@ -25028,11 +26024,23 @@
       </c>
       <c r="CT25" t="n">
         <v>-2.35789118030963</v>
+      </c>
+      <c r="CU25" t="n">
+        <v>-3.0315743746838093</v>
+      </c>
+      <c r="CV25" t="n">
+        <v>-2.8631535760902644</v>
+      </c>
+      <c r="CW25" t="n">
+        <v>-2.8210483764418783</v>
+      </c>
+      <c r="CX25" t="n">
+        <v>-2.8210483764418783</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B26" t="n">
         <v>-0.13602300790887098</v>
@@ -25324,11 +26332,23 @@
       </c>
       <c r="CT26" t="n">
         <v>-0.2844117438094575</v>
+      </c>
+      <c r="CU26" t="n">
+        <v>-0.36478897575560854</v>
+      </c>
+      <c r="CV26" t="n">
+        <v>-0.3709718397514663</v>
+      </c>
+      <c r="CW26" t="n">
+        <v>-0.40188615973075514</v>
+      </c>
+      <c r="CX26" t="n">
+        <v>-0.3029603357970308</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B27" t="n">
         <v>1.9320230737634623</v>
@@ -25620,11 +26640,23 @@
       </c>
       <c r="CT27" t="n">
         <v>-10.304123060071799</v>
+      </c>
+      <c r="CU27" t="n">
+        <v>-12.558149979462504</v>
+      </c>
+      <c r="CV27" t="n">
+        <v>-18.35421920075289</v>
+      </c>
+      <c r="CW27" t="n">
+        <v>-19.642234583261867</v>
+      </c>
+      <c r="CX27" t="n">
+        <v>-16.42219612698943</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B28" t="n">
         <v>0.046620129802003446</v>
@@ -25916,11 +26948,23 @@
       </c>
       <c r="CT28" t="n">
         <v>-0.10360028844889654</v>
+      </c>
+      <c r="CU28" t="n">
+        <v>-0.1502204182509</v>
+      </c>
+      <c r="CV28" t="n">
+        <v>-0.14504040382845518</v>
+      </c>
+      <c r="CW28" t="n">
+        <v>-0.16576046151823448</v>
+      </c>
+      <c r="CX28" t="n">
+        <v>-0.10878030287134138</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B29" t="n">
         <v>-0.9392456611843827</v>
@@ -26212,6 +27256,18 @@
       </c>
       <c r="CT29" t="n">
         <v>-40.023060829808074</v>
+      </c>
+      <c r="CU29" t="n">
+        <v>-46.98706270752758</v>
+      </c>
+      <c r="CV29" t="n">
+        <v>-56.43615157250442</v>
+      </c>
+      <c r="CW29" t="n">
+        <v>-62.586715664143654</v>
+      </c>
+      <c r="CX29" t="n">
+        <v>-48.78680862987865</v>
       </c>
     </row>
   </sheetData>
@@ -26520,10 +27576,22 @@
       <c r="CT1" t="s">
         <v>96</v>
       </c>
+      <c r="CU1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B2" t="n">
         <v>0.010838805731762815</v>
@@ -26815,11 +27883,23 @@
       </c>
       <c r="CT2" t="n">
         <v>-0.14957551909832686</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>-0.1474077579519743</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>-0.14307223565926916</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>-0.16691760826914737</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>-0.15174328024467942</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B3" t="n">
         <v>-0.0722418606168763</v>
@@ -27111,11 +28191,23 @@
       </c>
       <c r="CT3" t="n">
         <v>-0.4655586573087584</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>-0.45753178390688326</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>-0.5137198977200093</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>-0.5939886317387607</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>-0.45753178390688326</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B4" t="n">
         <v>0.14157627026552055</v>
@@ -27407,11 +28499,23 @@
       </c>
       <c r="CT4" t="n">
         <v>-0.4672016918762178</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>-0.4388864378231137</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>-0.5096745729558739</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>-0.48135931890276984</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>-0.41057118377000956</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B5" t="n">
         <v>-0.007054140200961763</v>
@@ -27703,11 +28807,23 @@
       </c>
       <c r="CT5" t="n">
         <v>-0.17400212495705683</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>-0.16224522462212054</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>-0.18811040535898035</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>-0.17870488509103133</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>-0.17165074489006957</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -27999,11 +29115,23 @@
       </c>
       <c r="CT6" t="n">
         <v>-2.5301784903254196</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>-2.3261318378798213</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>-2.366941168368941</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>-2.734225142771018</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>-2.5709878208145396</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B7" t="n">
         <v>0.02246441221447501</v>
@@ -28295,11 +29423,23 @@
       </c>
       <c r="CT7" t="n">
         <v>-1.4152579695119256</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>-1.3703291450829755</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>-1.4152579695119256</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>-1.4826512061553507</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>-1.3703291450829755</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B8" t="n">
         <v>0.2973366552325812</v>
@@ -28590,12 +29730,24 @@
         <v>-1.4495161942588333</v>
       </c>
       <c r="CT8" t="n">
+        <v>-1.4123491123547607</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>-1.3008478666425427</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>-1.1521795390262521</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>-1.3751820304506879</v>
+      </c>
+      <c r="CX8" t="n">
         <v>-1.4123491123547607</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B9" t="n">
         <v>-0.017218041926451627</v>
@@ -28887,11 +30039,23 @@
       </c>
       <c r="CT9" t="n">
         <v>-0.8609020963225813</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>-0.8264660124696781</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>-0.8953381801754846</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>-1.067518599440001</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>-0.8953381801754846</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B10" t="n">
         <v>0.11659692597434888</v>
@@ -29183,11 +30347,23 @@
       </c>
       <c r="CT10" t="n">
         <v>-0.6995815558460933</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>-0.6412830928589188</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>-0.6704323243525061</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>-0.9036261763012039</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>-0.7578800188332677</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B11" t="n">
         <v>-0.09519047841981614</v>
@@ -29479,11 +30655,23 @@
       </c>
       <c r="CT11" t="n">
         <v>-0.8023197466813073</v>
+      </c>
+      <c r="CU11" t="n">
+        <v>-0.8023197466813073</v>
+      </c>
+      <c r="CV11" t="n">
+        <v>-0.8431156660040857</v>
+      </c>
+      <c r="CW11" t="n">
+        <v>-0.8975102251011235</v>
+      </c>
+      <c r="CX11" t="n">
+        <v>-0.788721106907048</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B12" t="n">
         <v>0.8752409696566255</v>
@@ -29774,12 +30962,24 @@
         <v>-3.0633433937981893</v>
       </c>
       <c r="CT12" t="n">
+        <v>-3.0633433937981893</v>
+      </c>
+      <c r="CU12" t="n">
+        <v>-2.888295199866864</v>
+      </c>
+      <c r="CV12" t="n">
+        <v>-3.1508674907638516</v>
+      </c>
+      <c r="CW12" t="n">
+        <v>-4.46372894524879</v>
+      </c>
+      <c r="CX12" t="n">
         <v>-3.0633433937981893</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B13" t="n">
         <v>0.02927769268927327</v>
@@ -30071,11 +31271,23 @@
       </c>
       <c r="CT13" t="n">
         <v>-0.43916539033909907</v>
+      </c>
+      <c r="CU13" t="n">
+        <v>-0.5123596220622822</v>
+      </c>
+      <c r="CV13" t="n">
+        <v>-0.5269984684069189</v>
+      </c>
+      <c r="CW13" t="n">
+        <v>-0.7173034708871951</v>
+      </c>
+      <c r="CX13" t="n">
+        <v>-0.46844308302837234</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -30367,11 +31579,23 @@
       </c>
       <c r="CT14" t="n">
         <v>-0.6548933701204497</v>
+      </c>
+      <c r="CU14" t="n">
+        <v>-0.6356318004110246</v>
+      </c>
+      <c r="CV14" t="n">
+        <v>-0.7126780792487246</v>
+      </c>
+      <c r="CW14" t="n">
+        <v>-0.8282474975052746</v>
+      </c>
+      <c r="CX14" t="n">
+        <v>-0.7126780792487246</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B15" t="n">
         <v>0.14144418998755381</v>
@@ -30663,11 +31887,23 @@
       </c>
       <c r="CT15" t="n">
         <v>-1.3672938365463536</v>
+      </c>
+      <c r="CU15" t="n">
+        <v>-1.3908678682109459</v>
+      </c>
+      <c r="CV15" t="n">
+        <v>-1.4144418998755381</v>
+      </c>
+      <c r="CW15" t="n">
+        <v>-1.626608184856869</v>
+      </c>
+      <c r="CX15" t="n">
+        <v>-1.1551275515650228</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B16" t="n">
         <v>0.05685896731819608</v>
@@ -30959,11 +32195,23 @@
       </c>
       <c r="CT16" t="n">
         <v>-0.5496366840758954</v>
+      </c>
+      <c r="CU16" t="n">
+        <v>-0.5496366840758954</v>
+      </c>
+      <c r="CV16" t="n">
+        <v>-0.5685896731819607</v>
+      </c>
+      <c r="CW16" t="n">
+        <v>-0.6159721459471241</v>
+      </c>
+      <c r="CX16" t="n">
+        <v>-0.5685896731819607</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B17" t="n">
         <v>0.1930416092712577</v>
@@ -31255,11 +32503,23 @@
       </c>
       <c r="CT17" t="n">
         <v>-1.4340233831579146</v>
+      </c>
+      <c r="CU17" t="n">
+        <v>-1.3788686376518409</v>
+      </c>
+      <c r="CV17" t="n">
+        <v>-1.5994876196761354</v>
+      </c>
+      <c r="CW17" t="n">
+        <v>-1.5994876196761354</v>
+      </c>
+      <c r="CX17" t="n">
+        <v>-1.4064460104048777</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B18" t="n">
         <v>-0.062009381542533513</v>
@@ -31551,11 +32811,23 @@
       </c>
       <c r="CT18" t="n">
         <v>-0.4960750523402681</v>
+      </c>
+      <c r="CU18" t="n">
+        <v>-0.5167448461877793</v>
+      </c>
+      <c r="CV18" t="n">
+        <v>-0.5167448461877793</v>
+      </c>
+      <c r="CW18" t="n">
+        <v>-0.5443045713177942</v>
+      </c>
+      <c r="CX18" t="n">
+        <v>-0.46851532721025324</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B19" t="n">
         <v>0.4480452084081119</v>
@@ -31847,11 +33119,23 @@
       </c>
       <c r="CT19" t="n">
         <v>-2.1122131253525276</v>
+      </c>
+      <c r="CU19" t="n">
+        <v>-2.6242647921046554</v>
+      </c>
+      <c r="CV19" t="n">
+        <v>-2.496251875416623</v>
+      </c>
+      <c r="CW19" t="n">
+        <v>-3.136316458856783</v>
+      </c>
+      <c r="CX19" t="n">
+        <v>-2.3042325003845754</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B20" t="n">
         <v>1.3257310985796693</v>
@@ -32143,11 +33427,23 @@
       </c>
       <c r="CT20" t="n">
         <v>-5.506883024869396</v>
+      </c>
+      <c r="CU20" t="n">
+        <v>-5.2009450790433185</v>
+      </c>
+      <c r="CV20" t="n">
+        <v>-4.8950071332172405</v>
+      </c>
+      <c r="CW20" t="n">
+        <v>-6.22073823179691</v>
+      </c>
+      <c r="CX20" t="n">
+        <v>-5.302924394318677</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B21" t="n">
         <v>-0.00976628149959203</v>
@@ -32439,11 +33735,23 @@
       </c>
       <c r="CT21" t="n">
         <v>-0.4687815119804175</v>
+      </c>
+      <c r="CU21" t="n">
+        <v>-0.48831407497960155</v>
+      </c>
+      <c r="CV21" t="n">
+        <v>-0.5273792009779696</v>
+      </c>
+      <c r="CW21" t="n">
+        <v>-0.62504201597389</v>
+      </c>
+      <c r="CX21" t="n">
+        <v>-0.45901523048082543</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B22" t="n">
         <v>0.0</v>
@@ -32735,11 +34043,23 @@
       </c>
       <c r="CT22" t="n">
         <v>-0.37668999984436374</v>
+      </c>
+      <c r="CU22" t="n">
+        <v>-0.3634728068673685</v>
+      </c>
+      <c r="CV22" t="n">
+        <v>-0.38329859633286134</v>
+      </c>
+      <c r="CW22" t="n">
+        <v>-0.45599315770633503</v>
+      </c>
+      <c r="CX22" t="n">
+        <v>-0.3634728068673685</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B23" t="n">
         <v>-0.005515410859379139</v>
@@ -33031,11 +34351,23 @@
       </c>
       <c r="CT23" t="n">
         <v>-0.10479280632820365</v>
+      </c>
+      <c r="CU23" t="n">
+        <v>-0.10111586575528422</v>
+      </c>
+      <c r="CV23" t="n">
+        <v>-0.11950056861988136</v>
+      </c>
+      <c r="CW23" t="n">
+        <v>-0.1250159794792605</v>
+      </c>
+      <c r="CX23" t="n">
+        <v>-0.10663127661466336</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B24" t="n">
         <v>0.1928286950865623</v>
@@ -33327,11 +34659,23 @@
       </c>
       <c r="CT24" t="n">
         <v>-2.763877962907393</v>
+      </c>
+      <c r="CU24" t="n">
+        <v>-2.6996017312118723</v>
+      </c>
+      <c r="CV24" t="n">
+        <v>-2.763877962907393</v>
+      </c>
+      <c r="CW24" t="n">
+        <v>-3.599468974949163</v>
+      </c>
+      <c r="CX24" t="n">
+        <v>-2.4424968044297892</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B25" t="n">
         <v>-0.04210519964838624</v>
@@ -33623,11 +34967,23 @@
       </c>
       <c r="CT25" t="n">
         <v>-2.5263119789031747</v>
+      </c>
+      <c r="CU25" t="n">
+        <v>-2.6526275778483335</v>
+      </c>
+      <c r="CV25" t="n">
+        <v>-2.35789118030963</v>
+      </c>
+      <c r="CW25" t="n">
+        <v>-2.568417178551561</v>
+      </c>
+      <c r="CX25" t="n">
+        <v>-2.610522378199947</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B26" t="n">
         <v>-0.06801150395443549</v>
@@ -33919,11 +35275,23 @@
       </c>
       <c r="CT26" t="n">
         <v>-0.3895204317390396</v>
+      </c>
+      <c r="CU26" t="n">
+        <v>-0.4575319356934751</v>
+      </c>
+      <c r="CV26" t="n">
+        <v>-0.4142518877224707</v>
+      </c>
+      <c r="CW26" t="n">
+        <v>-0.4946291196686217</v>
+      </c>
+      <c r="CX26" t="n">
+        <v>-0.46989766368519065</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B27" t="n">
         <v>3.5420423018996807</v>
@@ -34215,11 +35583,23 @@
       </c>
       <c r="CT27" t="n">
         <v>-17.066203818243917</v>
+      </c>
+      <c r="CU27" t="n">
+        <v>-16.42219612698943</v>
+      </c>
+      <c r="CV27" t="n">
+        <v>-15.778188435734942</v>
+      </c>
+      <c r="CW27" t="n">
+        <v>-17.38820766387116</v>
+      </c>
+      <c r="CX27" t="n">
+        <v>-19.642234583261867</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B28" t="n">
         <v>-0.031080086534668965</v>
@@ -34511,11 +35891,23 @@
       </c>
       <c r="CT28" t="n">
         <v>-0.2849007932344655</v>
+      </c>
+      <c r="CU28" t="n">
+        <v>-0.29008080765691036</v>
+      </c>
+      <c r="CV28" t="n">
+        <v>-0.31080086534668966</v>
+      </c>
+      <c r="CW28" t="n">
+        <v>-0.35224098072624827</v>
+      </c>
+      <c r="CX28" t="n">
+        <v>-0.2797207788120207</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B29" t="n">
         <v>6.983131417112518</v>
@@ -34807,6 +36199,18 @@
       </c>
       <c r="CT29" t="n">
         <v>-48.58153352806352</v>
+      </c>
+      <c r="CU29" t="n">
+        <v>-47.64600436253622</v>
+      </c>
+      <c r="CV29" t="n">
+        <v>-47.23409774305994</v>
+      </c>
+      <c r="CW29" t="n">
+        <v>-55.24340602124021</v>
+      </c>
+      <c r="CX29" t="n">
+        <v>-50.81139391247204</v>
       </c>
     </row>
   </sheetData>
@@ -35115,10 +36519,22 @@
       <c r="CT1" t="s">
         <v>96</v>
       </c>
+      <c r="CU1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B2" t="n">
         <v>0.010838805731762815</v>
@@ -35410,11 +36826,23 @@
       </c>
       <c r="CT2" t="n">
         <v>-0.06936835668328202</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>-0.06286507324422433</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>-0.047690745219756386</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>-0.04335522292705126</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>-0.06286507324422433</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B3" t="n">
         <v>0.008026873401875145</v>
@@ -35706,11 +37134,23 @@
       </c>
       <c r="CT3" t="n">
         <v>-0.29699431586938035</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>-0.26488682226187976</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>-0.2006718350468786</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>-0.20869870844875377</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>-0.2729136956637549</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B4" t="n">
         <v>0.08494576215931232</v>
@@ -36002,11 +37442,23 @@
       </c>
       <c r="CT4" t="n">
         <v>-0.45304406484966575</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>-0.41057118377000956</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>-0.3114677945841452</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>-0.16989152431862464</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>-0.41057118377000956</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B5" t="n">
         <v>0.009405520267949018</v>
@@ -36298,11 +37750,23 @@
       </c>
       <c r="CT5" t="n">
         <v>-0.1340286638182735</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>-0.12697452361731174</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>-0.09875796281346469</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>-0.06819002194263038</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>-0.12227176348333724</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B6" t="n">
         <v>0.20404665244559836</v>
@@ -36594,11 +38058,23 @@
       </c>
       <c r="CT6" t="n">
         <v>-1.2650892451627098</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>-1.1834705841844706</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>-0.9386146012497525</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>-0.7345679488041541</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>-1.7956105415212655</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B7" t="n">
         <v>0.08985764885790004</v>
@@ -36890,11 +38366,23 @@
       </c>
       <c r="CT7" t="n">
         <v>-1.0782917862948005</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>-0.9884341374369005</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>-0.7637900152921504</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>-0.4942170687184502</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>-0.9435053130079505</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B8" t="n">
         <v>0.2973366552325812</v>
@@ -37186,11 +38674,23 @@
       </c>
       <c r="CT8" t="n">
         <v>-1.3380149485466153</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>-1.1893466209303247</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>-0.5946733104651624</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>-0.5203391466570171</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>-1.2636807847384701</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B9" t="n">
         <v>0.12052629348516139</v>
@@ -37482,11 +38982,23 @@
       </c>
       <c r="CT9" t="n">
         <v>-0.39601496430838745</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>-0.34436083852903254</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>-0.25827062889677443</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>-0.25827062889677443</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>-0.41323300623483905</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B10" t="n">
         <v>0.23319385194869777</v>
@@ -37778,11 +39290,23 @@
       </c>
       <c r="CT10" t="n">
         <v>-0.5538353983781572</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>-0.4372384724038083</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>-0.2914923149358722</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>-0.17489538896152332</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>-0.37894000941663386</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B11" t="n">
         <v>0.027197279548518895</v>
@@ -38074,11 +39598,23 @@
       </c>
       <c r="CT11" t="n">
         <v>-0.47595239209908063</v>
+      </c>
+      <c r="CU11" t="n">
+        <v>-0.4351564727763023</v>
+      </c>
+      <c r="CV11" t="n">
+        <v>-0.2855714352594484</v>
+      </c>
+      <c r="CW11" t="n">
+        <v>-0.19038095683963227</v>
+      </c>
+      <c r="CX11" t="n">
+        <v>-0.394360553453524</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B12" t="n">
         <v>0.7001927757253004</v>
@@ -38370,11 +39906,23 @@
       </c>
       <c r="CT12" t="n">
         <v>-1.6629578423475884</v>
+      </c>
+      <c r="CU12" t="n">
+        <v>-1.4879096484162633</v>
+      </c>
+      <c r="CV12" t="n">
+        <v>-1.0502891635879505</v>
+      </c>
+      <c r="CW12" t="n">
+        <v>-1.137813260553613</v>
+      </c>
+      <c r="CX12" t="n">
+        <v>-1.4879096484162633</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B13" t="n">
         <v>0.07319423172318318</v>
@@ -38666,11 +40214,23 @@
       </c>
       <c r="CT13" t="n">
         <v>-0.08783307806781981</v>
+      </c>
+      <c r="CU13" t="n">
+        <v>-0.10247192441245645</v>
+      </c>
+      <c r="CV13" t="n">
+        <v>-0.08783307806781981</v>
+      </c>
+      <c r="CW13" t="n">
+        <v>-0.04391653903390991</v>
+      </c>
+      <c r="CX13" t="n">
+        <v>-0.07319423172318318</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B14" t="n">
         <v>0.05778470912827497</v>
@@ -38962,11 +40522,23 @@
       </c>
       <c r="CT14" t="n">
         <v>-0.21187726680367489</v>
+      </c>
+      <c r="CU14" t="n">
+        <v>-0.13483098796597492</v>
+      </c>
+      <c r="CV14" t="n">
+        <v>-0.11556941825654994</v>
+      </c>
+      <c r="CW14" t="n">
+        <v>-0.03852313941884998</v>
+      </c>
+      <c r="CX14" t="n">
+        <v>-0.15409255767539992</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B15" t="n">
         <v>0.11787015832296152</v>
@@ -39258,11 +40830,23 @@
       </c>
       <c r="CT15" t="n">
         <v>-0.9193872349190998</v>
+      </c>
+      <c r="CU15" t="n">
+        <v>-0.8486651399253229</v>
+      </c>
+      <c r="CV15" t="n">
+        <v>-0.6129248232793999</v>
+      </c>
+      <c r="CW15" t="n">
+        <v>-0.42433256996266144</v>
+      </c>
+      <c r="CX15" t="n">
+        <v>-0.6600728866085845</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B16" t="n">
         <v>0.037905978212130716</v>
@@ -39554,11 +41138,23 @@
       </c>
       <c r="CT16" t="n">
         <v>-0.3601067930152418</v>
+      </c>
+      <c r="CU16" t="n">
+        <v>-0.33167730935614376</v>
+      </c>
+      <c r="CV16" t="n">
+        <v>-0.29377133114401305</v>
+      </c>
+      <c r="CW16" t="n">
+        <v>-0.2274358692727843</v>
+      </c>
+      <c r="CX16" t="n">
+        <v>-0.33167730935614376</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B17" t="n">
         <v>0.13788686376518408</v>
@@ -39850,11 +41446,23 @@
       </c>
       <c r="CT17" t="n">
         <v>-1.1582496556275463</v>
+      </c>
+      <c r="CU17" t="n">
+        <v>-1.0755175373684358</v>
+      </c>
+      <c r="CV17" t="n">
+        <v>-0.910053300850215</v>
+      </c>
+      <c r="CW17" t="n">
+        <v>-0.6894343188259204</v>
+      </c>
+      <c r="CX17" t="n">
+        <v>-1.0755175373684358</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B18" t="n">
         <v>0.02066979384751117</v>
@@ -40146,11 +41754,23 @@
       </c>
       <c r="CT18" t="n">
         <v>-0.24114759488763032</v>
+      </c>
+      <c r="CU18" t="n">
+        <v>-0.3031569764301638</v>
+      </c>
+      <c r="CV18" t="n">
+        <v>-0.17913821334509683</v>
+      </c>
+      <c r="CW18" t="n">
+        <v>-0.13090869436757074</v>
+      </c>
+      <c r="CX18" t="n">
+        <v>-0.2273677323226229</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B19" t="n">
         <v>0.38403875006409594</v>
@@ -40442,11 +42062,23 @@
       </c>
       <c r="CT19" t="n">
         <v>-0.9600968751602398</v>
+      </c>
+      <c r="CU19" t="n">
+        <v>-0.9600968751602398</v>
+      </c>
+      <c r="CV19" t="n">
+        <v>-0.7680775001281919</v>
+      </c>
+      <c r="CW19" t="n">
+        <v>-0.6400645834401598</v>
+      </c>
+      <c r="CX19" t="n">
+        <v>-0.8320839584722078</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B20" t="n">
         <v>0.6118758916521551</v>
@@ -40738,11 +42370,23 @@
       </c>
       <c r="CT20" t="n">
         <v>-4.079172611014367</v>
+      </c>
+      <c r="CU20" t="n">
+        <v>-3.7732346651882898</v>
+      </c>
+      <c r="CV20" t="n">
+        <v>-2.6514621971593386</v>
+      </c>
+      <c r="CW20" t="n">
+        <v>-2.957400142985416</v>
+      </c>
+      <c r="CX20" t="n">
+        <v>-3.6712553499129306</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B21" t="n">
         <v>0.05859768899755219</v>
@@ -41034,11 +42678,23 @@
       </c>
       <c r="CT21" t="n">
         <v>-0.312521007986945</v>
+      </c>
+      <c r="CU21" t="n">
+        <v>-0.27345588198857684</v>
+      </c>
+      <c r="CV21" t="n">
+        <v>-0.2246244744906167</v>
+      </c>
+      <c r="CW21" t="n">
+        <v>-0.2246244744906167</v>
+      </c>
+      <c r="CX21" t="n">
+        <v>-0.2832221634881689</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B22" t="n">
         <v>0.039651578930985656</v>
@@ -41330,11 +42986,23 @@
       </c>
       <c r="CT22" t="n">
         <v>-0.09252035083896652</v>
+      </c>
+      <c r="CU22" t="n">
+        <v>-0.059477368396478485</v>
+      </c>
+      <c r="CV22" t="n">
+        <v>-0.05286877190798087</v>
+      </c>
+      <c r="CW22" t="n">
+        <v>-0.04626017541948326</v>
+      </c>
+      <c r="CX22" t="n">
+        <v>-0.0726945613734737</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B23" t="n">
         <v>0.011030821718758278</v>
@@ -41626,11 +43294,23 @@
       </c>
       <c r="CT23" t="n">
         <v>-0.04596175716149283</v>
+      </c>
+      <c r="CU23" t="n">
+        <v>-0.03860787601565398</v>
+      </c>
+      <c r="CV23" t="n">
+        <v>-0.023900113723976272</v>
+      </c>
+      <c r="CW23" t="n">
+        <v>-0.022061643437516557</v>
+      </c>
+      <c r="CX23" t="n">
+        <v>-0.03860787601565398</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B24" t="n">
         <v>0.12855246339104154</v>
@@ -41922,11 +43602,23 @@
       </c>
       <c r="CT24" t="n">
         <v>-1.4783533289969777</v>
+      </c>
+      <c r="CU24" t="n">
+        <v>-1.3498008656059362</v>
+      </c>
+      <c r="CV24" t="n">
+        <v>-0.8998672437372908</v>
+      </c>
+      <c r="CW24" t="n">
+        <v>-0.8998672437372908</v>
+      </c>
+      <c r="CX24" t="n">
+        <v>-1.1569721705193738</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B25" t="n">
         <v>0.12631559894515873</v>
@@ -42218,11 +43910,23 @@
       </c>
       <c r="CT25" t="n">
         <v>-0.6736831943741799</v>
+      </c>
+      <c r="CU25" t="n">
+        <v>-0.6315779947257937</v>
+      </c>
+      <c r="CV25" t="n">
+        <v>-0.4631571961322487</v>
+      </c>
+      <c r="CW25" t="n">
+        <v>-0.5473675954290211</v>
+      </c>
+      <c r="CX25" t="n">
+        <v>-0.5894727950774075</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B26" t="n">
         <v>0.030914319979288857</v>
@@ -42514,11 +44218,23 @@
       </c>
       <c r="CT26" t="n">
         <v>-0.22876596784673756</v>
+      </c>
+      <c r="CU26" t="n">
+        <v>-0.33387465577631964</v>
+      </c>
+      <c r="CV26" t="n">
+        <v>-0.14220587190472875</v>
+      </c>
+      <c r="CW26" t="n">
+        <v>-0.08037723194615103</v>
+      </c>
+      <c r="CX26" t="n">
+        <v>-0.31532606378874634</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B27" t="n">
         <v>2.5760307650179497</v>
@@ -42810,11 +44526,23 @@
       </c>
       <c r="CT27" t="n">
         <v>-12.558149979462504</v>
+      </c>
+      <c r="CU27" t="n">
+        <v>-11.27013459695353</v>
+      </c>
+      <c r="CV27" t="n">
+        <v>-7.406088449426606</v>
+      </c>
+      <c r="CW27" t="n">
+        <v>-5.796069221290387</v>
+      </c>
+      <c r="CX27" t="n">
+        <v>-18.032215355125647</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B28" t="n">
         <v>0.046620129802003446</v>
@@ -43106,11 +44834,23 @@
       </c>
       <c r="CT28" t="n">
         <v>-0.10878030287134138</v>
+      </c>
+      <c r="CU28" t="n">
+        <v>-0.09324025960400689</v>
+      </c>
+      <c r="CV28" t="n">
+        <v>-0.06734018749178276</v>
+      </c>
+      <c r="CW28" t="n">
+        <v>-0.046620129802003446</v>
+      </c>
+      <c r="CX28" t="n">
+        <v>-0.08288023075911724</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B29" t="n">
         <v>6.244507862302893</v>
@@ -43402,6 +45142,18 @@
       </c>
       <c r="CT29" t="n">
         <v>-31.240198977392705</v>
+      </c>
+      <c r="CU29" t="n">
+        <v>-28.51103529244385</v>
+      </c>
+      <c r="CV29" t="n">
+        <v>-19.74017197839721</v>
+      </c>
+      <c r="CW29" t="n">
+        <v>-16.815883449927966</v>
+      </c>
+      <c r="CX29" t="n">
+        <v>-35.14251435253737</v>
       </c>
     </row>
   </sheetData>
@@ -43710,10 +45462,22 @@
       <c r="CT1" t="s">
         <v>96</v>
       </c>
+      <c r="CU1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B2" t="n">
         <v>0.002167761146352563</v>
@@ -44004,12 +45768,24 @@
         <v>0.03468417834164101</v>
       </c>
       <c r="CT2" t="n">
+        <v>0.036851939487993576</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>0.036851939487993576</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>0.030348656048935885</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>0.030348656048935885</v>
+      </c>
+      <c r="CX2" t="n">
         <v>0.036851939487993576</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -44300,12 +46076,24 @@
         <v>0.1284299744300023</v>
       </c>
       <c r="CT3" t="n">
+        <v>0.1284299744300023</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>0.13645684783187745</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>0.12040310102812717</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>0.13645684783187745</v>
+      </c>
+      <c r="CX3" t="n">
         <v>0.1284299744300023</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B4" t="n">
         <v>-0.014157627026552055</v>
@@ -44597,11 +46385,23 @@
       </c>
       <c r="CT4" t="n">
         <v>0.24067965945138492</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>0.21236440539828083</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>0.18404915134517671</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>0.14157627026552055</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>0.19820677837172876</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -44893,11 +46693,23 @@
       </c>
       <c r="CT5" t="n">
         <v>0.051730361473719594</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>0.051730361473719594</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>0.04467622127275783</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>0.03997346113878333</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>0.04702760133974509</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B6" t="n">
         <v>0.04080933048911967</v>
@@ -45189,11 +47001,23 @@
       </c>
       <c r="CT6" t="n">
         <v>0.7345679488041541</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>0.7345679488041541</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>0.6529492878259148</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>0.612139957336795</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>0.8161866097823934</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B7" t="n">
         <v>0.02246441221447501</v>
@@ -45485,11 +47309,23 @@
       </c>
       <c r="CT7" t="n">
         <v>0.47175265650397524</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>0.47175265650397524</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>0.4043594198605502</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>0.35943059543160016</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>0.4492882442895002</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -45781,11 +47617,23 @@
       </c>
       <c r="CT8" t="n">
         <v>0.7433416380814529</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>0.7433416380814529</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>0.5575062285610897</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>0.5575062285610897</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>0.7061745561773803</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -46077,11 +47925,23 @@
       </c>
       <c r="CT9" t="n">
         <v>0.27548867082322603</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>0.25827062889677443</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>0.20661650311741953</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>0.22383454504387115</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>0.29270671274967763</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -46373,11 +48233,23 @@
       </c>
       <c r="CT10" t="n">
         <v>0.4372384724038083</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>0.4080892409102211</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>0.34979077792304664</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>0.3206415464294594</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>0.4080892409102211</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B11" t="n">
         <v>0.013598639774259447</v>
@@ -46669,11 +48541,23 @@
       </c>
       <c r="CT11" t="n">
         <v>0.24477551593667005</v>
+      </c>
+      <c r="CU11" t="n">
+        <v>0.24477551593667005</v>
+      </c>
+      <c r="CV11" t="n">
+        <v>0.2039795966138917</v>
+      </c>
+      <c r="CW11" t="n">
+        <v>0.19038095683963227</v>
+      </c>
+      <c r="CX11" t="n">
+        <v>0.23117687616241062</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -46964,12 +48848,24 @@
         <v>1.2253373575192756</v>
       </c>
       <c r="CT12" t="n">
+        <v>1.2253373575192756</v>
+      </c>
+      <c r="CU12" t="n">
+        <v>1.137813260553613</v>
+      </c>
+      <c r="CV12" t="n">
+        <v>0.962765066622288</v>
+      </c>
+      <c r="CW12" t="n">
+        <v>1.0502891635879505</v>
+      </c>
+      <c r="CX12" t="n">
         <v>1.2253373575192756</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -47261,11 +49157,23 @@
       </c>
       <c r="CT13" t="n">
         <v>0.14638846344636636</v>
+      </c>
+      <c r="CU13" t="n">
+        <v>0.161027309791003</v>
+      </c>
+      <c r="CV13" t="n">
+        <v>0.161027309791003</v>
+      </c>
+      <c r="CW13" t="n">
+        <v>0.161027309791003</v>
+      </c>
+      <c r="CX13" t="n">
+        <v>0.161027309791003</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B14" t="n">
         <v>0.01926156970942499</v>
@@ -47557,11 +49465,23 @@
       </c>
       <c r="CT14" t="n">
         <v>0.21187726680367489</v>
+      </c>
+      <c r="CU14" t="n">
+        <v>0.19261569709424992</v>
+      </c>
+      <c r="CV14" t="n">
+        <v>0.19261569709424992</v>
+      </c>
+      <c r="CW14" t="n">
+        <v>0.17335412738482492</v>
+      </c>
+      <c r="CX14" t="n">
+        <v>0.23113883651309988</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -47853,11 +49773,23 @@
       </c>
       <c r="CT15" t="n">
         <v>0.44790660162725376</v>
+      </c>
+      <c r="CU15" t="n">
+        <v>0.4714806332918461</v>
+      </c>
+      <c r="CV15" t="n">
+        <v>0.37718450663347686</v>
+      </c>
+      <c r="CW15" t="n">
+        <v>0.35361047496888454</v>
+      </c>
+      <c r="CX15" t="n">
+        <v>0.37718450663347686</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B16" t="n">
         <v>0.009476494553032679</v>
@@ -48148,12 +50080,24 @@
         <v>0.16110040740155554</v>
       </c>
       <c r="CT16" t="n">
+        <v>0.16110040740155554</v>
+      </c>
+      <c r="CU16" t="n">
+        <v>0.17057690195458822</v>
+      </c>
+      <c r="CV16" t="n">
+        <v>0.16110040740155554</v>
+      </c>
+      <c r="CW16" t="n">
+        <v>0.17057690195458822</v>
+      </c>
+      <c r="CX16" t="n">
         <v>0.16110040740155554</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -48445,11 +50389,23 @@
       </c>
       <c r="CT17" t="n">
         <v>0.5239700823076995</v>
+      </c>
+      <c r="CU17" t="n">
+        <v>0.5239700823076995</v>
+      </c>
+      <c r="CV17" t="n">
+        <v>0.4963927095546627</v>
+      </c>
+      <c r="CW17" t="n">
+        <v>0.4963927095546627</v>
+      </c>
+      <c r="CX17" t="n">
+        <v>0.5515474550607363</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B18" t="n">
         <v>0.006889931282503724</v>
@@ -48740,12 +50696,24 @@
         <v>0.13779862565007447</v>
       </c>
       <c r="CT18" t="n">
+        <v>0.13779862565007447</v>
+      </c>
+      <c r="CU18" t="n">
+        <v>0.15846841949758564</v>
+      </c>
+      <c r="CV18" t="n">
+        <v>0.13090869436757074</v>
+      </c>
+      <c r="CW18" t="n">
+        <v>0.11712883180256331</v>
+      </c>
+      <c r="CX18" t="n">
         <v>0.13779862565007447</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -49037,11 +51005,23 @@
       </c>
       <c r="CT19" t="n">
         <v>0.7680775001281919</v>
+      </c>
+      <c r="CU19" t="n">
+        <v>0.9600968751602398</v>
+      </c>
+      <c r="CV19" t="n">
+        <v>0.8320839584722078</v>
+      </c>
+      <c r="CW19" t="n">
+        <v>0.7680775001281919</v>
+      </c>
+      <c r="CX19" t="n">
+        <v>0.8320839584722078</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B20" t="n">
         <v>-0.10197931527535918</v>
@@ -49333,11 +51313,23 @@
       </c>
       <c r="CT20" t="n">
         <v>2.1415656207825426</v>
+      </c>
+      <c r="CU20" t="n">
+        <v>2.0395863055071835</v>
+      </c>
+      <c r="CV20" t="n">
+        <v>1.631669044405747</v>
+      </c>
+      <c r="CW20" t="n">
+        <v>1.733648359681106</v>
+      </c>
+      <c r="CX20" t="n">
+        <v>1.8356276749564653</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B21" t="n">
         <v>0.00976628149959203</v>
@@ -49628,12 +51620,24 @@
         <v>0.16602678549306452</v>
       </c>
       <c r="CT21" t="n">
+        <v>0.16602678549306452</v>
+      </c>
+      <c r="CU21" t="n">
+        <v>0.16602678549306452</v>
+      </c>
+      <c r="CV21" t="n">
+        <v>0.1562605039934725</v>
+      </c>
+      <c r="CW21" t="n">
+        <v>0.17579306699265657</v>
+      </c>
+      <c r="CX21" t="n">
         <v>0.16602678549306452</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B22" t="n">
         <v>0.006608596488497609</v>
@@ -49925,11 +51929,23 @@
       </c>
       <c r="CT22" t="n">
         <v>0.08591175435046892</v>
+      </c>
+      <c r="CU22" t="n">
+        <v>0.07930315786197131</v>
+      </c>
+      <c r="CV22" t="n">
+        <v>0.0726945613734737</v>
+      </c>
+      <c r="CW22" t="n">
+        <v>0.0726945613734737</v>
+      </c>
+      <c r="CX22" t="n">
+        <v>0.07930315786197131</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B23" t="n">
         <v>0.0</v>
@@ -50221,11 +52237,23 @@
       </c>
       <c r="CT23" t="n">
         <v>0.02941552458335541</v>
+      </c>
+      <c r="CU23" t="n">
+        <v>0.02941552458335541</v>
+      </c>
+      <c r="CV23" t="n">
+        <v>0.023900113723976272</v>
+      </c>
+      <c r="CW23" t="n">
+        <v>0.023900113723976272</v>
+      </c>
+      <c r="CX23" t="n">
+        <v>0.0275770542968957</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B24" t="n">
         <v>0.06427623169552077</v>
@@ -50517,11 +52545,23 @@
       </c>
       <c r="CT24" t="n">
         <v>1.092695938823853</v>
+      </c>
+      <c r="CU24" t="n">
+        <v>1.0284197071283323</v>
+      </c>
+      <c r="CV24" t="n">
+        <v>0.9641434754328115</v>
+      </c>
+      <c r="CW24" t="n">
+        <v>1.0284197071283323</v>
+      </c>
+      <c r="CX24" t="n">
+        <v>0.9641434754328115</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B25" t="n">
         <v>0.04210519964838624</v>
@@ -50812,12 +52852,24 @@
         <v>0.5052623957806349</v>
       </c>
       <c r="CT25" t="n">
+        <v>0.5052623957806349</v>
+      </c>
+      <c r="CU25" t="n">
+        <v>0.5894727950774075</v>
+      </c>
+      <c r="CV25" t="n">
+        <v>0.5052623957806349</v>
+      </c>
+      <c r="CW25" t="n">
+        <v>0.5473675954290211</v>
+      </c>
+      <c r="CX25" t="n">
         <v>0.5052623957806349</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B26" t="n">
         <v>0.0</v>
@@ -51109,11 +53161,23 @@
       </c>
       <c r="CT26" t="n">
         <v>0.09274295993786658</v>
+      </c>
+      <c r="CU26" t="n">
+        <v>0.1298401439130132</v>
+      </c>
+      <c r="CV26" t="n">
+        <v>0.08656009594200881</v>
+      </c>
+      <c r="CW26" t="n">
+        <v>0.08656009594200881</v>
+      </c>
+      <c r="CX26" t="n">
+        <v>0.11747441592129766</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B27" t="n">
         <v>-0.3220038456272437</v>
@@ -51405,11 +53469,23 @@
       </c>
       <c r="CT27" t="n">
         <v>6.440076912544875</v>
+      </c>
+      <c r="CU27" t="n">
+        <v>6.11807306691763</v>
+      </c>
+      <c r="CV27" t="n">
+        <v>5.152061530035899</v>
+      </c>
+      <c r="CW27" t="n">
+        <v>4.508053838781412</v>
+      </c>
+      <c r="CX27" t="n">
+        <v>8.050096140681093</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B28" t="n">
         <v>0.0</v>
@@ -51701,11 +53777,23 @@
       </c>
       <c r="CT28" t="n">
         <v>0.08288023075911724</v>
+      </c>
+      <c r="CU28" t="n">
+        <v>0.07770021633667241</v>
+      </c>
+      <c r="CV28" t="n">
+        <v>0.06216017306933793</v>
+      </c>
+      <c r="CW28" t="n">
+        <v>0.05180014422444827</v>
+      </c>
+      <c r="CX28" t="n">
+        <v>0.07252020191422759</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B29" t="n">
         <v>-0.20071633942799022</v>
@@ -51997,6 +54085,18 @@
       </c>
       <c r="CT29" t="n">
         <v>17.62389126533626</v>
+      </c>
+      <c r="CU29" t="n">
+        <v>17.332088065794576</v>
+      </c>
+      <c r="CV29" t="n">
+        <v>14.723469187291286</v>
+      </c>
+      <c r="CW29" t="n">
+        <v>14.130983567376669</v>
+      </c>
+      <c r="CX29" t="n">
+        <v>18.809388293080943</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_base_google.xlsx
+++ b/docs/excel_base_google.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="142">
   <si>
     <t>02/15/20</t>
   </si>
@@ -335,6 +335,33 @@
     <t>05/29/20</t>
   </si>
   <si>
+    <t>05/30/20</t>
+  </si>
+  <si>
+    <t>05/31/20</t>
+  </si>
+  <si>
+    <t>06/01/20</t>
+  </si>
+  <si>
+    <t>06/02/20</t>
+  </si>
+  <si>
+    <t>06/03/20</t>
+  </si>
+  <si>
+    <t>06/04/20</t>
+  </si>
+  <si>
+    <t>06/05/20</t>
+  </si>
+  <si>
+    <t>06/06/20</t>
+  </si>
+  <si>
+    <t>06/07/20</t>
+  </si>
+  <si>
     <t>AC</t>
   </si>
   <si>
@@ -784,10 +811,37 @@
       <c r="DB1" t="s">
         <v>104</v>
       </c>
+      <c r="DC1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B2" t="n">
         <v>0.004335522292705126</v>
@@ -1103,11 +1157,38 @@
       </c>
       <c r="DB2" t="n">
         <v>-0.11055581846398072</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>-0.11922686304939097</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>-0.14957551909832686</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>-0.09321372929316021</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>-0.09104596814680765</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>-0.09538149043951277</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>-0.09754925158586535</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>-0.10405253502492304</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>-0.11055581846398072</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>-0.14307223565926916</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B3" t="n">
         <v>0.04013436700937573</v>
@@ -1423,11 +1504,38 @@
       </c>
       <c r="DB3" t="n">
         <v>-0.44950491050500807</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>-0.5056930243181341</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>-0.5538542647293849</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>-0.42542429029938267</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>-0.4093705434956324</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>-0.4013436700937572</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>-0.41739741689750753</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>-0.4093705434956324</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>-0.4334511637012578</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>-0.5217467711218844</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B4" t="n">
         <v>0.12741864323896848</v>
@@ -1743,11 +1851,38 @@
       </c>
       <c r="DB4" t="n">
         <v>-0.5804627080886342</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>-0.6229355891682904</v>
+      </c>
+      <c r="DD4" t="n">
+        <v>-0.778669486460363</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>-0.523832199982426</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>-0.41057118377000956</v>
+      </c>
+      <c r="DG4" t="n">
+        <v>-0.45304406484966575</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>-0.42472881079656166</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>-0.3822559297169055</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>-0.41057118377000956</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>-0.6370932161948425</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B5" t="n">
         <v>0.025865180736859797</v>
@@ -2063,11 +2198,38 @@
       </c>
       <c r="DB5" t="n">
         <v>-0.16929936482308233</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>-0.17870488509103133</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>-0.1857590252919931</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>-0.16929936482308233</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>-0.1645966046891078</v>
+      </c>
+      <c r="DG5" t="n">
+        <v>-0.15283970435417155</v>
+      </c>
+      <c r="DH5" t="n">
+        <v>-0.15283970435417155</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>-0.14343418408622252</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>-0.15754246448814604</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>-0.1763535050240441</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="B6" t="n">
         <v>-0.04080933048911967</v>
@@ -2383,11 +2545,38 @@
       </c>
       <c r="DB6" t="n">
         <v>-2.2037038464124623</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>-2.3261318378798213</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>-2.734225142771018</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>-1.999657193966864</v>
+      </c>
+      <c r="DF6" t="n">
+        <v>-1.999657193966864</v>
+      </c>
+      <c r="DG6" t="n">
+        <v>-2.040466524455984</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>-2.122085185434223</v>
+      </c>
+      <c r="DI6" t="n">
+        <v>-2.0812758549451034</v>
+      </c>
+      <c r="DJ6" t="n">
+        <v>-2.2853225073907018</v>
+      </c>
+      <c r="DK6" t="n">
+        <v>-2.734225142771018</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B7" t="n">
         <v>-0.04492882442895002</v>
@@ -2703,11 +2892,38 @@
       </c>
       <c r="DB7" t="n">
         <v>-1.4601867939408757</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>-1.5725088550132507</v>
+      </c>
+      <c r="DD7" t="n">
+        <v>-1.6848309160856259</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>-1.3703291450829755</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>-1.3254003206540257</v>
+      </c>
+      <c r="DG7" t="n">
+        <v>-1.3254003206540257</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>-1.3029359084395506</v>
+      </c>
+      <c r="DI7" t="n">
+        <v>-1.3029359084395506</v>
+      </c>
+      <c r="DJ7" t="n">
+        <v>-1.4377223817264007</v>
+      </c>
+      <c r="DK7" t="n">
+        <v>-1.6174376794422007</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B8" t="n">
         <v>0.37167081904072646</v>
@@ -3023,11 +3239,38 @@
       </c>
       <c r="DB8" t="n">
         <v>-1.7468528494914144</v>
+      </c>
+      <c r="DC8" t="n">
+        <v>-1.8211870132995598</v>
+      </c>
+      <c r="DD8" t="n">
+        <v>-2.0813565866280683</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>-1.7096857675873418</v>
+      </c>
+      <c r="DF8" t="n">
+        <v>-1.7468528494914144</v>
+      </c>
+      <c r="DG8" t="n">
+        <v>-1.7096857675873418</v>
+      </c>
+      <c r="DH8" t="n">
+        <v>-1.6725186856832692</v>
+      </c>
+      <c r="DI8" t="n">
+        <v>-1.5238503580669787</v>
+      </c>
+      <c r="DJ8" t="n">
+        <v>-1.5610174399710512</v>
+      </c>
+      <c r="DK8" t="n">
+        <v>-1.8583540952036324</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="B9" t="n">
         <v>-0.017218041926451627</v>
@@ -3343,11 +3586,38 @@
       </c>
       <c r="DB9" t="n">
         <v>-0.8264660124696781</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>-0.9297742640283879</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>-1.1191727252193557</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>-0.7575938447638716</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>-0.7575938447638716</v>
+      </c>
+      <c r="DG9" t="n">
+        <v>-0.74037580283742</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>-0.74037580283742</v>
+      </c>
+      <c r="DI9" t="n">
+        <v>-0.7231577609109683</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>-0.9125562221019362</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>-1.1363907671458073</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B10" t="n">
         <v>0.08744769448076166</v>
@@ -3663,11 +3933,38 @@
       </c>
       <c r="DB10" t="n">
         <v>-1.195118491237076</v>
+      </c>
+      <c r="DC10" t="n">
+        <v>-1.3408646487050122</v>
+      </c>
+      <c r="DD10" t="n">
+        <v>-1.6323569636408843</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>-1.1368200282499017</v>
+      </c>
+      <c r="DF10" t="n">
+        <v>-1.0785215652627271</v>
+      </c>
+      <c r="DG10" t="n">
+        <v>-1.1076707967563144</v>
+      </c>
+      <c r="DH10" t="n">
+        <v>-1.0785215652627271</v>
+      </c>
+      <c r="DI10" t="n">
+        <v>-1.0202231022755528</v>
+      </c>
+      <c r="DJ10" t="n">
+        <v>-1.1659692597434888</v>
+      </c>
+      <c r="DK10" t="n">
+        <v>-1.457461574679361</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="B11" t="n">
         <v>-0.040795919322778346</v>
@@ -3983,11 +4280,38 @@
       </c>
       <c r="DB11" t="n">
         <v>-0.6799319887129723</v>
+      </c>
+      <c r="DC11" t="n">
+        <v>-0.7071292682614913</v>
+      </c>
+      <c r="DD11" t="n">
+        <v>-0.8159183864555668</v>
+      </c>
+      <c r="DE11" t="n">
+        <v>-0.5847415102931562</v>
+      </c>
+      <c r="DF11" t="n">
+        <v>-0.5575442307446373</v>
+      </c>
+      <c r="DG11" t="n">
+        <v>-0.5711428705188968</v>
+      </c>
+      <c r="DH11" t="n">
+        <v>-0.5847415102931562</v>
+      </c>
+      <c r="DI11" t="n">
+        <v>-0.5303469511961184</v>
+      </c>
+      <c r="DJ11" t="n">
+        <v>-0.6119387898416752</v>
+      </c>
+      <c r="DK11" t="n">
+        <v>-0.7207279080357507</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B12" t="n">
         <v>0.6126686787596378</v>
@@ -4303,11 +4627,38 @@
       </c>
       <c r="DB12" t="n">
         <v>-3.0633433937981893</v>
+      </c>
+      <c r="DC12" t="n">
+        <v>-3.7635361695234897</v>
+      </c>
+      <c r="DD12" t="n">
+        <v>-4.638777139180115</v>
+      </c>
+      <c r="DE12" t="n">
+        <v>-3.0633433937981893</v>
+      </c>
+      <c r="DF12" t="n">
+        <v>-3.238391587729514</v>
+      </c>
+      <c r="DG12" t="n">
+        <v>-3.0633433937981893</v>
+      </c>
+      <c r="DH12" t="n">
+        <v>-2.9758192968325266</v>
+      </c>
+      <c r="DI12" t="n">
+        <v>-2.713247005935539</v>
+      </c>
+      <c r="DJ12" t="n">
+        <v>-3.588487975592164</v>
+      </c>
+      <c r="DK12" t="n">
+        <v>-4.551253042214452</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="B13" t="n">
         <v>0.08783307806781981</v>
@@ -4623,11 +4974,38 @@
       </c>
       <c r="DB13" t="n">
         <v>-0.322054619582006</v>
+      </c>
+      <c r="DC13" t="n">
+        <v>-0.38061000496055253</v>
+      </c>
+      <c r="DD13" t="n">
+        <v>-0.5709150074408288</v>
+      </c>
+      <c r="DE13" t="n">
+        <v>-0.35133231227127926</v>
+      </c>
+      <c r="DF13" t="n">
+        <v>-0.4538042366837357</v>
+      </c>
+      <c r="DG13" t="n">
+        <v>-0.38061000496055253</v>
+      </c>
+      <c r="DH13" t="n">
+        <v>-0.3366934659266426</v>
+      </c>
+      <c r="DI13" t="n">
+        <v>-0.19030500248027626</v>
+      </c>
+      <c r="DJ13" t="n">
+        <v>-0.23422154151418617</v>
+      </c>
+      <c r="DK13" t="n">
+        <v>-0.43916539033909907</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -4943,11 +5321,38 @@
       </c>
       <c r="DB14" t="n">
         <v>-0.5393239518638997</v>
+      </c>
+      <c r="DC14" t="n">
+        <v>-0.5971086609921747</v>
+      </c>
+      <c r="DD14" t="n">
+        <v>-0.7897243580864246</v>
+      </c>
+      <c r="DE14" t="n">
+        <v>-0.5008008124450497</v>
+      </c>
+      <c r="DF14" t="n">
+        <v>-0.5200623821544748</v>
+      </c>
+      <c r="DG14" t="n">
+        <v>-0.48153924273562476</v>
+      </c>
+      <c r="DH14" t="n">
+        <v>-0.42375453360734977</v>
+      </c>
+      <c r="DI14" t="n">
+        <v>-0.4044929638979248</v>
+      </c>
+      <c r="DJ14" t="n">
+        <v>-0.5585855215733248</v>
+      </c>
+      <c r="DK14" t="n">
+        <v>-0.7704627883769997</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -5263,11 +5668,38 @@
       </c>
       <c r="DB15" t="n">
         <v>-1.1315535199004305</v>
+      </c>
+      <c r="DC15" t="n">
+        <v>-1.2729977098879843</v>
+      </c>
+      <c r="DD15" t="n">
+        <v>-1.4380159315401304</v>
+      </c>
+      <c r="DE15" t="n">
+        <v>-0.9665352982482844</v>
+      </c>
+      <c r="DF15" t="n">
+        <v>-0.8722391715899153</v>
+      </c>
+      <c r="DG15" t="n">
+        <v>-0.8722391715899153</v>
+      </c>
+      <c r="DH15" t="n">
+        <v>-0.8958132032545075</v>
+      </c>
+      <c r="DI15" t="n">
+        <v>-0.8958132032545075</v>
+      </c>
+      <c r="DJ15" t="n">
+        <v>-0.9429612665836922</v>
+      </c>
+      <c r="DK15" t="n">
+        <v>-1.2022756148942075</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B16" t="n">
         <v>0.018952989106065358</v>
@@ -5583,11 +6015,38 @@
       </c>
       <c r="DB16" t="n">
         <v>-0.5875426622880261</v>
+      </c>
+      <c r="DC16" t="n">
+        <v>-0.6349251350531895</v>
+      </c>
+      <c r="DD16" t="n">
+        <v>-0.7202135860304836</v>
+      </c>
+      <c r="DE16" t="n">
+        <v>-0.6444016296062222</v>
+      </c>
+      <c r="DF16" t="n">
+        <v>-0.6254486405001568</v>
+      </c>
+      <c r="DG16" t="n">
+        <v>-0.6159721459471241</v>
+      </c>
+      <c r="DH16" t="n">
+        <v>-0.5780661677349934</v>
+      </c>
+      <c r="DI16" t="n">
+        <v>-0.5780661677349934</v>
+      </c>
+      <c r="DJ16" t="n">
+        <v>-0.6064956513940915</v>
+      </c>
+      <c r="DK16" t="n">
+        <v>-0.7107370914774509</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="B17" t="n">
         <v>0.13788686376518408</v>
@@ -5903,11 +6362,38 @@
       </c>
       <c r="DB17" t="n">
         <v>-1.7373744834413194</v>
+      </c>
+      <c r="DC17" t="n">
+        <v>-1.7649518561943562</v>
+      </c>
+      <c r="DD17" t="n">
+        <v>-1.9855708382186508</v>
+      </c>
+      <c r="DE17" t="n">
+        <v>-1.5719102469230986</v>
+      </c>
+      <c r="DF17" t="n">
+        <v>-1.5443328741700617</v>
+      </c>
+      <c r="DG17" t="n">
+        <v>-1.5443328741700617</v>
+      </c>
+      <c r="DH17" t="n">
+        <v>-1.5719102469230986</v>
+      </c>
+      <c r="DI17" t="n">
+        <v>-1.489178128663988</v>
+      </c>
+      <c r="DJ17" t="n">
+        <v>-1.5994876196761354</v>
+      </c>
+      <c r="DK17" t="n">
+        <v>-1.8752613472065036</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B18" t="n">
         <v>-0.027559725130014895</v>
@@ -6223,11 +6709,38 @@
       </c>
       <c r="DB18" t="n">
         <v>-0.4616253959277495</v>
+      </c>
+      <c r="DC18" t="n">
+        <v>-0.447845533362742</v>
+      </c>
+      <c r="DD18" t="n">
+        <v>-0.5167448461877793</v>
+      </c>
+      <c r="DE18" t="n">
+        <v>-0.39272608310271223</v>
+      </c>
+      <c r="DF18" t="n">
+        <v>-0.4065059456677197</v>
+      </c>
+      <c r="DG18" t="n">
+        <v>-0.399616014385216</v>
+      </c>
+      <c r="DH18" t="n">
+        <v>-0.399616014385216</v>
+      </c>
+      <c r="DI18" t="n">
+        <v>-0.399616014385216</v>
+      </c>
+      <c r="DJ18" t="n">
+        <v>-0.42717573951523086</v>
+      </c>
+      <c r="DK18" t="n">
+        <v>-0.47540525849275694</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="B19" t="n">
         <v>0.3200322917200799</v>
@@ -6543,11 +7056,38 @@
       </c>
       <c r="DB19" t="n">
         <v>-2.0482066670085115</v>
+      </c>
+      <c r="DC19" t="n">
+        <v>-2.3042325003845754</v>
+      </c>
+      <c r="DD19" t="n">
+        <v>-3.136316458856783</v>
+      </c>
+      <c r="DE19" t="n">
+        <v>-2.1762195836965437</v>
+      </c>
+      <c r="DF19" t="n">
+        <v>-2.3682389587285915</v>
+      </c>
+      <c r="DG19" t="n">
+        <v>-2.1122131253525276</v>
+      </c>
+      <c r="DH19" t="n">
+        <v>-2.0482066670085115</v>
+      </c>
+      <c r="DI19" t="n">
+        <v>-1.7281743752884315</v>
+      </c>
+      <c r="DJ19" t="n">
+        <v>-1.9842002086644954</v>
+      </c>
+      <c r="DK19" t="n">
+        <v>-2.7522777087926875</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B20" t="n">
         <v>0.7138552069275143</v>
@@ -6863,11 +7403,38 @@
       </c>
       <c r="DB20" t="n">
         <v>-5.2009450790433185</v>
+      </c>
+      <c r="DC20" t="n">
+        <v>-5.710841655420114</v>
+      </c>
+      <c r="DD20" t="n">
+        <v>-6.628655492898346</v>
+      </c>
+      <c r="DE20" t="n">
+        <v>-5.302924394318677</v>
+      </c>
+      <c r="DF20" t="n">
+        <v>-5.404903709594037</v>
+      </c>
+      <c r="DG20" t="n">
+        <v>-5.302924394318677</v>
+      </c>
+      <c r="DH20" t="n">
+        <v>-5.404903709594037</v>
+      </c>
+      <c r="DI20" t="n">
+        <v>-4.589069187391163</v>
+      </c>
+      <c r="DJ20" t="n">
+        <v>-5.098965763767959</v>
+      </c>
+      <c r="DK20" t="n">
+        <v>-6.322717547072269</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="B21" t="n">
         <v>0.04883140749796015</v>
@@ -7183,11 +7750,38 @@
       </c>
       <c r="DB21" t="n">
         <v>-0.5371454824775617</v>
+      </c>
+      <c r="DC21" t="n">
+        <v>-0.5664443269763378</v>
+      </c>
+      <c r="DD21" t="n">
+        <v>-0.6738734234718501</v>
+      </c>
+      <c r="DE21" t="n">
+        <v>-0.5078466379787856</v>
+      </c>
+      <c r="DF21" t="n">
+        <v>-0.5176129194783776</v>
+      </c>
+      <c r="DG21" t="n">
+        <v>-0.5273792009779696</v>
+      </c>
+      <c r="DH21" t="n">
+        <v>-0.5273792009779696</v>
+      </c>
+      <c r="DI21" t="n">
+        <v>-0.5273792009779696</v>
+      </c>
+      <c r="DJ21" t="n">
+        <v>-0.5566780454767457</v>
+      </c>
+      <c r="DK21" t="n">
+        <v>-0.6836397049714421</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B22" t="n">
         <v>0.04626017541948326</v>
@@ -7503,11 +8097,38 @@
       </c>
       <c r="DB22" t="n">
         <v>-0.18504070167793304</v>
+      </c>
+      <c r="DC22" t="n">
+        <v>-0.2313008770974163</v>
+      </c>
+      <c r="DD22" t="n">
+        <v>-0.31721263144788525</v>
+      </c>
+      <c r="DE22" t="n">
+        <v>-0.16521491221244022</v>
+      </c>
+      <c r="DF22" t="n">
+        <v>-0.18504070167793304</v>
+      </c>
+      <c r="DG22" t="n">
+        <v>-0.19825789465492827</v>
+      </c>
+      <c r="DH22" t="n">
+        <v>-0.19825789465492827</v>
+      </c>
+      <c r="DI22" t="n">
+        <v>-0.151997719235445</v>
+      </c>
+      <c r="DJ22" t="n">
+        <v>-0.27095245602840196</v>
+      </c>
+      <c r="DK22" t="n">
+        <v>-0.3436470174018757</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B23" t="n">
         <v>0.016546232578137417</v>
@@ -7823,11 +8444,38 @@
       </c>
       <c r="DB23" t="n">
         <v>-0.07905422231776767</v>
+      </c>
+      <c r="DC23" t="n">
+        <v>-0.08640810346360651</v>
+      </c>
+      <c r="DD23" t="n">
+        <v>-0.11950056861988136</v>
+      </c>
+      <c r="DE23" t="n">
+        <v>-0.06986187088546911</v>
+      </c>
+      <c r="DF23" t="n">
+        <v>-0.06802340059900938</v>
+      </c>
+      <c r="DG23" t="n">
+        <v>-0.06802340059900938</v>
+      </c>
+      <c r="DH23" t="n">
+        <v>-0.06986187088546911</v>
+      </c>
+      <c r="DI23" t="n">
+        <v>-0.07170034117192882</v>
+      </c>
+      <c r="DJ23" t="n">
+        <v>-0.08273116289068709</v>
+      </c>
+      <c r="DK23" t="n">
+        <v>-0.11950056861988136</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B24" t="n">
         <v>0.2571049267820831</v>
@@ -8143,11 +8791,38 @@
       </c>
       <c r="DB24" t="n">
         <v>-2.1211156459521856</v>
+      </c>
+      <c r="DC24" t="n">
+        <v>-2.2496681093432267</v>
+      </c>
+      <c r="DD24" t="n">
+        <v>-3.7280214383402046</v>
+      </c>
+      <c r="DE24" t="n">
+        <v>-2.1211156459521856</v>
+      </c>
+      <c r="DF24" t="n">
+        <v>-2.2496681093432267</v>
+      </c>
+      <c r="DG24" t="n">
+        <v>-2.1211156459521856</v>
+      </c>
+      <c r="DH24" t="n">
+        <v>-2.1211156459521856</v>
+      </c>
+      <c r="DI24" t="n">
+        <v>-2.3139443410387477</v>
+      </c>
+      <c r="DJ24" t="n">
+        <v>-2.0568394142566646</v>
+      </c>
+      <c r="DK24" t="n">
+        <v>-3.4709165115581215</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B25" t="n">
         <v>0.04210519964838624</v>
@@ -8463,11 +9138,38 @@
       </c>
       <c r="DB25" t="n">
         <v>-1.4315767880451322</v>
+      </c>
+      <c r="DC25" t="n">
+        <v>-1.4736819876935185</v>
+      </c>
+      <c r="DD25" t="n">
+        <v>-2.0210495831225397</v>
+      </c>
+      <c r="DE25" t="n">
+        <v>-1.6421027862870634</v>
+      </c>
+      <c r="DF25" t="n">
+        <v>-1.5157871873419047</v>
+      </c>
+      <c r="DG25" t="n">
+        <v>-1.3894715883967461</v>
+      </c>
+      <c r="DH25" t="n">
+        <v>-1.3894715883967461</v>
+      </c>
+      <c r="DI25" t="n">
+        <v>-1.4736819876935185</v>
+      </c>
+      <c r="DJ25" t="n">
+        <v>-1.1368403905064286</v>
+      </c>
+      <c r="DK25" t="n">
+        <v>-1.7684183852322222</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B26" t="n">
         <v>0.030914319979288857</v>
@@ -8783,11 +9485,38 @@
       </c>
       <c r="DB26" t="n">
         <v>-0.30914319979288857</v>
+      </c>
+      <c r="DC26" t="n">
+        <v>-0.3400575197721774</v>
+      </c>
+      <c r="DD26" t="n">
+        <v>-0.4266176157141862</v>
+      </c>
+      <c r="DE26" t="n">
+        <v>-0.30914319979288857</v>
+      </c>
+      <c r="DF26" t="n">
+        <v>-0.29059460780531526</v>
+      </c>
+      <c r="DG26" t="n">
+        <v>-0.29677747180117303</v>
+      </c>
+      <c r="DH26" t="n">
+        <v>-0.29059460780531526</v>
+      </c>
+      <c r="DI26" t="n">
+        <v>-0.29059460780531526</v>
+      </c>
+      <c r="DJ26" t="n">
+        <v>-0.32769179178046187</v>
+      </c>
+      <c r="DK26" t="n">
+        <v>-0.3957032957348974</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B27" t="n">
         <v>1.9320230737634623</v>
@@ -9103,11 +9832,38 @@
       </c>
       <c r="DB27" t="n">
         <v>-16.744199972616673</v>
+      </c>
+      <c r="DC27" t="n">
+        <v>-17.710211509498404</v>
+      </c>
+      <c r="DD27" t="n">
+        <v>-19.96423842888911</v>
+      </c>
+      <c r="DE27" t="n">
+        <v>-16.42219612698943</v>
+      </c>
+      <c r="DF27" t="n">
+        <v>-17.38820766387116</v>
+      </c>
+      <c r="DG27" t="n">
+        <v>-16.100192281362187</v>
+      </c>
+      <c r="DH27" t="n">
+        <v>-16.100192281362187</v>
+      </c>
+      <c r="DI27" t="n">
+        <v>-15.134180744480455</v>
+      </c>
+      <c r="DJ27" t="n">
+        <v>-16.100192281362187</v>
+      </c>
+      <c r="DK27" t="n">
+        <v>-18.676223046380134</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B28" t="n">
         <v>0.02072005768977931</v>
@@ -9423,11 +10179,38 @@
       </c>
       <c r="DB28" t="n">
         <v>-0.18648051920801378</v>
+      </c>
+      <c r="DC28" t="n">
+        <v>-0.21238059132023793</v>
+      </c>
+      <c r="DD28" t="n">
+        <v>-0.2641807355446862</v>
+      </c>
+      <c r="DE28" t="n">
+        <v>-0.15540043267334483</v>
+      </c>
+      <c r="DF28" t="n">
+        <v>-0.16058044709578964</v>
+      </c>
+      <c r="DG28" t="n">
+        <v>-0.1502204182509</v>
+      </c>
+      <c r="DH28" t="n">
+        <v>-0.1502204182509</v>
+      </c>
+      <c r="DI28" t="n">
+        <v>-0.16058044709578964</v>
+      </c>
+      <c r="DJ28" t="n">
+        <v>-0.19166053363045862</v>
+      </c>
+      <c r="DK28" t="n">
+        <v>-0.25382070669979656</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B29" t="n">
         <v>4.771294887206965</v>
@@ -9743,6 +10526,33 @@
       </c>
       <c r="DB29" t="n">
         <v>-46.10780908908679</v>
+      </c>
+      <c r="DC29" t="n">
+        <v>-49.87135849975847</v>
+      </c>
+      <c r="DD29" t="n">
+        <v>-59.67534709997047</v>
+      </c>
+      <c r="DE29" t="n">
+        <v>-45.13367244152383</v>
+      </c>
+      <c r="DF29" t="n">
+        <v>-46.35059684901602</v>
+      </c>
+      <c r="DG29" t="n">
+        <v>-44.221579281800075</v>
+      </c>
+      <c r="DH29" t="n">
+        <v>-44.075570655137035</v>
+      </c>
+      <c r="DI29" t="n">
+        <v>-41.332924566689165</v>
+      </c>
+      <c r="DJ29" t="n">
+        <v>-44.85081459541196</v>
+      </c>
+      <c r="DK29" t="n">
+        <v>-55.81428792074261</v>
       </c>
     </row>
   </sheetData>
@@ -10075,10 +10885,37 @@
       <c r="DB1" t="s">
         <v>104</v>
       </c>
+      <c r="DC1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B2" t="n">
         <v>0.010838805731762815</v>
@@ -10394,11 +11231,38 @@
       </c>
       <c r="DB2" t="n">
         <v>0.010838805731762815</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>0.008671044585410253</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>-0.017342089170820505</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>0.010838805731762815</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>0.00650328343905769</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>0.002167761146352563</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>-0.002167761146352563</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>0.015174328024467942</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>0.017342089170820505</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>-0.010838805731762815</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B3" t="n">
         <v>0.024080620205625434</v>
@@ -10714,11 +11578,38 @@
       </c>
       <c r="DB3" t="n">
         <v>-0.08026873401875145</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>-0.17659121484125317</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>-0.20869870844875377</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>-0.06421498721500116</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>-0.0722418606168763</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>-0.08829560742062659</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>-0.08829560742062659</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>-0.024080620205625434</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>-0.04013436700937573</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>-0.1444837212337526</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B4" t="n">
         <v>0.09910338918586438</v>
@@ -11034,11 +11925,38 @@
       </c>
       <c r="DB4" t="n">
         <v>0.1557338972920726</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>0.18404915134517671</v>
+      </c>
+      <c r="DD4" t="n">
+        <v>0.014157627026552055</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>0.14157627026552055</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>0.29731016755759315</v>
+      </c>
+      <c r="DG4" t="n">
+        <v>0.24067965945138492</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>0.24067965945138492</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>0.3114677945841452</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>0.36809830269035343</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>0.09910338918586438</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B5" t="n">
         <v>0.014108280401923527</v>
@@ -11354,11 +12272,38 @@
       </c>
       <c r="DB5" t="n">
         <v>-0.0023513800669872544</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>-0.023513800669872544</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>-0.01645966046891078</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>-0.01645966046891078</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>-0.0023513800669872544</v>
+      </c>
+      <c r="DG5" t="n">
+        <v>0.018811040535898035</v>
+      </c>
+      <c r="DH5" t="n">
+        <v>0.0023513800669872544</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>0.02116242060288529</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>-0.0023513800669872544</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>-0.007054140200961763</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="B6" t="n">
         <v>0.04080933048911967</v>
@@ -11674,11 +12619,38 @@
       </c>
       <c r="DB6" t="n">
         <v>-0.20404665244559836</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>-0.4080933048911967</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>-0.9386146012497525</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>-0.2856653134238377</v>
+      </c>
+      <c r="DF6" t="n">
+        <v>-0.3264746439129574</v>
+      </c>
+      <c r="DG6" t="n">
+        <v>-0.4080933048911967</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>-0.4897119658694361</v>
+      </c>
+      <c r="DI6" t="n">
+        <v>-0.12242799146735903</v>
+      </c>
+      <c r="DJ6" t="n">
+        <v>-0.24485598293471805</v>
+      </c>
+      <c r="DK6" t="n">
+        <v>-0.8161866097823934</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B7" t="n">
         <v>0.04492882442895002</v>
@@ -11994,11 +12966,38 @@
       </c>
       <c r="DB7" t="n">
         <v>-0.17971529771580008</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>-0.17971529771580008</v>
+      </c>
+      <c r="DD7" t="n">
+        <v>-0.4043594198605502</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>-0.13478647328685006</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>-0.08985764885790004</v>
+      </c>
+      <c r="DG7" t="n">
+        <v>-0.13478647328685006</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>-0.13478647328685006</v>
+      </c>
+      <c r="DI7" t="n">
+        <v>0.04492882442895002</v>
+      </c>
+      <c r="DJ7" t="n">
+        <v>-0.02246441221447501</v>
+      </c>
+      <c r="DK7" t="n">
+        <v>-0.4043594198605502</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B8" t="n">
         <v>0.26016957332850854</v>
@@ -12314,11 +13313,38 @@
       </c>
       <c r="DB8" t="n">
         <v>0.4088379009447991</v>
+      </c>
+      <c r="DC8" t="n">
+        <v>0.26016957332850854</v>
+      </c>
+      <c r="DD8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>0.11150124571221795</v>
+      </c>
+      <c r="DF8" t="n">
+        <v>0.18583540952036323</v>
+      </c>
+      <c r="DG8" t="n">
+        <v>0.18583540952036323</v>
+      </c>
+      <c r="DH8" t="n">
+        <v>0.2973366552325812</v>
+      </c>
+      <c r="DI8" t="n">
+        <v>0.7805087199855256</v>
+      </c>
+      <c r="DJ8" t="n">
+        <v>0.5946733104651624</v>
+      </c>
+      <c r="DK8" t="n">
+        <v>0.26016957332850854</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="B9" t="n">
         <v>0.06887216770580651</v>
@@ -12634,11 +13660,38 @@
       </c>
       <c r="DB9" t="n">
         <v>0.10330825155870976</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>0.017218041926451627</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>-0.29270671274967763</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>-0.05165412577935488</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>-0.06887216770580651</v>
+      </c>
+      <c r="DG9" t="n">
+        <v>-0.06887216770580651</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DI9" t="n">
+        <v>0.17218041926451627</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>0.034436083852903254</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>-0.3099247546761293</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B10" t="n">
         <v>0.1457461574679361</v>
@@ -12954,11 +14007,38 @@
       </c>
       <c r="DB10" t="n">
         <v>0.4080892409102211</v>
+      </c>
+      <c r="DC10" t="n">
+        <v>0.37894000941663386</v>
+      </c>
+      <c r="DD10" t="n">
+        <v>0.08744769448076166</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>0.20404462045511054</v>
+      </c>
+      <c r="DF10" t="n">
+        <v>0.17489538896152332</v>
+      </c>
+      <c r="DG10" t="n">
+        <v>0.17489538896152332</v>
+      </c>
+      <c r="DH10" t="n">
+        <v>0.2914923149358722</v>
+      </c>
+      <c r="DI10" t="n">
+        <v>0.6121338613653317</v>
+      </c>
+      <c r="DJ10" t="n">
+        <v>0.5829846298717444</v>
+      </c>
+      <c r="DK10" t="n">
+        <v>0.23319385194869777</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -13274,11 +14354,38 @@
       </c>
       <c r="DB11" t="n">
         <v>0.06799319887129723</v>
+      </c>
+      <c r="DC11" t="n">
+        <v>0.09519047841981614</v>
+      </c>
+      <c r="DD11" t="n">
+        <v>-0.08159183864555669</v>
+      </c>
+      <c r="DE11" t="n">
+        <v>0.10878911819407558</v>
+      </c>
+      <c r="DF11" t="n">
+        <v>0.12238775796833502</v>
+      </c>
+      <c r="DG11" t="n">
+        <v>0.12238775796833502</v>
+      </c>
+      <c r="DH11" t="n">
+        <v>0.08159183864555669</v>
+      </c>
+      <c r="DI11" t="n">
+        <v>0.21757823638815116</v>
+      </c>
+      <c r="DJ11" t="n">
+        <v>0.16318367729111338</v>
+      </c>
+      <c r="DK11" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B12" t="n">
         <v>0.43762048482831273</v>
@@ -13594,11 +14701,38 @@
       </c>
       <c r="DB12" t="n">
         <v>1.0502891635879505</v>
+      </c>
+      <c r="DC12" t="n">
+        <v>0.7877168726909629</v>
+      </c>
+      <c r="DD12" t="n">
+        <v>-0.1750481939313251</v>
+      </c>
+      <c r="DE12" t="n">
+        <v>0.26257229089698764</v>
+      </c>
+      <c r="DF12" t="n">
+        <v>0.26257229089698764</v>
+      </c>
+      <c r="DG12" t="n">
+        <v>0.26257229089698764</v>
+      </c>
+      <c r="DH12" t="n">
+        <v>0.7001927757253004</v>
+      </c>
+      <c r="DI12" t="n">
+        <v>1.750481939313251</v>
+      </c>
+      <c r="DJ12" t="n">
+        <v>1.3128614544849382</v>
+      </c>
+      <c r="DK12" t="n">
+        <v>0.1750481939313251</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="B13" t="n">
         <v>0.07319423172318318</v>
@@ -13914,11 +15048,38 @@
       </c>
       <c r="DB13" t="n">
         <v>0.13174961710172972</v>
+      </c>
+      <c r="DC13" t="n">
+        <v>0.161027309791003</v>
+      </c>
+      <c r="DD13" t="n">
+        <v>0.04391653903390991</v>
+      </c>
+      <c r="DE13" t="n">
+        <v>0.05855538537854654</v>
+      </c>
+      <c r="DF13" t="n">
+        <v>-0.02927769268927327</v>
+      </c>
+      <c r="DG13" t="n">
+        <v>0.08783307806781981</v>
+      </c>
+      <c r="DH13" t="n">
+        <v>0.11711077075709309</v>
+      </c>
+      <c r="DI13" t="n">
+        <v>0.30741577323736935</v>
+      </c>
+      <c r="DJ13" t="n">
+        <v>0.322054619582006</v>
+      </c>
+      <c r="DK13" t="n">
+        <v>0.14638846344636636</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="B14" t="n">
         <v>0.01926156970942499</v>
@@ -14234,11 +15395,38 @@
       </c>
       <c r="DB14" t="n">
         <v>0.13483098796597492</v>
+      </c>
+      <c r="DC14" t="n">
+        <v>0.15409255767539992</v>
+      </c>
+      <c r="DD14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE14" t="n">
+        <v>0.07704627883769996</v>
+      </c>
+      <c r="DF14" t="n">
+        <v>0.05778470912827497</v>
+      </c>
+      <c r="DG14" t="n">
+        <v>0.05778470912827497</v>
+      </c>
+      <c r="DH14" t="n">
+        <v>0.15409255767539992</v>
+      </c>
+      <c r="DI14" t="n">
+        <v>0.32744668506022484</v>
+      </c>
+      <c r="DJ14" t="n">
+        <v>0.15409255767539992</v>
+      </c>
+      <c r="DK14" t="n">
+        <v>-0.03852313941884998</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="B15" t="n">
         <v>0.023574031664592304</v>
@@ -14553,12 +15741,39 @@
         <v>-0.023574031664592304</v>
       </c>
       <c r="DB15" t="n">
+        <v>0.07072209499377691</v>
+      </c>
+      <c r="DC15" t="n">
+        <v>-0.09429612665836921</v>
+      </c>
+      <c r="DD15" t="n">
+        <v>-0.14144418998755381</v>
+      </c>
+      <c r="DE15" t="n">
+        <v>0.023574031664592304</v>
+      </c>
+      <c r="DF15" t="n">
+        <v>0.25931434831051536</v>
+      </c>
+      <c r="DG15" t="n">
+        <v>0.18859225331673843</v>
+      </c>
+      <c r="DH15" t="n">
+        <v>0.18859225331673843</v>
+      </c>
+      <c r="DI15" t="n">
+        <v>0.37718450663347686</v>
+      </c>
+      <c r="DJ15" t="n">
+        <v>0.30646241163969995</v>
+      </c>
+      <c r="DK15" t="n">
         <v>0.07072209499377691</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B16" t="n">
         <v>0.037905978212130716</v>
@@ -14874,11 +16089,38 @@
       </c>
       <c r="DB16" t="n">
         <v>0.009476494553032679</v>
+      </c>
+      <c r="DC16" t="n">
+        <v>-0.08528845097729411</v>
+      </c>
+      <c r="DD16" t="n">
+        <v>-0.17057690195458822</v>
+      </c>
+      <c r="DE16" t="n">
+        <v>-0.15162391284852286</v>
+      </c>
+      <c r="DF16" t="n">
+        <v>-0.14214741829549019</v>
+      </c>
+      <c r="DG16" t="n">
+        <v>-0.1326709237424575</v>
+      </c>
+      <c r="DH16" t="n">
+        <v>-0.06633546187122875</v>
+      </c>
+      <c r="DI16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DJ16" t="n">
+        <v>-0.04738247276516339</v>
+      </c>
+      <c r="DK16" t="n">
+        <v>-0.12319442918942483</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="B17" t="n">
         <v>0.13788686376518408</v>
@@ -15193,12 +16435,39 @@
         <v>-0.4136605912955522</v>
       </c>
       <c r="DB17" t="n">
+        <v>-0.30335110028340495</v>
+      </c>
+      <c r="DC17" t="n">
+        <v>-0.22061898202429453</v>
+      </c>
+      <c r="DD17" t="n">
+        <v>-0.4688153368016259</v>
+      </c>
+      <c r="DE17" t="n">
+        <v>-0.11030949101214726</v>
+      </c>
+      <c r="DF17" t="n">
+        <v>-0.13788686376518408</v>
+      </c>
+      <c r="DG17" t="n">
+        <v>-0.1654642365182209</v>
+      </c>
+      <c r="DH17" t="n">
+        <v>-0.13788686376518408</v>
+      </c>
+      <c r="DI17" t="n">
+        <v>0.08273211825911045</v>
+      </c>
+      <c r="DJ17" t="n">
+        <v>0.027577372753036816</v>
+      </c>
+      <c r="DK17" t="n">
         <v>-0.30335110028340495</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -15514,11 +16783,38 @@
       </c>
       <c r="DB18" t="n">
         <v>-0.1515784882150819</v>
+      </c>
+      <c r="DC18" t="n">
+        <v>-0.08267917539004468</v>
+      </c>
+      <c r="DD18" t="n">
+        <v>-0.4616253959277495</v>
+      </c>
+      <c r="DE18" t="n">
+        <v>-0.07578924410754095</v>
+      </c>
+      <c r="DF18" t="n">
+        <v>-0.09645903795505213</v>
+      </c>
+      <c r="DG18" t="n">
+        <v>-0.08956910667254842</v>
+      </c>
+      <c r="DH18" t="n">
+        <v>-0.11023890052005958</v>
+      </c>
+      <c r="DI18" t="n">
+        <v>-0.062009381542533513</v>
+      </c>
+      <c r="DJ18" t="n">
+        <v>-0.062009381542533513</v>
+      </c>
+      <c r="DK18" t="n">
+        <v>-0.24114759488763032</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="B19" t="n">
         <v>0.3200322917200799</v>
@@ -15834,11 +17130,38 @@
       </c>
       <c r="DB19" t="n">
         <v>0.38403875006409594</v>
+      </c>
+      <c r="DC19" t="n">
+        <v>0.5760581250961438</v>
+      </c>
+      <c r="DD19" t="n">
+        <v>-0.25602583337606394</v>
+      </c>
+      <c r="DE19" t="n">
+        <v>-0.12801291668803197</v>
+      </c>
+      <c r="DF19" t="n">
+        <v>-0.25602583337606394</v>
+      </c>
+      <c r="DG19" t="n">
+        <v>0.06400645834401598</v>
+      </c>
+      <c r="DH19" t="n">
+        <v>0.06400645834401598</v>
+      </c>
+      <c r="DI19" t="n">
+        <v>0.7040710417841758</v>
+      </c>
+      <c r="DJ19" t="n">
+        <v>0.8320839584722078</v>
+      </c>
+      <c r="DK19" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B20" t="n">
         <v>0.6118758916521551</v>
@@ -16154,11 +17477,38 @@
       </c>
       <c r="DB20" t="n">
         <v>0.20395863055071836</v>
+      </c>
+      <c r="DC20" t="n">
+        <v>-0.20395863055071836</v>
+      </c>
+      <c r="DD20" t="n">
+        <v>-1.121772468028951</v>
+      </c>
+      <c r="DE20" t="n">
+        <v>-0.5098965763767959</v>
+      </c>
+      <c r="DF20" t="n">
+        <v>-0.8158345222028734</v>
+      </c>
+      <c r="DG20" t="n">
+        <v>-0.30593794582607753</v>
+      </c>
+      <c r="DH20" t="n">
+        <v>-0.30593794582607753</v>
+      </c>
+      <c r="DI20" t="n">
+        <v>0.9178138374782326</v>
+      </c>
+      <c r="DJ20" t="n">
+        <v>0.5098965763767959</v>
+      </c>
+      <c r="DK20" t="n">
+        <v>-0.8158345222028734</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="B21" t="n">
         <v>0.05859768899755219</v>
@@ -16474,11 +17824,38 @@
       </c>
       <c r="DB21" t="n">
         <v>-0.07813025199673625</v>
+      </c>
+      <c r="DC21" t="n">
+        <v>-0.07813025199673625</v>
+      </c>
+      <c r="DD21" t="n">
+        <v>-0.14649422249388047</v>
+      </c>
+      <c r="DE21" t="n">
+        <v>-0.03906512599836812</v>
+      </c>
+      <c r="DF21" t="n">
+        <v>-0.04883140749796015</v>
+      </c>
+      <c r="DG21" t="n">
+        <v>-0.06836397049714421</v>
+      </c>
+      <c r="DH21" t="n">
+        <v>-0.05859768899755219</v>
+      </c>
+      <c r="DI21" t="n">
+        <v>-0.029298844498776094</v>
+      </c>
+      <c r="DJ21" t="n">
+        <v>-0.03906512599836812</v>
+      </c>
+      <c r="DK21" t="n">
+        <v>-0.16602678549306452</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B22" t="n">
         <v>0.04626017541948326</v>
@@ -16794,11 +18171,38 @@
       </c>
       <c r="DB22" t="n">
         <v>0.08591175435046892</v>
+      </c>
+      <c r="DC22" t="n">
+        <v>0.07930315786197131</v>
+      </c>
+      <c r="DD22" t="n">
+        <v>0.019825789465492828</v>
+      </c>
+      <c r="DE22" t="n">
+        <v>0.0726945613734737</v>
+      </c>
+      <c r="DF22" t="n">
+        <v>0.039651578930985656</v>
+      </c>
+      <c r="DG22" t="n">
+        <v>0.026434385953990436</v>
+      </c>
+      <c r="DH22" t="n">
+        <v>0.033042982442488045</v>
+      </c>
+      <c r="DI22" t="n">
+        <v>0.1453891227469474</v>
+      </c>
+      <c r="DJ22" t="n">
+        <v>0.059477368396478485</v>
+      </c>
+      <c r="DK22" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B23" t="n">
         <v>0.007353881145838853</v>
@@ -17114,11 +18518,38 @@
       </c>
       <c r="DB23" t="n">
         <v>0.012869292005217992</v>
+      </c>
+      <c r="DC23" t="n">
+        <v>0.012869292005217992</v>
+      </c>
+      <c r="DD23" t="n">
+        <v>-0.007353881145838853</v>
+      </c>
+      <c r="DE23" t="n">
+        <v>0.016546232578137417</v>
+      </c>
+      <c r="DF23" t="n">
+        <v>0.020223173151056845</v>
+      </c>
+      <c r="DG23" t="n">
+        <v>0.020223173151056845</v>
+      </c>
+      <c r="DH23" t="n">
+        <v>0.011030821718758278</v>
+      </c>
+      <c r="DI23" t="n">
+        <v>0.022061643437516557</v>
+      </c>
+      <c r="DJ23" t="n">
+        <v>0.016546232578137417</v>
+      </c>
+      <c r="DK23" t="n">
+        <v>-0.009192351432298566</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B24" t="n">
         <v>0.06427623169552077</v>
@@ -17434,11 +18865,38 @@
       </c>
       <c r="DB24" t="n">
         <v>0.1928286950865623</v>
+      </c>
+      <c r="DC24" t="n">
+        <v>0.3856573901731246</v>
+      </c>
+      <c r="DD24" t="n">
+        <v>-0.8998672437372908</v>
+      </c>
+      <c r="DE24" t="n">
+        <v>-0.06427623169552077</v>
+      </c>
+      <c r="DF24" t="n">
+        <v>-0.06427623169552077</v>
+      </c>
+      <c r="DG24" t="n">
+        <v>0.12855246339104154</v>
+      </c>
+      <c r="DH24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DI24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DJ24" t="n">
+        <v>0.7070385486507285</v>
+      </c>
+      <c r="DK24" t="n">
+        <v>-0.7713147803462492</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B25" t="n">
         <v>-0.04210519964838624</v>
@@ -17754,11 +19212,38 @@
       </c>
       <c r="DB25" t="n">
         <v>-0.42105199648386243</v>
+      </c>
+      <c r="DC25" t="n">
+        <v>-0.29473639753870373</v>
+      </c>
+      <c r="DD25" t="n">
+        <v>-0.8842091926161111</v>
+      </c>
+      <c r="DE25" t="n">
+        <v>-0.7578935936709523</v>
+      </c>
+      <c r="DF25" t="n">
+        <v>-0.5894727950774075</v>
+      </c>
+      <c r="DG25" t="n">
+        <v>-0.5052623957806349</v>
+      </c>
+      <c r="DH25" t="n">
+        <v>-0.5052623957806349</v>
+      </c>
+      <c r="DI25" t="n">
+        <v>-0.37894679683547616</v>
+      </c>
+      <c r="DJ25" t="n">
+        <v>0.04210519964838624</v>
+      </c>
+      <c r="DK25" t="n">
+        <v>-0.6315779947257937</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B26" t="n">
         <v>0.0061828639958577715</v>
@@ -18074,11 +19559,38 @@
       </c>
       <c r="DB26" t="n">
         <v>-0.024731455983431086</v>
+      </c>
+      <c r="DC26" t="n">
+        <v>-0.030914319979288857</v>
+      </c>
+      <c r="DD26" t="n">
+        <v>-0.09892582393372434</v>
+      </c>
+      <c r="DE26" t="n">
+        <v>-0.03709718397514663</v>
+      </c>
+      <c r="DF26" t="n">
+        <v>-0.024731455983431086</v>
+      </c>
+      <c r="DG26" t="n">
+        <v>-0.03709718397514663</v>
+      </c>
+      <c r="DH26" t="n">
+        <v>-0.03709718397514663</v>
+      </c>
+      <c r="DI26" t="n">
+        <v>-0.0061828639958577715</v>
+      </c>
+      <c r="DJ26" t="n">
+        <v>-0.024731455983431086</v>
+      </c>
+      <c r="DK26" t="n">
+        <v>-0.04946291196686217</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B27" t="n">
         <v>1.6100192281362187</v>
@@ -18394,11 +19906,38 @@
       </c>
       <c r="DB27" t="n">
         <v>0.3220038456272437</v>
+      </c>
+      <c r="DC27" t="n">
+        <v>0.6440076912544874</v>
+      </c>
+      <c r="DD27" t="n">
+        <v>-2.5760307650179497</v>
+      </c>
+      <c r="DE27" t="n">
+        <v>-1.6100192281362187</v>
+      </c>
+      <c r="DF27" t="n">
+        <v>-3.2200384562724373</v>
+      </c>
+      <c r="DG27" t="n">
+        <v>-1.6100192281362187</v>
+      </c>
+      <c r="DH27" t="n">
+        <v>-0.3220038456272437</v>
+      </c>
+      <c r="DI27" t="n">
+        <v>2.8980346106451935</v>
+      </c>
+      <c r="DJ27" t="n">
+        <v>2.5760307650179497</v>
+      </c>
+      <c r="DK27" t="n">
+        <v>-0.9660115368817311</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B28" t="n">
         <v>0.0</v>
@@ -18714,11 +20253,38 @@
       </c>
       <c r="DB28" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DC28" t="n">
+        <v>0.0051800144224448275</v>
+      </c>
+      <c r="DD28" t="n">
+        <v>-0.05180014422444827</v>
+      </c>
+      <c r="DE28" t="n">
+        <v>0.0051800144224448275</v>
+      </c>
+      <c r="DF28" t="n">
+        <v>-0.0051800144224448275</v>
+      </c>
+      <c r="DG28" t="n">
+        <v>-0.010360028844889655</v>
+      </c>
+      <c r="DH28" t="n">
+        <v>-0.015540043267334483</v>
+      </c>
+      <c r="DI28" t="n">
+        <v>0.046620129802003446</v>
+      </c>
+      <c r="DJ28" t="n">
+        <v>0.04144011537955862</v>
+      </c>
+      <c r="DK28" t="n">
+        <v>-0.031080086534668965</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B29" t="n">
         <v>4.120593361962645</v>
@@ -19034,6 +20600,33 @@
       </c>
       <c r="DB29" t="n">
         <v>2.308255263985981</v>
+      </c>
+      <c r="DC29" t="n">
+        <v>1.8716147567591808</v>
+      </c>
+      <c r="DD29" t="n">
+        <v>-9.254414973764407</v>
+      </c>
+      <c r="DE29" t="n">
+        <v>-2.9438452091726304</v>
+      </c>
+      <c r="DF29" t="n">
+        <v>-4.563481322528974</v>
+      </c>
+      <c r="DG29" t="n">
+        <v>-2.0440167434640357</v>
+      </c>
+      <c r="DH29" t="n">
+        <v>-0.09234166904155085</v>
+      </c>
+      <c r="DI29" t="n">
+        <v>9.131439514495847</v>
+      </c>
+      <c r="DJ29" t="n">
+        <v>8.185390695482369</v>
+      </c>
+      <c r="DK29" t="n">
+        <v>-4.854939118013863</v>
       </c>
     </row>
   </sheetData>
@@ -19366,10 +20959,37 @@
       <c r="DB1" t="s">
         <v>104</v>
       </c>
+      <c r="DC1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B2" t="n">
         <v>-0.004335522292705126</v>
@@ -19685,11 +21305,38 @@
       </c>
       <c r="DB2" t="n">
         <v>-0.08671044585410252</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>-0.09104596814680765</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>-0.11272357961033329</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>-0.06286507324422433</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>-0.06286507324422433</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>-0.07803940126869227</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>-0.07153611782963458</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>-0.07370387897598715</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>-0.08671044585410252</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>-0.10188477387857046</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B3" t="n">
         <v>0.008026873401875145</v>
@@ -20005,11 +21652,38 @@
       </c>
       <c r="DB3" t="n">
         <v>-0.48161240411250866</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>-0.5699080115331353</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>-0.6020155051406358</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>-0.45753178390688326</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>-0.44147803710313294</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>-0.42542429029938267</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>-0.3933167966918821</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>-0.44950491050500807</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>-0.48161240411250866</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>-0.5538542647293849</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B4" t="n">
         <v>-0.02831525405310411</v>
@@ -20325,11 +21999,38 @@
       </c>
       <c r="DB4" t="n">
         <v>-0.5521474540355301</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>-0.6087779621417384</v>
+      </c>
+      <c r="DD4" t="n">
+        <v>-0.6937237243010507</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>-0.45304406484966575</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>-0.3397830486372493</v>
+      </c>
+      <c r="DG4" t="n">
+        <v>-0.42472881079656166</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>-0.36809830269035343</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>-0.3539406756638014</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>-0.4388864378231137</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>-0.6512508432213945</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B5" t="n">
         <v>-0.023513800669872544</v>
@@ -20645,11 +22346,38 @@
       </c>
       <c r="DB5" t="n">
         <v>-0.10581210301442645</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>-0.13638004388526076</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>-0.13167728375128623</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>-0.1081634830814137</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>-0.10346072294743919</v>
+      </c>
+      <c r="DG5" t="n">
+        <v>-0.07759554221057939</v>
+      </c>
+      <c r="DH5" t="n">
+        <v>-0.08935244254551566</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>-0.08700106247852842</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>-0.11286624321538821</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>-0.11756900334936272</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="B6" t="n">
         <v>-0.6937586183150345</v>
@@ -20965,11 +22693,38 @@
       </c>
       <c r="DB6" t="n">
         <v>-2.162894515923343</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>-2.366941168368941</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>-2.5709878208145396</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>-2.122085185434223</v>
+      </c>
+      <c r="DF6" t="n">
+        <v>-1.999657193966864</v>
+      </c>
+      <c r="DG6" t="n">
+        <v>-1.8364198720103853</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>-1.9588478634777444</v>
+      </c>
+      <c r="DI6" t="n">
+        <v>-2.162894515923343</v>
+      </c>
+      <c r="DJ6" t="n">
+        <v>-2.366941168368941</v>
+      </c>
+      <c r="DK6" t="n">
+        <v>-2.611797151303659</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B7" t="n">
         <v>-0.5166814809329252</v>
@@ -21285,11 +23040,38 @@
       </c>
       <c r="DB7" t="n">
         <v>-1.7746885649435258</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>-1.842081801586951</v>
+      </c>
+      <c r="DD7" t="n">
+        <v>-1.864546213801426</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>-1.7746885649435258</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>-1.7522241527290507</v>
+      </c>
+      <c r="DG7" t="n">
+        <v>-1.7297597405145757</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>-1.7297597405145757</v>
+      </c>
+      <c r="DI7" t="n">
+        <v>-1.7522241527290507</v>
+      </c>
+      <c r="DJ7" t="n">
+        <v>-1.8196173893724759</v>
+      </c>
+      <c r="DK7" t="n">
+        <v>-1.8196173893724759</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B8" t="n">
         <v>-0.2973366552325812</v>
@@ -21605,11 +23387,38 @@
       </c>
       <c r="DB8" t="n">
         <v>-2.007022422819923</v>
+      </c>
+      <c r="DC8" t="n">
+        <v>-2.118523668532141</v>
+      </c>
+      <c r="DD8" t="n">
+        <v>-1.6725186856832692</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>-2.0441895047239957</v>
+      </c>
+      <c r="DF8" t="n">
+        <v>-2.007022422819923</v>
+      </c>
+      <c r="DG8" t="n">
+        <v>-1.9698553409158504</v>
+      </c>
+      <c r="DH8" t="n">
+        <v>-1.5981845218751238</v>
+      </c>
+      <c r="DI8" t="n">
+        <v>-1.5610174399710512</v>
+      </c>
+      <c r="DJ8" t="n">
+        <v>-1.7840199313954872</v>
+      </c>
+      <c r="DK8" t="n">
+        <v>-1.8211870132995598</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="B9" t="n">
         <v>-0.36157888045548414</v>
@@ -21925,11 +23734,38 @@
       </c>
       <c r="DB9" t="n">
         <v>-1.2224809767780656</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>-1.3085711864103238</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>-1.3602253121896786</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>-1.1708268509987105</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>-1.1191727252193557</v>
+      </c>
+      <c r="DG9" t="n">
+        <v>-1.1191727252193557</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>-1.1363907671458073</v>
+      </c>
+      <c r="DI9" t="n">
+        <v>-1.1880448929251624</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>-1.2741351025574204</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>-1.3774433541161302</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B10" t="n">
         <v>-0.20404462045511054</v>
@@ -22245,11 +24081,38 @@
       </c>
       <c r="DB10" t="n">
         <v>-0.5246861668845699</v>
+      </c>
+      <c r="DC10" t="n">
+        <v>-0.6995815558460933</v>
+      </c>
+      <c r="DD10" t="n">
+        <v>-0.6121338613653317</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>-0.46638770389739553</v>
+      </c>
+      <c r="DF10" t="n">
+        <v>-0.3206415464294594</v>
+      </c>
+      <c r="DG10" t="n">
+        <v>-0.4080892409102211</v>
+      </c>
+      <c r="DH10" t="n">
+        <v>-0.26234308344228496</v>
+      </c>
+      <c r="DI10" t="n">
+        <v>-0.4080892409102211</v>
+      </c>
+      <c r="DJ10" t="n">
+        <v>-0.5538353983781572</v>
+      </c>
+      <c r="DK10" t="n">
+        <v>-0.46638770389739553</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="B11" t="n">
         <v>-0.10878911819407558</v>
@@ -22565,11 +24428,38 @@
       </c>
       <c r="DB11" t="n">
         <v>-0.4895510318733401</v>
+      </c>
+      <c r="DC11" t="n">
+        <v>-0.516748311421859</v>
+      </c>
+      <c r="DD11" t="n">
+        <v>-0.5711428705188968</v>
+      </c>
+      <c r="DE11" t="n">
+        <v>-0.2583741557109295</v>
+      </c>
+      <c r="DF11" t="n">
+        <v>-0.2583741557109295</v>
+      </c>
+      <c r="DG11" t="n">
+        <v>-0.3127687148079673</v>
+      </c>
+      <c r="DH11" t="n">
+        <v>-0.2855714352594484</v>
+      </c>
+      <c r="DI11" t="n">
+        <v>-0.33996599435648617</v>
+      </c>
+      <c r="DJ11" t="n">
+        <v>-0.4079591932277834</v>
+      </c>
+      <c r="DK11" t="n">
+        <v>-0.3671632739050051</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B12" t="n">
         <v>0.962765066622288</v>
@@ -22885,11 +24775,38 @@
       </c>
       <c r="DB12" t="n">
         <v>-2.100578327175901</v>
+      </c>
+      <c r="DC12" t="n">
+        <v>-2.1881024241415634</v>
+      </c>
+      <c r="DD12" t="n">
+        <v>-2.8007711029012015</v>
+      </c>
+      <c r="DE12" t="n">
+        <v>-1.925530133244576</v>
+      </c>
+      <c r="DF12" t="n">
+        <v>-2.100578327175901</v>
+      </c>
+      <c r="DG12" t="n">
+        <v>-1.925530133244576</v>
+      </c>
+      <c r="DH12" t="n">
+        <v>-1.8380060362789135</v>
+      </c>
+      <c r="DI12" t="n">
+        <v>-1.6629578423475884</v>
+      </c>
+      <c r="DJ12" t="n">
+        <v>-1.8380060362789135</v>
+      </c>
+      <c r="DK12" t="n">
+        <v>-2.713247005935539</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="B13" t="n">
         <v>0.014638846344636636</v>
@@ -23205,11 +25122,38 @@
       </c>
       <c r="DB13" t="n">
         <v>-0.3659711586159159</v>
+      </c>
+      <c r="DC13" t="n">
+        <v>-0.39524885130518916</v>
+      </c>
+      <c r="DD13" t="n">
+        <v>-0.4977207757176456</v>
+      </c>
+      <c r="DE13" t="n">
+        <v>-0.4098876976498258</v>
+      </c>
+      <c r="DF13" t="n">
+        <v>-0.5709150074408288</v>
+      </c>
+      <c r="DG13" t="n">
+        <v>-0.42452654399446244</v>
+      </c>
+      <c r="DH13" t="n">
+        <v>-0.4538042366837357</v>
+      </c>
+      <c r="DI13" t="n">
+        <v>-0.26349923420345944</v>
+      </c>
+      <c r="DJ13" t="n">
+        <v>-0.38061000496055253</v>
+      </c>
+      <c r="DK13" t="n">
+        <v>-0.5123596220622822</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="B14" t="n">
         <v>-0.23113883651309988</v>
@@ -23525,11 +25469,38 @@
       </c>
       <c r="DB14" t="n">
         <v>-0.5008008124450497</v>
+      </c>
+      <c r="DC14" t="n">
+        <v>-0.44301610331677477</v>
+      </c>
+      <c r="DD14" t="n">
+        <v>-0.5393239518638997</v>
+      </c>
+      <c r="DE14" t="n">
+        <v>-0.5008008124450497</v>
+      </c>
+      <c r="DF14" t="n">
+        <v>-0.5585855215733248</v>
+      </c>
+      <c r="DG14" t="n">
+        <v>-0.5008008124450497</v>
+      </c>
+      <c r="DH14" t="n">
+        <v>-0.42375453360734977</v>
+      </c>
+      <c r="DI14" t="n">
+        <v>-0.42375453360734977</v>
+      </c>
+      <c r="DJ14" t="n">
+        <v>-0.44301610331677477</v>
+      </c>
+      <c r="DK14" t="n">
+        <v>-0.46227767302619976</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="B15" t="n">
         <v>-0.11787015832296152</v>
@@ -23845,11 +25816,38 @@
       </c>
       <c r="DB15" t="n">
         <v>-0.9193872349190998</v>
+      </c>
+      <c r="DC15" t="n">
+        <v>-1.084405456571246</v>
+      </c>
+      <c r="DD15" t="n">
+        <v>-1.2022756148942075</v>
+      </c>
+      <c r="DE15" t="n">
+        <v>-0.7307949816023614</v>
+      </c>
+      <c r="DF15" t="n">
+        <v>-0.5893507916148076</v>
+      </c>
+      <c r="DG15" t="n">
+        <v>-0.542202728285623</v>
+      </c>
+      <c r="DH15" t="n">
+        <v>-0.5893507916148076</v>
+      </c>
+      <c r="DI15" t="n">
+        <v>-0.7072209499377691</v>
+      </c>
+      <c r="DJ15" t="n">
+        <v>-0.7307949816023614</v>
+      </c>
+      <c r="DK15" t="n">
+        <v>-0.9429612665836922</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B16" t="n">
         <v>-0.18952989106065357</v>
@@ -24165,11 +26163,38 @@
       </c>
       <c r="DB16" t="n">
         <v>-0.5780661677349934</v>
+      </c>
+      <c r="DC16" t="n">
+        <v>-0.6349251350531895</v>
+      </c>
+      <c r="DD16" t="n">
+        <v>-0.7012605969244182</v>
+      </c>
+      <c r="DE16" t="n">
+        <v>-0.5875426622880261</v>
+      </c>
+      <c r="DF16" t="n">
+        <v>-0.53068369496983</v>
+      </c>
+      <c r="DG16" t="n">
+        <v>-0.5212072004167974</v>
+      </c>
+      <c r="DH16" t="n">
+        <v>-0.5117307058637647</v>
+      </c>
+      <c r="DI16" t="n">
+        <v>-0.5496366840758954</v>
+      </c>
+      <c r="DJ16" t="n">
+        <v>-0.6444016296062222</v>
+      </c>
+      <c r="DK16" t="n">
+        <v>-0.7107370914774509</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="B17" t="n">
         <v>0.08273211825911045</v>
@@ -24485,11 +26510,38 @@
       </c>
       <c r="DB17" t="n">
         <v>-1.5443328741700617</v>
+      </c>
+      <c r="DC17" t="n">
+        <v>-1.6822197379352457</v>
+      </c>
+      <c r="DD17" t="n">
+        <v>-1.8752613472065036</v>
+      </c>
+      <c r="DE17" t="n">
+        <v>-1.351291264898804</v>
+      </c>
+      <c r="DF17" t="n">
+        <v>-1.3237138921457672</v>
+      </c>
+      <c r="DG17" t="n">
+        <v>-1.2409817738866566</v>
+      </c>
+      <c r="DH17" t="n">
+        <v>-1.2685591466396935</v>
+      </c>
+      <c r="DI17" t="n">
+        <v>-1.3237138921457672</v>
+      </c>
+      <c r="DJ17" t="n">
+        <v>-1.5443328741700617</v>
+      </c>
+      <c r="DK17" t="n">
+        <v>-1.82010660170043</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B18" t="n">
         <v>0.04133958769502234</v>
@@ -24804,12 +26856,39 @@
         <v>-0.15846841949758564</v>
       </c>
       <c r="DB18" t="n">
+        <v>-0.2549274574526378</v>
+      </c>
+      <c r="DC18" t="n">
+        <v>-0.24803752617013405</v>
+      </c>
+      <c r="DD18" t="n">
+        <v>-0.28248718258265265</v>
+      </c>
+      <c r="DE18" t="n">
+        <v>-0.2066979384751117</v>
+      </c>
+      <c r="DF18" t="n">
+        <v>-0.199808007192608</v>
+      </c>
+      <c r="DG18" t="n">
+        <v>-0.17913821334509683</v>
+      </c>
+      <c r="DH18" t="n">
+        <v>-0.1446885569325782</v>
+      </c>
+      <c r="DI18" t="n">
+        <v>-0.2273677323226229</v>
+      </c>
+      <c r="DJ18" t="n">
+        <v>-0.23425766360512662</v>
+      </c>
+      <c r="DK18" t="n">
         <v>-0.2549274574526378</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="B19" t="n">
         <v>-0.25602583337606394</v>
@@ -25125,11 +27204,38 @@
       </c>
       <c r="DB19" t="n">
         <v>-2.2402260420405593</v>
+      </c>
+      <c r="DC19" t="n">
+        <v>-2.3042325003845754</v>
+      </c>
+      <c r="DD19" t="n">
+        <v>-2.9442970838247353</v>
+      </c>
+      <c r="DE19" t="n">
+        <v>-3.0083035421687514</v>
+      </c>
+      <c r="DF19" t="n">
+        <v>-3.0083035421687514</v>
+      </c>
+      <c r="DG19" t="n">
+        <v>-2.1762195836965437</v>
+      </c>
+      <c r="DH19" t="n">
+        <v>-2.6882712504486714</v>
+      </c>
+      <c r="DI19" t="n">
+        <v>-2.816284167136703</v>
+      </c>
+      <c r="DJ19" t="n">
+        <v>-3.0723100005127675</v>
+      </c>
+      <c r="DK19" t="n">
+        <v>-3.0083035421687514</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B20" t="n">
         <v>0.4079172611014367</v>
@@ -25445,11 +27551,38 @@
       </c>
       <c r="DB20" t="n">
         <v>-6.118758916521551</v>
+      </c>
+      <c r="DC20" t="n">
+        <v>-6.628655492898346</v>
+      </c>
+      <c r="DD20" t="n">
+        <v>-7.036572753999783</v>
+      </c>
+      <c r="DE20" t="n">
+        <v>-6.22073823179691</v>
+      </c>
+      <c r="DF20" t="n">
+        <v>-6.016779601246192</v>
+      </c>
+      <c r="DG20" t="n">
+        <v>-6.118758916521551</v>
+      </c>
+      <c r="DH20" t="n">
+        <v>-6.016779601246192</v>
+      </c>
+      <c r="DI20" t="n">
+        <v>-5.914800285970832</v>
+      </c>
+      <c r="DJ20" t="n">
+        <v>-6.322717547072269</v>
+      </c>
+      <c r="DK20" t="n">
+        <v>-7.2405313845505015</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="B21" t="n">
         <v>-0.13672794099428842</v>
@@ -25765,11 +27898,38 @@
       </c>
       <c r="DB21" t="n">
         <v>-0.615275734474298</v>
+      </c>
+      <c r="DC21" t="n">
+        <v>-0.6738734234718501</v>
+      </c>
+      <c r="DD21" t="n">
+        <v>-0.6641071419722581</v>
+      </c>
+      <c r="DE21" t="n">
+        <v>-0.62504201597389</v>
+      </c>
+      <c r="DF21" t="n">
+        <v>-0.5957431714751139</v>
+      </c>
+      <c r="DG21" t="n">
+        <v>-0.5859768899755219</v>
+      </c>
+      <c r="DH21" t="n">
+        <v>-0.5859768899755219</v>
+      </c>
+      <c r="DI21" t="n">
+        <v>-0.62504201597389</v>
+      </c>
+      <c r="DJ21" t="n">
+        <v>-0.6738734234718501</v>
+      </c>
+      <c r="DK21" t="n">
+        <v>-0.7227048309698103</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B22" t="n">
         <v>0.019825789465492828</v>
@@ -26085,11 +28245,38 @@
       </c>
       <c r="DB22" t="n">
         <v>-0.11234614030445936</v>
+      </c>
+      <c r="DC22" t="n">
+        <v>-0.12556333328145458</v>
+      </c>
+      <c r="DD22" t="n">
+        <v>-0.1453891227469474</v>
+      </c>
+      <c r="DE22" t="n">
+        <v>-0.08591175435046892</v>
+      </c>
+      <c r="DF22" t="n">
+        <v>-0.11234614030445936</v>
+      </c>
+      <c r="DG22" t="n">
+        <v>-0.12556333328145458</v>
+      </c>
+      <c r="DH22" t="n">
+        <v>-0.11234614030445936</v>
+      </c>
+      <c r="DI22" t="n">
+        <v>-0.13217192976995218</v>
+      </c>
+      <c r="DJ22" t="n">
+        <v>-0.1387805262584498</v>
+      </c>
+      <c r="DK22" t="n">
+        <v>-0.17182350870093785</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B23" t="n">
         <v>-0.0036769405729194264</v>
@@ -26405,11 +28592,38 @@
       </c>
       <c r="DB23" t="n">
         <v>-0.09192351432298566</v>
+      </c>
+      <c r="DC23" t="n">
+        <v>-0.09376198460944538</v>
+      </c>
+      <c r="DD23" t="n">
+        <v>-0.10295433604174394</v>
+      </c>
+      <c r="DE23" t="n">
+        <v>-0.07353881145838853</v>
+      </c>
+      <c r="DF23" t="n">
+        <v>-0.06986187088546911</v>
+      </c>
+      <c r="DG23" t="n">
+        <v>-0.06802340059900938</v>
+      </c>
+      <c r="DH23" t="n">
+        <v>-0.06802340059900938</v>
+      </c>
+      <c r="DI23" t="n">
+        <v>-0.07353881145838853</v>
+      </c>
+      <c r="DJ23" t="n">
+        <v>-0.09376198460944538</v>
+      </c>
+      <c r="DK23" t="n">
+        <v>-0.1103082171875828</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B24" t="n">
         <v>-0.5142098535641662</v>
@@ -26725,11 +28939,38 @@
       </c>
       <c r="DB24" t="n">
         <v>-2.3139443410387477</v>
+      </c>
+      <c r="DC24" t="n">
+        <v>-2.6353254995163518</v>
+      </c>
+      <c r="DD24" t="n">
+        <v>-4.113678828513329</v>
+      </c>
+      <c r="DE24" t="n">
+        <v>-2.6996017312118723</v>
+      </c>
+      <c r="DF24" t="n">
+        <v>-2.5710492678208308</v>
+      </c>
+      <c r="DG24" t="n">
+        <v>-1.928286950865623</v>
+      </c>
+      <c r="DH24" t="n">
+        <v>-2.2496681093432267</v>
+      </c>
+      <c r="DI24" t="n">
+        <v>-3.535192743253642</v>
+      </c>
+      <c r="DJ24" t="n">
+        <v>-3.663745206644684</v>
+      </c>
+      <c r="DK24" t="n">
+        <v>-4.370783755295412</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B25" t="n">
         <v>-0.6315779947257937</v>
@@ -27044,12 +29285,39 @@
         <v>-2.3157859806612433</v>
       </c>
       <c r="DB25" t="n">
+        <v>-2.6947327774967196</v>
+      </c>
+      <c r="DC25" t="n">
+        <v>-2.568417178551561</v>
+      </c>
+      <c r="DD25" t="n">
+        <v>-2.610522378199947</v>
+      </c>
+      <c r="DE25" t="n">
+        <v>-3.157889973628968</v>
+      </c>
+      <c r="DF25" t="n">
+        <v>-2.989469175035423</v>
+      </c>
+      <c r="DG25" t="n">
+        <v>-2.3157859806612433</v>
+      </c>
+      <c r="DH25" t="n">
+        <v>-2.568417178551561</v>
+      </c>
+      <c r="DI25" t="n">
+        <v>-3.2421003729257407</v>
+      </c>
+      <c r="DJ25" t="n">
+        <v>-2.947363975387037</v>
+      </c>
+      <c r="DK25" t="n">
         <v>-2.6947327774967196</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B26" t="n">
         <v>-0.13602300790887098</v>
@@ -27365,11 +29633,38 @@
       </c>
       <c r="DB26" t="n">
         <v>-0.3029603357970308</v>
+      </c>
+      <c r="DC26" t="n">
+        <v>-0.36478897575560854</v>
+      </c>
+      <c r="DD26" t="n">
+        <v>-0.42043475171832845</v>
+      </c>
+      <c r="DE26" t="n">
+        <v>-0.30914319979288857</v>
+      </c>
+      <c r="DF26" t="n">
+        <v>-0.2844117438094575</v>
+      </c>
+      <c r="DG26" t="n">
+        <v>-0.2658631518218842</v>
+      </c>
+      <c r="DH26" t="n">
+        <v>-0.2596802878260264</v>
+      </c>
+      <c r="DI26" t="n">
+        <v>-0.29677747180117303</v>
+      </c>
+      <c r="DJ26" t="n">
+        <v>-0.352423247763893</v>
+      </c>
+      <c r="DK26" t="n">
+        <v>-0.36478897575560854</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B27" t="n">
         <v>1.9320230737634623</v>
@@ -27685,11 +29980,38 @@
       </c>
       <c r="DB27" t="n">
         <v>-11.914142288208017</v>
+      </c>
+      <c r="DC27" t="n">
+        <v>-14.490173053225966</v>
+      </c>
+      <c r="DD27" t="n">
+        <v>-15.134180744480455</v>
+      </c>
+      <c r="DE27" t="n">
+        <v>-13.202157670716993</v>
+      </c>
+      <c r="DF27" t="n">
+        <v>-16.42219612698943</v>
+      </c>
+      <c r="DG27" t="n">
+        <v>-13.202157670716993</v>
+      </c>
+      <c r="DH27" t="n">
+        <v>-11.27013459695353</v>
+      </c>
+      <c r="DI27" t="n">
+        <v>-11.27013459695353</v>
+      </c>
+      <c r="DJ27" t="n">
+        <v>-14.812176898853211</v>
+      </c>
+      <c r="DK27" t="n">
+        <v>-15.456184590107698</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B28" t="n">
         <v>0.046620129802003446</v>
@@ -28005,11 +30327,38 @@
       </c>
       <c r="DB28" t="n">
         <v>-0.13986038940601034</v>
+      </c>
+      <c r="DC28" t="n">
+        <v>-0.12432034613867586</v>
+      </c>
+      <c r="DD28" t="n">
+        <v>-0.13986038940601034</v>
+      </c>
+      <c r="DE28" t="n">
+        <v>-0.11396031729378621</v>
+      </c>
+      <c r="DF28" t="n">
+        <v>-0.13468037498356553</v>
+      </c>
+      <c r="DG28" t="n">
+        <v>-0.08806024518156207</v>
+      </c>
+      <c r="DH28" t="n">
+        <v>-0.06216017306933793</v>
+      </c>
+      <c r="DI28" t="n">
+        <v>-0.09842027402645172</v>
+      </c>
+      <c r="DJ28" t="n">
+        <v>-0.07770021633667241</v>
+      </c>
+      <c r="DK28" t="n">
+        <v>-0.09324025960400689</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B29" t="n">
         <v>-0.9392456611843827</v>
@@ -28325,6 +30674,33 @@
       </c>
       <c r="DB29" t="n">
         <v>-42.21584059836337</v>
+      </c>
+      <c r="DC29" t="n">
+        <v>-46.943626700200426</v>
+      </c>
+      <c r="DD29" t="n">
+        <v>-51.402792960170515</v>
+      </c>
+      <c r="DE29" t="n">
+        <v>-44.12698910978764</v>
+      </c>
+      <c r="DF29" t="n">
+        <v>-46.48315533563939</v>
+      </c>
+      <c r="DG29" t="n">
+        <v>-40.59093720789322</v>
+      </c>
+      <c r="DH29" t="n">
+        <v>-39.00475270741075</v>
+      </c>
+      <c r="DI29" t="n">
+        <v>-41.53900030234939</v>
+      </c>
+      <c r="DJ29" t="n">
+        <v>-47.29685603475567</v>
+      </c>
+      <c r="DK29" t="n">
+        <v>-51.5381733311482</v>
       </c>
     </row>
   </sheetData>
@@ -28657,10 +31033,37 @@
       <c r="DB1" t="s">
         <v>104</v>
       </c>
+      <c r="DC1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B2" t="n">
         <v>0.010838805731762815</v>
@@ -28976,11 +31379,38 @@
       </c>
       <c r="DB2" t="n">
         <v>-0.14523999680562172</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>-0.13873671336656404</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>-0.16041432483008966</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>-0.13873671336656404</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>-0.1170591019030384</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>-0.09321372929316021</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>-0.13656895222021148</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>-0.13223342992750636</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>-0.13440119107385892</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>-0.15607880253738454</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B3" t="n">
         <v>-0.0722418606168763</v>
@@ -29296,11 +31726,38 @@
       </c>
       <c r="DB3" t="n">
         <v>-0.42542429029938267</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>-0.5378005179256347</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>-0.5779348849350104</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>-0.42542429029938267</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>-0.3933167966918821</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>-0.41739741689750753</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>-0.4013436700937572</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>-0.38528992329000694</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>-0.44147803710313294</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>-0.5297736445237595</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B4" t="n">
         <v>0.14157627026552055</v>
@@ -29616,11 +32073,38 @@
       </c>
       <c r="DB4" t="n">
         <v>-0.3397830486372493</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>-0.2831525405310411</v>
+      </c>
+      <c r="DD4" t="n">
+        <v>-0.3822559297169055</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>-0.36809830269035343</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>-0.26899491350448906</v>
+      </c>
+      <c r="DG4" t="n">
+        <v>-0.29731016755759315</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>-0.26899491350448906</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>-0.22652203242483288</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>-0.12741864323896848</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>-0.3114677945841452</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B5" t="n">
         <v>-0.007054140200961763</v>
@@ -29936,11 +32420,38 @@
       </c>
       <c r="DB5" t="n">
         <v>-0.15754246448814604</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>-0.16694798475609507</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>-0.1645966046891078</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>-0.15519108442115878</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>-0.15283970435417155</v>
+      </c>
+      <c r="DG5" t="n">
+        <v>-0.14108280401923526</v>
+      </c>
+      <c r="DH5" t="n">
+        <v>-0.12462314355032449</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>-0.14108280401923526</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>-0.15519108442115878</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>-0.15283970435417155</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -30256,11 +32767,38 @@
       </c>
       <c r="DB6" t="n">
         <v>-2.2853225073907018</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>-2.3261318378798213</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>-2.734225142771018</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>-2.162894515923343</v>
+      </c>
+      <c r="DF6" t="n">
+        <v>-2.122085185434223</v>
+      </c>
+      <c r="DG6" t="n">
+        <v>-2.122085185434223</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>-2.2037038464124623</v>
+      </c>
+      <c r="DI6" t="n">
+        <v>-2.162894515923343</v>
+      </c>
+      <c r="DJ6" t="n">
+        <v>-2.2037038464124623</v>
+      </c>
+      <c r="DK6" t="n">
+        <v>-2.6934158122818985</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B7" t="n">
         <v>0.02246441221447501</v>
@@ -30576,11 +33114,38 @@
       </c>
       <c r="DB7" t="n">
         <v>-1.3029359084395506</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>-1.3029359084395506</v>
+      </c>
+      <c r="DD7" t="n">
+        <v>-1.4152579695119256</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>-1.2355426717961255</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>-1.1906138473671755</v>
+      </c>
+      <c r="DG7" t="n">
+        <v>-1.1906138473671755</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>-1.1681494351527006</v>
+      </c>
+      <c r="DI7" t="n">
+        <v>-1.1456850229382256</v>
+      </c>
+      <c r="DJ7" t="n">
+        <v>-1.1232206107237506</v>
+      </c>
+      <c r="DK7" t="n">
+        <v>-1.3703291450829755</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B8" t="n">
         <v>0.2973366552325812</v>
@@ -30896,11 +33461,38 @@
       </c>
       <c r="DB8" t="n">
         <v>-1.2265137028343973</v>
+      </c>
+      <c r="DC8" t="n">
+        <v>-1.0406782933140342</v>
+      </c>
+      <c r="DD8" t="n">
+        <v>-1.1521795390262521</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>-1.3008478666425427</v>
+      </c>
+      <c r="DF8" t="n">
+        <v>-1.2636807847384701</v>
+      </c>
+      <c r="DG8" t="n">
+        <v>-1.2636807847384701</v>
+      </c>
+      <c r="DH8" t="n">
+        <v>-1.2265137028343973</v>
+      </c>
+      <c r="DI8" t="n">
+        <v>-1.0778453752181067</v>
+      </c>
+      <c r="DJ8" t="n">
+        <v>-0.8920099656977436</v>
+      </c>
+      <c r="DK8" t="n">
+        <v>-1.0035112114099616</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="B9" t="n">
         <v>-0.017218041926451627</v>
@@ -31216,11 +33808,38 @@
       </c>
       <c r="DB9" t="n">
         <v>-0.7920299286167749</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>-0.8609020963225813</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>-1.0330825155870977</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>-0.8092479705432265</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>-0.8436840543961297</v>
+      </c>
+      <c r="DG9" t="n">
+        <v>-0.8092479705432265</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>-0.8092479705432265</v>
+      </c>
+      <c r="DI9" t="n">
+        <v>-0.7059397189845167</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>-0.8264660124696781</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>-1.067518599440001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B10" t="n">
         <v>0.11659692597434888</v>
@@ -31535,12 +34154,39 @@
         <v>-0.6412830928589188</v>
       </c>
       <c r="DB10" t="n">
+        <v>-0.5538353983781572</v>
+      </c>
+      <c r="DC10" t="n">
+        <v>-0.46638770389739553</v>
+      </c>
+      <c r="DD10" t="n">
+        <v>-0.6121338613653317</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>-0.6121338613653317</v>
+      </c>
+      <c r="DF10" t="n">
+        <v>-0.5538353983781572</v>
+      </c>
+      <c r="DG10" t="n">
+        <v>-0.5829846298717444</v>
+      </c>
+      <c r="DH10" t="n">
+        <v>-0.5246861668845699</v>
+      </c>
+      <c r="DI10" t="n">
+        <v>-0.46638770389739553</v>
+      </c>
+      <c r="DJ10" t="n">
+        <v>-0.34979077792304664</v>
+      </c>
+      <c r="DK10" t="n">
         <v>-0.5538353983781572</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="B11" t="n">
         <v>-0.09519047841981614</v>
@@ -31856,11 +34502,38 @@
       </c>
       <c r="DB11" t="n">
         <v>-0.7343265478100102</v>
+      </c>
+      <c r="DC11" t="n">
+        <v>-0.7479251875842696</v>
+      </c>
+      <c r="DD11" t="n">
+        <v>-0.8159183864555668</v>
+      </c>
+      <c r="DE11" t="n">
+        <v>-0.7343265478100102</v>
+      </c>
+      <c r="DF11" t="n">
+        <v>-0.6799319887129723</v>
+      </c>
+      <c r="DG11" t="n">
+        <v>-0.6527347091644535</v>
+      </c>
+      <c r="DH11" t="n">
+        <v>-0.6663333489387129</v>
+      </c>
+      <c r="DI11" t="n">
+        <v>-0.6391360693901941</v>
+      </c>
+      <c r="DJ11" t="n">
+        <v>-0.6935306284872318</v>
+      </c>
+      <c r="DK11" t="n">
+        <v>-0.7615238273585291</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B12" t="n">
         <v>0.8752409696566255</v>
@@ -32176,11 +34849,38 @@
       </c>
       <c r="DB12" t="n">
         <v>-2.5381988120042136</v>
+      </c>
+      <c r="DC12" t="n">
+        <v>-2.713247005935539</v>
+      </c>
+      <c r="DD12" t="n">
+        <v>-3.588487975592164</v>
+      </c>
+      <c r="DE12" t="n">
+        <v>-2.713247005935539</v>
+      </c>
+      <c r="DF12" t="n">
+        <v>-2.713247005935539</v>
+      </c>
+      <c r="DG12" t="n">
+        <v>-2.6257229089698764</v>
+      </c>
+      <c r="DH12" t="n">
+        <v>-2.5381988120042136</v>
+      </c>
+      <c r="DI12" t="n">
+        <v>-2.100578327175901</v>
+      </c>
+      <c r="DJ12" t="n">
+        <v>-2.275626521107226</v>
+      </c>
+      <c r="DK12" t="n">
+        <v>-3.3259156846951767</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="B13" t="n">
         <v>0.02927769268927327</v>
@@ -32496,11 +35196,38 @@
       </c>
       <c r="DB13" t="n">
         <v>-0.4098876976498258</v>
+      </c>
+      <c r="DC13" t="n">
+        <v>-0.39524885130518916</v>
+      </c>
+      <c r="DD13" t="n">
+        <v>-0.5855538537854654</v>
+      </c>
+      <c r="DE13" t="n">
+        <v>-0.43916539033909907</v>
+      </c>
+      <c r="DF13" t="n">
+        <v>-0.6001927001301021</v>
+      </c>
+      <c r="DG13" t="n">
+        <v>-0.4977207757176456</v>
+      </c>
+      <c r="DH13" t="n">
+        <v>-0.4538042366837357</v>
+      </c>
+      <c r="DI13" t="n">
+        <v>-0.38061000496055253</v>
+      </c>
+      <c r="DJ13" t="n">
+        <v>-0.39524885130518916</v>
+      </c>
+      <c r="DK13" t="n">
+        <v>-0.5855538537854654</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -32816,11 +35543,38 @@
       </c>
       <c r="DB14" t="n">
         <v>-0.5971086609921747</v>
+      </c>
+      <c r="DC14" t="n">
+        <v>-0.5585855215733248</v>
+      </c>
+      <c r="DD14" t="n">
+        <v>-0.7126780792487246</v>
+      </c>
+      <c r="DE14" t="n">
+        <v>-0.6548933701204497</v>
+      </c>
+      <c r="DF14" t="n">
+        <v>-0.6741549398298746</v>
+      </c>
+      <c r="DG14" t="n">
+        <v>-0.6548933701204497</v>
+      </c>
+      <c r="DH14" t="n">
+        <v>-0.6356318004110246</v>
+      </c>
+      <c r="DI14" t="n">
+        <v>-0.5585855215733248</v>
+      </c>
+      <c r="DJ14" t="n">
+        <v>-0.5393239518638997</v>
+      </c>
+      <c r="DK14" t="n">
+        <v>-0.6741549398298746</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="B15" t="n">
         <v>0.14144418998755381</v>
@@ -33136,11 +35890,38 @@
       </c>
       <c r="DB15" t="n">
         <v>-1.1079794882358383</v>
+      </c>
+      <c r="DC15" t="n">
+        <v>-1.1551275515650228</v>
+      </c>
+      <c r="DD15" t="n">
+        <v>-1.4851639948693152</v>
+      </c>
+      <c r="DE15" t="n">
+        <v>-1.0608314249066537</v>
+      </c>
+      <c r="DF15" t="n">
+        <v>-1.0372573932420615</v>
+      </c>
+      <c r="DG15" t="n">
+        <v>-0.9901093299128767</v>
+      </c>
+      <c r="DH15" t="n">
+        <v>-0.9665352982482844</v>
+      </c>
+      <c r="DI15" t="n">
+        <v>-0.9429612665836922</v>
+      </c>
+      <c r="DJ15" t="n">
+        <v>-0.9665352982482844</v>
+      </c>
+      <c r="DK15" t="n">
+        <v>-1.320145773217169</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B16" t="n">
         <v>0.05685896731819608</v>
@@ -33456,11 +36237,38 @@
       </c>
       <c r="DB16" t="n">
         <v>-0.5117307058637647</v>
+      </c>
+      <c r="DC16" t="n">
+        <v>-0.5970191568410588</v>
+      </c>
+      <c r="DD16" t="n">
+        <v>-0.6064956513940915</v>
+      </c>
+      <c r="DE16" t="n">
+        <v>-0.6444016296062222</v>
+      </c>
+      <c r="DF16" t="n">
+        <v>-0.6349251350531895</v>
+      </c>
+      <c r="DG16" t="n">
+        <v>-0.6254486405001568</v>
+      </c>
+      <c r="DH16" t="n">
+        <v>-0.5212072004167974</v>
+      </c>
+      <c r="DI16" t="n">
+        <v>-0.5117307058637647</v>
+      </c>
+      <c r="DJ16" t="n">
+        <v>-0.4927777167576993</v>
+      </c>
+      <c r="DK16" t="n">
+        <v>-0.5591131786289281</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="B17" t="n">
         <v>0.1930416092712577</v>
@@ -33776,11 +36584,38 @@
       </c>
       <c r="DB17" t="n">
         <v>-1.3237138921457672</v>
+      </c>
+      <c r="DC17" t="n">
+        <v>-1.2134044011336198</v>
+      </c>
+      <c r="DD17" t="n">
+        <v>-1.4064460104048777</v>
+      </c>
+      <c r="DE17" t="n">
+        <v>-1.1858270283805832</v>
+      </c>
+      <c r="DF17" t="n">
+        <v>-1.1582496556275463</v>
+      </c>
+      <c r="DG17" t="n">
+        <v>-1.1030949101214726</v>
+      </c>
+      <c r="DH17" t="n">
+        <v>-1.1306722828745095</v>
+      </c>
+      <c r="DI17" t="n">
+        <v>-0.9927854191093254</v>
+      </c>
+      <c r="DJ17" t="n">
+        <v>-0.9927854191093254</v>
+      </c>
+      <c r="DK17" t="n">
+        <v>-1.351291264898804</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B18" t="n">
         <v>-0.062009381542533513</v>
@@ -34095,12 +36930,39 @@
         <v>-0.4891851210577644</v>
       </c>
       <c r="DB18" t="n">
+        <v>-0.5029649836227719</v>
+      </c>
+      <c r="DC18" t="n">
+        <v>-0.5029649836227719</v>
+      </c>
+      <c r="DD18" t="n">
+        <v>-0.5167448461877793</v>
+      </c>
+      <c r="DE18" t="n">
+        <v>-0.447845533362742</v>
+      </c>
+      <c r="DF18" t="n">
+        <v>-0.46851532721025324</v>
+      </c>
+      <c r="DG18" t="n">
+        <v>-0.4616253959277495</v>
+      </c>
+      <c r="DH18" t="n">
+        <v>-0.47540525849275694</v>
+      </c>
+      <c r="DI18" t="n">
+        <v>-0.4547354646452458</v>
+      </c>
+      <c r="DJ18" t="n">
+        <v>-0.48229518977526065</v>
+      </c>
+      <c r="DK18" t="n">
         <v>-0.5029649836227719</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="B19" t="n">
         <v>0.4480452084081119</v>
@@ -34416,11 +37278,38 @@
       </c>
       <c r="DB19" t="n">
         <v>-1.9201937503204796</v>
+      </c>
+      <c r="DC19" t="n">
+        <v>-1.8561872919764635</v>
+      </c>
+      <c r="DD19" t="n">
+        <v>-2.496251875416623</v>
+      </c>
+      <c r="DE19" t="n">
+        <v>-2.3042325003845754</v>
+      </c>
+      <c r="DF19" t="n">
+        <v>-2.4322454170726076</v>
+      </c>
+      <c r="DG19" t="n">
+        <v>-2.1762195836965437</v>
+      </c>
+      <c r="DH19" t="n">
+        <v>-2.2402260420405593</v>
+      </c>
+      <c r="DI19" t="n">
+        <v>-1.9201937503204796</v>
+      </c>
+      <c r="DJ19" t="n">
+        <v>-1.9842002086644954</v>
+      </c>
+      <c r="DK19" t="n">
+        <v>-2.496251875416623</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B20" t="n">
         <v>1.3257310985796693</v>
@@ -34736,11 +37625,38 @@
       </c>
       <c r="DB20" t="n">
         <v>-4.691048502666522</v>
+      </c>
+      <c r="DC20" t="n">
+        <v>-4.487089872115804</v>
+      </c>
+      <c r="DD20" t="n">
+        <v>-5.098965763767959</v>
+      </c>
+      <c r="DE20" t="n">
+        <v>-4.793027817941882</v>
+      </c>
+      <c r="DF20" t="n">
+        <v>-4.8950071332172405</v>
+      </c>
+      <c r="DG20" t="n">
+        <v>-4.793027817941882</v>
+      </c>
+      <c r="DH20" t="n">
+        <v>-4.8950071332172405</v>
+      </c>
+      <c r="DI20" t="n">
+        <v>-4.1811519262897265</v>
+      </c>
+      <c r="DJ20" t="n">
+        <v>-3.875213980463649</v>
+      </c>
+      <c r="DK20" t="n">
+        <v>-4.793027817941882</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="B21" t="n">
         <v>-0.00976628149959203</v>
@@ -35056,11 +37972,38 @@
       </c>
       <c r="DB21" t="n">
         <v>-0.4394826674816414</v>
+      </c>
+      <c r="DC21" t="n">
+        <v>-0.4687815119804175</v>
+      </c>
+      <c r="DD21" t="n">
+        <v>-0.5469117639771537</v>
+      </c>
+      <c r="DE21" t="n">
+        <v>-0.4394826674816414</v>
+      </c>
+      <c r="DF21" t="n">
+        <v>-0.4492489489812334</v>
+      </c>
+      <c r="DG21" t="n">
+        <v>-0.4394826674816414</v>
+      </c>
+      <c r="DH21" t="n">
+        <v>-0.4394826674816414</v>
+      </c>
+      <c r="DI21" t="n">
+        <v>-0.4101838229828653</v>
+      </c>
+      <c r="DJ21" t="n">
+        <v>-0.4687815119804175</v>
+      </c>
+      <c r="DK21" t="n">
+        <v>-0.5664443269763378</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B22" t="n">
         <v>0.0</v>
@@ -35376,11 +38319,38 @@
       </c>
       <c r="DB22" t="n">
         <v>-0.3436470174018757</v>
+      </c>
+      <c r="DC22" t="n">
+        <v>-0.3700814033558661</v>
+      </c>
+      <c r="DD22" t="n">
+        <v>-0.44277596472933983</v>
+      </c>
+      <c r="DE22" t="n">
+        <v>-0.3436470174018757</v>
+      </c>
+      <c r="DF22" t="n">
+        <v>-0.33042982442488045</v>
+      </c>
+      <c r="DG22" t="n">
+        <v>-0.3568642103788709</v>
+      </c>
+      <c r="DH22" t="n">
+        <v>-0.3568642103788709</v>
+      </c>
+      <c r="DI22" t="n">
+        <v>-0.31721263144788525</v>
+      </c>
+      <c r="DJ22" t="n">
+        <v>-0.3700814033558661</v>
+      </c>
+      <c r="DK22" t="n">
+        <v>-0.44938456121783743</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B23" t="n">
         <v>-0.005515410859379139</v>
@@ -35696,11 +38666,38 @@
       </c>
       <c r="DB23" t="n">
         <v>-0.08824657375006623</v>
+      </c>
+      <c r="DC23" t="n">
+        <v>-0.10663127661466336</v>
+      </c>
+      <c r="DD23" t="n">
+        <v>-0.11582362804696193</v>
+      </c>
+      <c r="DE23" t="n">
+        <v>-0.10111586575528422</v>
+      </c>
+      <c r="DF23" t="n">
+        <v>-0.09927739546882451</v>
+      </c>
+      <c r="DG23" t="n">
+        <v>-0.09560045489590509</v>
+      </c>
+      <c r="DH23" t="n">
+        <v>-0.09192351432298566</v>
+      </c>
+      <c r="DI23" t="n">
+        <v>-0.0845696331771468</v>
+      </c>
+      <c r="DJ23" t="n">
+        <v>-0.10111586575528422</v>
+      </c>
+      <c r="DK23" t="n">
+        <v>-0.11214668747404251</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B24" t="n">
         <v>0.1928286950865623</v>
@@ -36016,11 +39013,38 @@
       </c>
       <c r="DB24" t="n">
         <v>-2.1211156459521856</v>
+      </c>
+      <c r="DC24" t="n">
+        <v>-1.928286950865623</v>
+      </c>
+      <c r="DD24" t="n">
+        <v>-3.2138115847760385</v>
+      </c>
+      <c r="DE24" t="n">
+        <v>-2.3782205727342687</v>
+      </c>
+      <c r="DF24" t="n">
+        <v>-2.185391877647706</v>
+      </c>
+      <c r="DG24" t="n">
+        <v>-2.185391877647706</v>
+      </c>
+      <c r="DH24" t="n">
+        <v>-2.1211156459521856</v>
+      </c>
+      <c r="DI24" t="n">
+        <v>-2.4424968044297892</v>
+      </c>
+      <c r="DJ24" t="n">
+        <v>-2.185391877647706</v>
+      </c>
+      <c r="DK24" t="n">
+        <v>-3.278087816471559</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B25" t="n">
         <v>-0.04210519964838624</v>
@@ -36336,11 +39360,38 @@
       </c>
       <c r="DB25" t="n">
         <v>-2.442101579606402</v>
+      </c>
+      <c r="DC25" t="n">
+        <v>-2.231575581364471</v>
+      </c>
+      <c r="DD25" t="n">
+        <v>-2.442101579606402</v>
+      </c>
+      <c r="DE25" t="n">
+        <v>-2.6947327774967196</v>
+      </c>
+      <c r="DF25" t="n">
+        <v>-2.568417178551561</v>
+      </c>
+      <c r="DG25" t="n">
+        <v>-2.5263119789031747</v>
+      </c>
+      <c r="DH25" t="n">
+        <v>-2.568417178551561</v>
+      </c>
+      <c r="DI25" t="n">
+        <v>-2.6526275778483335</v>
+      </c>
+      <c r="DJ25" t="n">
+        <v>-2.231575581364471</v>
+      </c>
+      <c r="DK25" t="n">
+        <v>-2.35789118030963</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B26" t="n">
         <v>-0.06801150395443549</v>
@@ -36656,11 +39707,38 @@
       </c>
       <c r="DB26" t="n">
         <v>-0.37715470374732407</v>
+      </c>
+      <c r="DC26" t="n">
+        <v>-0.40188615973075514</v>
+      </c>
+      <c r="DD26" t="n">
+        <v>-0.4946291196686217</v>
+      </c>
+      <c r="DE26" t="n">
+        <v>-0.38333756774318184</v>
+      </c>
+      <c r="DF26" t="n">
+        <v>-0.36478897575560854</v>
+      </c>
+      <c r="DG26" t="n">
+        <v>-0.35860611175975077</v>
+      </c>
+      <c r="DH26" t="n">
+        <v>-0.352423247763893</v>
+      </c>
+      <c r="DI26" t="n">
+        <v>-0.35860611175975077</v>
+      </c>
+      <c r="DJ26" t="n">
+        <v>-0.38333756774318184</v>
+      </c>
+      <c r="DK26" t="n">
+        <v>-0.4760805276810484</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B27" t="n">
         <v>3.5420423018996807</v>
@@ -36976,11 +40054,38 @@
       </c>
       <c r="DB27" t="n">
         <v>-14.812176898853211</v>
+      </c>
+      <c r="DC27" t="n">
+        <v>-13.202157670716993</v>
+      </c>
+      <c r="DD27" t="n">
+        <v>-14.812176898853211</v>
+      </c>
+      <c r="DE27" t="n">
+        <v>-15.134180744480455</v>
+      </c>
+      <c r="DF27" t="n">
+        <v>-16.100192281362187</v>
+      </c>
+      <c r="DG27" t="n">
+        <v>-15.134180744480455</v>
+      </c>
+      <c r="DH27" t="n">
+        <v>-14.490173053225966</v>
+      </c>
+      <c r="DI27" t="n">
+        <v>-13.84616536197148</v>
+      </c>
+      <c r="DJ27" t="n">
+        <v>-12.23614613383526</v>
+      </c>
+      <c r="DK27" t="n">
+        <v>-14.168169207598723</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B28" t="n">
         <v>-0.031080086534668965</v>
@@ -37296,11 +40401,38 @@
       </c>
       <c r="DB28" t="n">
         <v>-0.2641807355446862</v>
+      </c>
+      <c r="DC28" t="n">
+        <v>-0.2849007932344655</v>
+      </c>
+      <c r="DD28" t="n">
+        <v>-0.32634090861402415</v>
+      </c>
+      <c r="DE28" t="n">
+        <v>-0.24864069227735172</v>
+      </c>
+      <c r="DF28" t="n">
+        <v>-0.23310064901001723</v>
+      </c>
+      <c r="DG28" t="n">
+        <v>-0.24864069227735172</v>
+      </c>
+      <c r="DH28" t="n">
+        <v>-0.22274062016512758</v>
+      </c>
+      <c r="DI28" t="n">
+        <v>-0.22792063458757242</v>
+      </c>
+      <c r="DJ28" t="n">
+        <v>-0.24346067785490688</v>
+      </c>
+      <c r="DK28" t="n">
+        <v>-0.29526082207935517</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B29" t="n">
         <v>6.983131417112518</v>
@@ -37616,6 +40748,33 @@
       </c>
       <c r="DB29" t="n">
         <v>-42.45388610953874</v>
+      </c>
+      <c r="DC29" t="n">
+        <v>-40.34477476794903</v>
+      </c>
+      <c r="DD29" t="n">
+        <v>-47.93935865782706</v>
+      </c>
+      <c r="DE29" t="n">
+        <v>-43.909273431206564</v>
+      </c>
+      <c r="DF29" t="n">
+        <v>-44.53068361400114</v>
+      </c>
+      <c r="DG29" t="n">
+        <v>-42.8432927156203</v>
+      </c>
+      <c r="DH29" t="n">
+        <v>-42.029993352366205</v>
+      </c>
+      <c r="DI29" t="n">
+        <v>-39.4661315607402</v>
+      </c>
+      <c r="DJ29" t="n">
+        <v>-37.17110855438315</v>
+      </c>
+      <c r="DK29" t="n">
+        <v>-45.912178441796215</v>
       </c>
     </row>
   </sheetData>
@@ -37948,10 +41107,37 @@
       <c r="DB1" t="s">
         <v>104</v>
       </c>
+      <c r="DC1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B2" t="n">
         <v>0.010838805731762815</v>
@@ -38267,11 +41453,38 @@
       </c>
       <c r="DB2" t="n">
         <v>-0.056361789805166644</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>-0.03468417834164101</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>-0.028180894902583322</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>-0.04985850636610895</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>-0.056361789805166644</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>-0.056361789805166644</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>-0.05419402865881408</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>-0.056361789805166644</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>-0.028180894902583322</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>-0.023845372609878193</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B3" t="n">
         <v>0.008026873401875145</v>
@@ -38587,11 +41800,38 @@
       </c>
       <c r="DB3" t="n">
         <v>-0.2488330754581295</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>-0.20869870844875377</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>-0.16856434143937804</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>-0.2488330754581295</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>-0.2488330754581295</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>-0.2488330754581295</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>-0.2488330754581295</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>-0.22475245525250404</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>-0.15251059463562774</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>-0.12040310102812717</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B4" t="n">
         <v>0.08494576215931232</v>
@@ -38907,11 +42147,38 @@
       </c>
       <c r="DB4" t="n">
         <v>-0.32562542161069724</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>-0.16989152431862464</v>
+      </c>
+      <c r="DD4" t="n">
+        <v>-0.07078813513276028</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>-0.29731016755759315</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>-0.26899491350448906</v>
+      </c>
+      <c r="DG4" t="n">
+        <v>-0.2831525405310411</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>-0.2831525405310411</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>-0.24067965945138492</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>-0.09910338918586438</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>-0.02831525405310411</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B5" t="n">
         <v>0.009405520267949018</v>
@@ -39227,11 +42494,38 @@
       </c>
       <c r="DB5" t="n">
         <v>-0.11051486314840096</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>-0.07994692227756665</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>-0.04467622127275783</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>-0.10581210301442645</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>-0.10110934288045194</v>
+      </c>
+      <c r="DG5" t="n">
+        <v>-0.09875796281346469</v>
+      </c>
+      <c r="DH5" t="n">
+        <v>-0.09875796281346469</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>-0.09170382261250293</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>-0.056433121607694106</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>-0.025865180736859797</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="B6" t="n">
         <v>0.20404665244559836</v>
@@ -39547,11 +42841,38 @@
       </c>
       <c r="DB6" t="n">
         <v>-1.1834705841844706</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>-0.8569959402715132</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>-0.612139957336795</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>-1.020233262227992</v>
+      </c>
+      <c r="DF6" t="n">
+        <v>-1.1018519232062312</v>
+      </c>
+      <c r="DG6" t="n">
+        <v>-1.020233262227992</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>-1.1018519232062312</v>
+      </c>
+      <c r="DI6" t="n">
+        <v>-1.020233262227992</v>
+      </c>
+      <c r="DJ6" t="n">
+        <v>-0.8161866097823934</v>
+      </c>
+      <c r="DK6" t="n">
+        <v>-0.5713306268476754</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B7" t="n">
         <v>0.08985764885790004</v>
@@ -39867,11 +43188,38 @@
       </c>
       <c r="DB7" t="n">
         <v>-0.8985764885790004</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>-0.6065391297908252</v>
+      </c>
+      <c r="DD7" t="n">
+        <v>-0.3369661832171251</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>-0.7862544275066253</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>-0.8311832519355754</v>
+      </c>
+      <c r="DG7" t="n">
+        <v>-0.8311832519355754</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>-0.8536476641500503</v>
+      </c>
+      <c r="DI7" t="n">
+        <v>-0.7413256030776754</v>
+      </c>
+      <c r="DJ7" t="n">
+        <v>-0.4942170687184502</v>
+      </c>
+      <c r="DK7" t="n">
+        <v>-0.31450177100265014</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B8" t="n">
         <v>0.2973366552325812</v>
@@ -40187,11 +43535,38 @@
       </c>
       <c r="DB8" t="n">
         <v>-1.1150124571221793</v>
+      </c>
+      <c r="DC8" t="n">
+        <v>-0.37167081904072646</v>
+      </c>
+      <c r="DD8" t="n">
+        <v>-0.18583540952036323</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>-1.1150124571221793</v>
+      </c>
+      <c r="DF8" t="n">
+        <v>-1.1893466209303247</v>
+      </c>
+      <c r="DG8" t="n">
+        <v>-1.1893466209303247</v>
+      </c>
+      <c r="DH8" t="n">
+        <v>-1.1893466209303247</v>
+      </c>
+      <c r="DI8" t="n">
+        <v>-1.0406782933140342</v>
+      </c>
+      <c r="DJ8" t="n">
+        <v>-0.2973366552325812</v>
+      </c>
+      <c r="DK8" t="n">
+        <v>-0.03716708190407265</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="B9" t="n">
         <v>0.12052629348516139</v>
@@ -40507,11 +43882,38 @@
       </c>
       <c r="DB9" t="n">
         <v>-0.3099247546761293</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>-0.17218041926451627</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>-0.1893984611909679</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>-0.3099247546761293</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>-0.32714279660258094</v>
+      </c>
+      <c r="DG9" t="n">
+        <v>-0.32714279660258094</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>-0.32714279660258094</v>
+      </c>
+      <c r="DI9" t="n">
+        <v>-0.27548867082322603</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>-0.1893984611909679</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>-0.20661650311741953</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B10" t="n">
         <v>0.23319385194869777</v>
@@ -40827,11 +44229,38 @@
       </c>
       <c r="DB10" t="n">
         <v>-0.34979077792304664</v>
+      </c>
+      <c r="DC10" t="n">
+        <v>-0.08744769448076166</v>
+      </c>
+      <c r="DD10" t="n">
+        <v>0.05829846298717444</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>-0.2914923149358722</v>
+      </c>
+      <c r="DF10" t="n">
+        <v>-0.4080892409102211</v>
+      </c>
+      <c r="DG10" t="n">
+        <v>-0.4080892409102211</v>
+      </c>
+      <c r="DH10" t="n">
+        <v>-0.4080892409102211</v>
+      </c>
+      <c r="DI10" t="n">
+        <v>-0.2914923149358722</v>
+      </c>
+      <c r="DJ10" t="n">
+        <v>-0.08744769448076166</v>
+      </c>
+      <c r="DK10" t="n">
+        <v>0.11659692597434888</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="B11" t="n">
         <v>0.027197279548518895</v>
@@ -41147,11 +44576,38 @@
       </c>
       <c r="DB11" t="n">
         <v>-0.38076191367926454</v>
+      </c>
+      <c r="DC11" t="n">
+        <v>-0.2039795966138917</v>
+      </c>
+      <c r="DD11" t="n">
+        <v>-0.12238775796833502</v>
+      </c>
+      <c r="DE11" t="n">
+        <v>-0.3127687148079673</v>
+      </c>
+      <c r="DF11" t="n">
+        <v>-0.32636735458222677</v>
+      </c>
+      <c r="DG11" t="n">
+        <v>-0.33996599435648617</v>
+      </c>
+      <c r="DH11" t="n">
+        <v>-0.33996599435648617</v>
+      </c>
+      <c r="DI11" t="n">
+        <v>-0.29917007503370785</v>
+      </c>
+      <c r="DJ11" t="n">
+        <v>-0.14958503751685392</v>
+      </c>
+      <c r="DK11" t="n">
+        <v>-0.040795919322778346</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B12" t="n">
         <v>0.7001927757253004</v>
@@ -41467,11 +44923,38 @@
       </c>
       <c r="DB12" t="n">
         <v>-1.137813260553613</v>
+      </c>
+      <c r="DC12" t="n">
+        <v>-0.5251445817939753</v>
+      </c>
+      <c r="DD12" t="n">
+        <v>-0.3500963878626502</v>
+      </c>
+      <c r="DE12" t="n">
+        <v>-1.2253373575192756</v>
+      </c>
+      <c r="DF12" t="n">
+        <v>-1.4003855514506007</v>
+      </c>
+      <c r="DG12" t="n">
+        <v>-1.3128614544849382</v>
+      </c>
+      <c r="DH12" t="n">
+        <v>-1.2253373575192756</v>
+      </c>
+      <c r="DI12" t="n">
+        <v>-1.0502891635879505</v>
+      </c>
+      <c r="DJ12" t="n">
+        <v>-0.43762048482831273</v>
+      </c>
+      <c r="DK12" t="n">
+        <v>-0.26257229089698764</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="B13" t="n">
         <v>0.07319423172318318</v>
@@ -41787,11 +45270,38 @@
       </c>
       <c r="DB13" t="n">
         <v>-0.02927769268927327</v>
+      </c>
+      <c r="DC13" t="n">
+        <v>0.02927769268927327</v>
+      </c>
+      <c r="DD13" t="n">
+        <v>0.07319423172318318</v>
+      </c>
+      <c r="DE13" t="n">
+        <v>-0.05855538537854654</v>
+      </c>
+      <c r="DF13" t="n">
+        <v>-0.13174961710172972</v>
+      </c>
+      <c r="DG13" t="n">
+        <v>-0.05855538537854654</v>
+      </c>
+      <c r="DH13" t="n">
+        <v>-0.07319423172318318</v>
+      </c>
+      <c r="DI13" t="n">
+        <v>-0.02927769268927327</v>
+      </c>
+      <c r="DJ13" t="n">
+        <v>0.02927769268927327</v>
+      </c>
+      <c r="DK13" t="n">
+        <v>0.10247192441245645</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="B14" t="n">
         <v>0.05778470912827497</v>
@@ -42107,11 +45617,38 @@
       </c>
       <c r="DB14" t="n">
         <v>-0.09630784854712496</v>
+      </c>
+      <c r="DC14" t="n">
+        <v>0.01926156970942499</v>
+      </c>
+      <c r="DD14" t="n">
+        <v>0.05778470912827497</v>
+      </c>
+      <c r="DE14" t="n">
+        <v>-0.11556941825654994</v>
+      </c>
+      <c r="DF14" t="n">
+        <v>-0.13483098796597492</v>
+      </c>
+      <c r="DG14" t="n">
+        <v>-0.13483098796597492</v>
+      </c>
+      <c r="DH14" t="n">
+        <v>-0.15409255767539992</v>
+      </c>
+      <c r="DI14" t="n">
+        <v>-0.09630784854712496</v>
+      </c>
+      <c r="DJ14" t="n">
+        <v>-0.05778470912827497</v>
+      </c>
+      <c r="DK14" t="n">
+        <v>0.05778470912827497</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="B15" t="n">
         <v>0.11787015832296152</v>
@@ -42427,11 +45964,38 @@
       </c>
       <c r="DB15" t="n">
         <v>-0.6364988549439922</v>
+      </c>
+      <c r="DC15" t="n">
+        <v>-0.4007585382980692</v>
+      </c>
+      <c r="DD15" t="n">
+        <v>-0.21216628498133072</v>
+      </c>
+      <c r="DE15" t="n">
+        <v>-0.5186286966210307</v>
+      </c>
+      <c r="DF15" t="n">
+        <v>-0.5657767599502153</v>
+      </c>
+      <c r="DG15" t="n">
+        <v>-0.542202728285623</v>
+      </c>
+      <c r="DH15" t="n">
+        <v>-0.5657767599502153</v>
+      </c>
+      <c r="DI15" t="n">
+        <v>-0.4714806332918461</v>
+      </c>
+      <c r="DJ15" t="n">
+        <v>-0.21216628498133072</v>
+      </c>
+      <c r="DK15" t="n">
+        <v>-0.07072209499377691</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B16" t="n">
         <v>0.037905978212130716</v>
@@ -42747,11 +46311,38 @@
       </c>
       <c r="DB16" t="n">
         <v>-0.3032478256970457</v>
+      </c>
+      <c r="DC16" t="n">
+        <v>-0.2274358692727843</v>
+      </c>
+      <c r="DD16" t="n">
+        <v>-0.14214741829549019</v>
+      </c>
+      <c r="DE16" t="n">
+        <v>-0.3601067930152418</v>
+      </c>
+      <c r="DF16" t="n">
+        <v>-0.36958328756827447</v>
+      </c>
+      <c r="DG16" t="n">
+        <v>-0.36958328756827447</v>
+      </c>
+      <c r="DH16" t="n">
+        <v>-0.3222008148031111</v>
+      </c>
+      <c r="DI16" t="n">
+        <v>-0.29377133114401305</v>
+      </c>
+      <c r="DJ16" t="n">
+        <v>-0.18952989106065357</v>
+      </c>
+      <c r="DK16" t="n">
+        <v>-0.12319442918942483</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="B17" t="n">
         <v>0.13788686376518408</v>
@@ -43067,11 +46658,38 @@
       </c>
       <c r="DB17" t="n">
         <v>-1.0203627918623621</v>
+      </c>
+      <c r="DC17" t="n">
+        <v>-0.6894343188259204</v>
+      </c>
+      <c r="DD17" t="n">
+        <v>-0.4688153368016259</v>
+      </c>
+      <c r="DE17" t="n">
+        <v>-0.8824759280971781</v>
+      </c>
+      <c r="DF17" t="n">
+        <v>-0.9376306736032518</v>
+      </c>
+      <c r="DG17" t="n">
+        <v>-0.8824759280971781</v>
+      </c>
+      <c r="DH17" t="n">
+        <v>-0.910053300850215</v>
+      </c>
+      <c r="DI17" t="n">
+        <v>-0.8273211825911044</v>
+      </c>
+      <c r="DJ17" t="n">
+        <v>-0.5515474550607363</v>
+      </c>
+      <c r="DK17" t="n">
+        <v>-0.4136605912955522</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B18" t="n">
         <v>0.02066979384751117</v>
@@ -43387,11 +47005,38 @@
       </c>
       <c r="DB18" t="n">
         <v>-0.27559725130014895</v>
+      </c>
+      <c r="DC18" t="n">
+        <v>-0.1446885569325782</v>
+      </c>
+      <c r="DD18" t="n">
+        <v>-0.10334896923755585</v>
+      </c>
+      <c r="DE18" t="n">
+        <v>-0.199808007192608</v>
+      </c>
+      <c r="DF18" t="n">
+        <v>-0.21358786975761543</v>
+      </c>
+      <c r="DG18" t="n">
+        <v>-0.21358786975761543</v>
+      </c>
+      <c r="DH18" t="n">
+        <v>-0.21358786975761543</v>
+      </c>
+      <c r="DI18" t="n">
+        <v>-0.199808007192608</v>
+      </c>
+      <c r="DJ18" t="n">
+        <v>-0.11712883180256331</v>
+      </c>
+      <c r="DK18" t="n">
+        <v>-0.04133958769502234</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="B19" t="n">
         <v>0.38403875006409594</v>
@@ -43707,11 +47352,38 @@
       </c>
       <c r="DB19" t="n">
         <v>-0.6400645834401598</v>
+      </c>
+      <c r="DC19" t="n">
+        <v>-0.19201937503204797</v>
+      </c>
+      <c r="DD19" t="n">
+        <v>0.06400645834401598</v>
+      </c>
+      <c r="DE19" t="n">
+        <v>-0.7040710417841758</v>
+      </c>
+      <c r="DF19" t="n">
+        <v>-0.8960904168162238</v>
+      </c>
+      <c r="DG19" t="n">
+        <v>-0.7680775001281919</v>
+      </c>
+      <c r="DH19" t="n">
+        <v>-0.8960904168162238</v>
+      </c>
+      <c r="DI19" t="n">
+        <v>-0.6400645834401598</v>
+      </c>
+      <c r="DJ19" t="n">
+        <v>-0.3200322917200799</v>
+      </c>
+      <c r="DK19" t="n">
+        <v>0.12801291668803197</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B20" t="n">
         <v>0.6118758916521551</v>
@@ -44027,11 +47699,38 @@
       </c>
       <c r="DB20" t="n">
         <v>-3.365317404086853</v>
+      </c>
+      <c r="DC20" t="n">
+        <v>-2.0395863055071835</v>
+      </c>
+      <c r="DD20" t="n">
+        <v>-1.5296897291303877</v>
+      </c>
+      <c r="DE20" t="n">
+        <v>-3.263338088811494</v>
+      </c>
+      <c r="DF20" t="n">
+        <v>-3.5692760346375714</v>
+      </c>
+      <c r="DG20" t="n">
+        <v>-3.5692760346375714</v>
+      </c>
+      <c r="DH20" t="n">
+        <v>-3.467296719362212</v>
+      </c>
+      <c r="DI20" t="n">
+        <v>-3.0593794582607754</v>
+      </c>
+      <c r="DJ20" t="n">
+        <v>-1.733648359681106</v>
+      </c>
+      <c r="DK20" t="n">
+        <v>-1.4277104138550285</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="B21" t="n">
         <v>0.05859768899755219</v>
@@ -44347,11 +48046,38 @@
       </c>
       <c r="DB21" t="n">
         <v>-0.2539233189893928</v>
+      </c>
+      <c r="DC21" t="n">
+        <v>-0.1855593484922486</v>
+      </c>
+      <c r="DD21" t="n">
+        <v>-0.1562605039934725</v>
+      </c>
+      <c r="DE21" t="n">
+        <v>-0.2636896004889848</v>
+      </c>
+      <c r="DF21" t="n">
+        <v>-0.2832221634881689</v>
+      </c>
+      <c r="DG21" t="n">
+        <v>-0.29298844498776094</v>
+      </c>
+      <c r="DH21" t="n">
+        <v>-0.29298844498776094</v>
+      </c>
+      <c r="DI21" t="n">
+        <v>-0.2539233189893928</v>
+      </c>
+      <c r="DJ21" t="n">
+        <v>-0.1953256299918406</v>
+      </c>
+      <c r="DK21" t="n">
+        <v>-0.1855593484922486</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B22" t="n">
         <v>0.039651578930985656</v>
@@ -44667,11 +48393,38 @@
       </c>
       <c r="DB22" t="n">
         <v>-0.04626017541948326</v>
+      </c>
+      <c r="DC22" t="n">
+        <v>-0.026434385953990436</v>
+      </c>
+      <c r="DD22" t="n">
+        <v>-0.013217192976995218</v>
+      </c>
+      <c r="DE22" t="n">
+        <v>-0.05286877190798087</v>
+      </c>
+      <c r="DF22" t="n">
+        <v>-0.0726945613734737</v>
+      </c>
+      <c r="DG22" t="n">
+        <v>-0.0726945613734737</v>
+      </c>
+      <c r="DH22" t="n">
+        <v>-0.07930315786197131</v>
+      </c>
+      <c r="DI22" t="n">
+        <v>-0.05286877190798087</v>
+      </c>
+      <c r="DJ22" t="n">
+        <v>-0.059477368396478485</v>
+      </c>
+      <c r="DK22" t="n">
+        <v>-0.026434385953990436</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B23" t="n">
         <v>0.011030821718758278</v>
@@ -44987,11 +48740,38 @@
       </c>
       <c r="DB23" t="n">
         <v>-0.03860787601565398</v>
+      </c>
+      <c r="DC23" t="n">
+        <v>-0.020223173151056845</v>
+      </c>
+      <c r="DD23" t="n">
+        <v>-0.012869292005217992</v>
+      </c>
+      <c r="DE23" t="n">
+        <v>-0.033092465156274835</v>
+      </c>
+      <c r="DF23" t="n">
+        <v>-0.04044634630211369</v>
+      </c>
+      <c r="DG23" t="n">
+        <v>-0.0422848165885734</v>
+      </c>
+      <c r="DH23" t="n">
+        <v>-0.04412328687503311</v>
+      </c>
+      <c r="DI23" t="n">
+        <v>-0.036769405729194266</v>
+      </c>
+      <c r="DJ23" t="n">
+        <v>-0.020223173151056845</v>
+      </c>
+      <c r="DK23" t="n">
+        <v>-0.016546232578137417</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B24" t="n">
         <v>0.12855246339104154</v>
@@ -45307,11 +49087,38 @@
       </c>
       <c r="DB24" t="n">
         <v>-0.9641434754328115</v>
+      </c>
+      <c r="DC24" t="n">
+        <v>-0.2571049267820831</v>
+      </c>
+      <c r="DD24" t="n">
+        <v>-0.3856573901731246</v>
+      </c>
+      <c r="DE24" t="n">
+        <v>-0.8998672437372908</v>
+      </c>
+      <c r="DF24" t="n">
+        <v>-0.8998672437372908</v>
+      </c>
+      <c r="DG24" t="n">
+        <v>-0.8998672437372908</v>
+      </c>
+      <c r="DH24" t="n">
+        <v>-0.9641434754328115</v>
+      </c>
+      <c r="DI24" t="n">
+        <v>-1.092695938823853</v>
+      </c>
+      <c r="DJ24" t="n">
+        <v>-0.4499336218686454</v>
+      </c>
+      <c r="DK24" t="n">
+        <v>-0.3856573901731246</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B25" t="n">
         <v>0.12631559894515873</v>
@@ -45627,11 +49434,38 @@
       </c>
       <c r="DB25" t="n">
         <v>-0.5052623957806349</v>
+      </c>
+      <c r="DC25" t="n">
+        <v>-0.21052599824193122</v>
+      </c>
+      <c r="DD25" t="n">
+        <v>-0.25263119789031746</v>
+      </c>
+      <c r="DE25" t="n">
+        <v>-0.5473675954290211</v>
+      </c>
+      <c r="DF25" t="n">
+        <v>-0.5473675954290211</v>
+      </c>
+      <c r="DG25" t="n">
+        <v>-0.5052623957806349</v>
+      </c>
+      <c r="DH25" t="n">
+        <v>-0.5473675954290211</v>
+      </c>
+      <c r="DI25" t="n">
+        <v>-0.5473675954290211</v>
+      </c>
+      <c r="DJ25" t="n">
+        <v>-0.25263119789031746</v>
+      </c>
+      <c r="DK25" t="n">
+        <v>-0.21052599824193122</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B26" t="n">
         <v>0.030914319979288857</v>
@@ -45947,11 +49781,38 @@
       </c>
       <c r="DB26" t="n">
         <v>-0.18548591987573315</v>
+      </c>
+      <c r="DC26" t="n">
+        <v>-0.10510868792958211</v>
+      </c>
+      <c r="DD26" t="n">
+        <v>-0.08037723194615103</v>
+      </c>
+      <c r="DE26" t="n">
+        <v>-0.21021737585916422</v>
+      </c>
+      <c r="DF26" t="n">
+        <v>-0.1978516478674487</v>
+      </c>
+      <c r="DG26" t="n">
+        <v>-0.1978516478674487</v>
+      </c>
+      <c r="DH26" t="n">
+        <v>-0.1978516478674487</v>
+      </c>
+      <c r="DI26" t="n">
+        <v>-0.17930305587987538</v>
+      </c>
+      <c r="DJ26" t="n">
+        <v>-0.09892582393372434</v>
+      </c>
+      <c r="DK26" t="n">
+        <v>-0.043280047971004404</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B27" t="n">
         <v>2.5760307650179497</v>
@@ -46267,11 +50128,38 @@
       </c>
       <c r="DB27" t="n">
         <v>-9.016107677562823</v>
+      </c>
+      <c r="DC27" t="n">
+        <v>-4.186049993154168</v>
+      </c>
+      <c r="DD27" t="n">
+        <v>-1.9320230737634623</v>
+      </c>
+      <c r="DE27" t="n">
+        <v>-8.372099986308337</v>
+      </c>
+      <c r="DF27" t="n">
+        <v>-9.982119214444555</v>
+      </c>
+      <c r="DG27" t="n">
+        <v>-9.338111523190067</v>
+      </c>
+      <c r="DH27" t="n">
+        <v>-9.338111523190067</v>
+      </c>
+      <c r="DI27" t="n">
+        <v>-8.372099986308337</v>
+      </c>
+      <c r="DJ27" t="n">
+        <v>-3.8640461475269245</v>
+      </c>
+      <c r="DK27" t="n">
+        <v>-1.6100192281362187</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B28" t="n">
         <v>0.046620129802003446</v>
@@ -46587,11 +50475,38 @@
       </c>
       <c r="DB28" t="n">
         <v>-0.06216017306933793</v>
+      </c>
+      <c r="DC28" t="n">
+        <v>-0.031080086534668965</v>
+      </c>
+      <c r="DD28" t="n">
+        <v>-0.02072005768977931</v>
+      </c>
+      <c r="DE28" t="n">
+        <v>-0.06216017306933793</v>
+      </c>
+      <c r="DF28" t="n">
+        <v>-0.06734018749178276</v>
+      </c>
+      <c r="DG28" t="n">
+        <v>-0.06734018749178276</v>
+      </c>
+      <c r="DH28" t="n">
+        <v>-0.06734018749178276</v>
+      </c>
+      <c r="DI28" t="n">
+        <v>-0.05180014422444827</v>
+      </c>
+      <c r="DJ28" t="n">
+        <v>-0.02072005768977931</v>
+      </c>
+      <c r="DK28" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B29" t="n">
         <v>6.244507862302893</v>
@@ -46907,6 +50822,33 @@
       </c>
       <c r="DB29" t="n">
         <v>-23.555310651452928</v>
+      </c>
+      <c r="DC29" t="n">
+        <v>-11.98464981635241</v>
+      </c>
+      <c r="DD29" t="n">
+        <v>-7.165673566545978</v>
+      </c>
+      <c r="DE29" t="n">
+        <v>-22.306753712305515</v>
+      </c>
+      <c r="DF29" t="n">
+        <v>-25.16910046880071</v>
+      </c>
+      <c r="DG29" t="n">
+        <v>-24.070918532891927</v>
+      </c>
+      <c r="DH29" t="n">
+        <v>-24.26384119521069</v>
+      </c>
+      <c r="DI29" t="n">
+        <v>-21.536414064571023</v>
+      </c>
+      <c r="DJ29" t="n">
+        <v>-10.92186316327633</v>
+      </c>
+      <c r="DK29" t="n">
+        <v>-5.781196373891901</v>
       </c>
     </row>
   </sheetData>
@@ -47239,10 +51181,37 @@
       <c r="DB1" t="s">
         <v>104</v>
       </c>
+      <c r="DC1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B2" t="n">
         <v>0.002167761146352563</v>
@@ -47558,11 +51527,38 @@
       </c>
       <c r="DB2" t="n">
         <v>0.036851939487993576</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>0.023845372609878193</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>0.023845372609878193</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>0.028180894902583322</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>0.030348656048935885</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>0.030348656048935885</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>0.032516417195288444</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>0.03468417834164101</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>0.023845372609878193</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>0.023845372609878193</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -47878,11 +51874,38 @@
       </c>
       <c r="DB3" t="n">
         <v>0.1284299744300023</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>0.12040310102812717</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>0.1284299744300023</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>0.11237622762625202</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>0.11237622762625202</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>0.11237622762625202</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>0.11237622762625202</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>0.12040310102812717</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>0.10434935422437688</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>0.11237622762625202</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B4" t="n">
         <v>-0.014157627026552055</v>
@@ -48198,11 +52221,38 @@
       </c>
       <c r="DB4" t="n">
         <v>0.21236440539828083</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>0.1557338972920726</v>
+      </c>
+      <c r="DD4" t="n">
+        <v>0.14157627026552055</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>0.18404915134517671</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>0.16989152431862464</v>
+      </c>
+      <c r="DG4" t="n">
+        <v>0.16989152431862464</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>0.18404915134517671</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>0.16989152431862464</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>0.12741864323896848</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>0.12741864323896848</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -48518,11 +52568,38 @@
       </c>
       <c r="DB5" t="n">
         <v>0.049378981406732345</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>0.04232484120577058</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>0.03762208107179607</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>0.04702760133974509</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>0.04467622127275783</v>
+      </c>
+      <c r="DG5" t="n">
+        <v>0.03997346113878333</v>
+      </c>
+      <c r="DH5" t="n">
+        <v>0.04232484120577058</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>0.03997346113878333</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>0.035270701004808815</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>0.03056794087083431</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="B6" t="n">
         <v>0.04080933048911967</v>
@@ -48838,11 +52915,38 @@
       </c>
       <c r="DB6" t="n">
         <v>0.7345679488041541</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>0.612139957336795</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>0.612139957336795</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>0.6529492878259148</v>
+      </c>
+      <c r="DF6" t="n">
+        <v>0.612139957336795</v>
+      </c>
+      <c r="DG6" t="n">
+        <v>0.6529492878259148</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>0.6529492878259148</v>
+      </c>
+      <c r="DI6" t="n">
+        <v>0.6937586183150345</v>
+      </c>
+      <c r="DJ6" t="n">
+        <v>0.612139957336795</v>
+      </c>
+      <c r="DK6" t="n">
+        <v>0.612139957336795</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B7" t="n">
         <v>0.02246441221447501</v>
@@ -49158,11 +53262,38 @@
       </c>
       <c r="DB7" t="n">
         <v>0.4492882442895002</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>0.35943059543160016</v>
+      </c>
+      <c r="DD7" t="n">
+        <v>0.3369661832171251</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>0.3818950076460752</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>0.3818950076460752</v>
+      </c>
+      <c r="DG7" t="n">
+        <v>0.3818950076460752</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>0.3818950076460752</v>
+      </c>
+      <c r="DI7" t="n">
+        <v>0.3818950076460752</v>
+      </c>
+      <c r="DJ7" t="n">
+        <v>0.3369661832171251</v>
+      </c>
+      <c r="DK7" t="n">
+        <v>0.3369661832171251</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -49478,11 +53609,38 @@
       </c>
       <c r="DB8" t="n">
         <v>0.7433416380814529</v>
+      </c>
+      <c r="DC8" t="n">
+        <v>0.5575062285610897</v>
+      </c>
+      <c r="DD8" t="n">
+        <v>0.5203391466570171</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>0.6690074742733076</v>
+      </c>
+      <c r="DF8" t="n">
+        <v>0.6690074742733076</v>
+      </c>
+      <c r="DG8" t="n">
+        <v>0.7061745561773803</v>
+      </c>
+      <c r="DH8" t="n">
+        <v>0.7061745561773803</v>
+      </c>
+      <c r="DI8" t="n">
+        <v>0.6690074742733076</v>
+      </c>
+      <c r="DJ8" t="n">
+        <v>0.48317206475294444</v>
+      </c>
+      <c r="DK8" t="n">
+        <v>0.48317206475294444</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -49798,11 +53956,38 @@
       </c>
       <c r="DB9" t="n">
         <v>0.25827062889677443</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>0.20661650311741953</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>0.22383454504387115</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>0.24105258697032278</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>0.22383454504387115</v>
+      </c>
+      <c r="DG9" t="n">
+        <v>0.24105258697032278</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>0.24105258697032278</v>
+      </c>
+      <c r="DI9" t="n">
+        <v>0.24105258697032278</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>0.20661650311741953</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>0.24105258697032278</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -50118,11 +54303,38 @@
       </c>
       <c r="DB10" t="n">
         <v>0.4080892409102211</v>
+      </c>
+      <c r="DC10" t="n">
+        <v>0.3206415464294594</v>
+      </c>
+      <c r="DD10" t="n">
+        <v>0.26234308344228496</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>0.37894000941663386</v>
+      </c>
+      <c r="DF10" t="n">
+        <v>0.4080892409102211</v>
+      </c>
+      <c r="DG10" t="n">
+        <v>0.4080892409102211</v>
+      </c>
+      <c r="DH10" t="n">
+        <v>0.37894000941663386</v>
+      </c>
+      <c r="DI10" t="n">
+        <v>0.37894000941663386</v>
+      </c>
+      <c r="DJ10" t="n">
+        <v>0.2914923149358722</v>
+      </c>
+      <c r="DK10" t="n">
+        <v>0.26234308344228496</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="B11" t="n">
         <v>0.013598639774259447</v>
@@ -50438,11 +54650,38 @@
       </c>
       <c r="DB11" t="n">
         <v>0.23117687616241062</v>
+      </c>
+      <c r="DC11" t="n">
+        <v>0.1767823170653728</v>
+      </c>
+      <c r="DD11" t="n">
+        <v>0.1767823170653728</v>
+      </c>
+      <c r="DE11" t="n">
+        <v>0.19038095683963227</v>
+      </c>
+      <c r="DF11" t="n">
+        <v>0.1767823170653728</v>
+      </c>
+      <c r="DG11" t="n">
+        <v>0.19038095683963227</v>
+      </c>
+      <c r="DH11" t="n">
+        <v>0.2039795966138917</v>
+      </c>
+      <c r="DI11" t="n">
+        <v>0.2039795966138917</v>
+      </c>
+      <c r="DJ11" t="n">
+        <v>0.16318367729111338</v>
+      </c>
+      <c r="DK11" t="n">
+        <v>0.14958503751685392</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -50758,11 +54997,38 @@
       </c>
       <c r="DB12" t="n">
         <v>1.137813260553613</v>
+      </c>
+      <c r="DC12" t="n">
+        <v>0.8752409696566255</v>
+      </c>
+      <c r="DD12" t="n">
+        <v>0.8752409696566255</v>
+      </c>
+      <c r="DE12" t="n">
+        <v>1.137813260553613</v>
+      </c>
+      <c r="DF12" t="n">
+        <v>1.0502891635879505</v>
+      </c>
+      <c r="DG12" t="n">
+        <v>1.137813260553613</v>
+      </c>
+      <c r="DH12" t="n">
+        <v>1.137813260553613</v>
+      </c>
+      <c r="DI12" t="n">
+        <v>1.0502891635879505</v>
+      </c>
+      <c r="DJ12" t="n">
+        <v>0.8752409696566255</v>
+      </c>
+      <c r="DK12" t="n">
+        <v>0.8752409696566255</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -51078,11 +55344,38 @@
       </c>
       <c r="DB13" t="n">
         <v>0.161027309791003</v>
+      </c>
+      <c r="DC13" t="n">
+        <v>0.11711077075709309</v>
+      </c>
+      <c r="DD13" t="n">
+        <v>0.11711077075709309</v>
+      </c>
+      <c r="DE13" t="n">
+        <v>0.14638846344636636</v>
+      </c>
+      <c r="DF13" t="n">
+        <v>0.17566615613563963</v>
+      </c>
+      <c r="DG13" t="n">
+        <v>0.161027309791003</v>
+      </c>
+      <c r="DH13" t="n">
+        <v>0.161027309791003</v>
+      </c>
+      <c r="DI13" t="n">
+        <v>0.13174961710172972</v>
+      </c>
+      <c r="DJ13" t="n">
+        <v>0.11711077075709309</v>
+      </c>
+      <c r="DK13" t="n">
+        <v>0.13174961710172972</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="B14" t="n">
         <v>0.01926156970942499</v>
@@ -51398,11 +55691,38 @@
       </c>
       <c r="DB14" t="n">
         <v>0.23113883651309988</v>
+      </c>
+      <c r="DC14" t="n">
+        <v>0.15409255767539992</v>
+      </c>
+      <c r="DD14" t="n">
+        <v>0.13483098796597492</v>
+      </c>
+      <c r="DE14" t="n">
+        <v>0.19261569709424992</v>
+      </c>
+      <c r="DF14" t="n">
+        <v>0.19261569709424992</v>
+      </c>
+      <c r="DG14" t="n">
+        <v>0.19261569709424992</v>
+      </c>
+      <c r="DH14" t="n">
+        <v>0.19261569709424992</v>
+      </c>
+      <c r="DI14" t="n">
+        <v>0.19261569709424992</v>
+      </c>
+      <c r="DJ14" t="n">
+        <v>0.17335412738482492</v>
+      </c>
+      <c r="DK14" t="n">
+        <v>0.15409255767539992</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -51718,11 +56038,38 @@
       </c>
       <c r="DB15" t="n">
         <v>0.44790660162725376</v>
+      </c>
+      <c r="DC15" t="n">
+        <v>0.33003644330429227</v>
+      </c>
+      <c r="DD15" t="n">
+        <v>0.30646241163969995</v>
+      </c>
+      <c r="DE15" t="n">
+        <v>0.35361047496888454</v>
+      </c>
+      <c r="DF15" t="n">
+        <v>0.30646241163969995</v>
+      </c>
+      <c r="DG15" t="n">
+        <v>0.33003644330429227</v>
+      </c>
+      <c r="DH15" t="n">
+        <v>0.33003644330429227</v>
+      </c>
+      <c r="DI15" t="n">
+        <v>0.35361047496888454</v>
+      </c>
+      <c r="DJ15" t="n">
+        <v>0.25931434831051536</v>
+      </c>
+      <c r="DK15" t="n">
+        <v>0.25931434831051536</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B16" t="n">
         <v>0.009476494553032679</v>
@@ -52038,11 +56385,38 @@
       </c>
       <c r="DB16" t="n">
         <v>0.16110040740155554</v>
+      </c>
+      <c r="DC16" t="n">
+        <v>0.14214741829549019</v>
+      </c>
+      <c r="DD16" t="n">
+        <v>0.15162391284852286</v>
+      </c>
+      <c r="DE16" t="n">
+        <v>0.17057690195458822</v>
+      </c>
+      <c r="DF16" t="n">
+        <v>0.16110040740155554</v>
+      </c>
+      <c r="DG16" t="n">
+        <v>0.16110040740155554</v>
+      </c>
+      <c r="DH16" t="n">
+        <v>0.15162391284852286</v>
+      </c>
+      <c r="DI16" t="n">
+        <v>0.16110040740155554</v>
+      </c>
+      <c r="DJ16" t="n">
+        <v>0.14214741829549019</v>
+      </c>
+      <c r="DK16" t="n">
+        <v>0.15162391284852286</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -52358,11 +56732,38 @@
       </c>
       <c r="DB17" t="n">
         <v>0.5239700823076995</v>
+      </c>
+      <c r="DC17" t="n">
+        <v>0.44123796404858906</v>
+      </c>
+      <c r="DD17" t="n">
+        <v>0.44123796404858906</v>
+      </c>
+      <c r="DE17" t="n">
+        <v>0.4688153368016259</v>
+      </c>
+      <c r="DF17" t="n">
+        <v>0.4688153368016259</v>
+      </c>
+      <c r="DG17" t="n">
+        <v>0.4688153368016259</v>
+      </c>
+      <c r="DH17" t="n">
+        <v>0.44123796404858906</v>
+      </c>
+      <c r="DI17" t="n">
+        <v>0.4688153368016259</v>
+      </c>
+      <c r="DJ17" t="n">
+        <v>0.3860832185425154</v>
+      </c>
+      <c r="DK17" t="n">
+        <v>0.4136605912955522</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B18" t="n">
         <v>0.006889931282503724</v>
@@ -52678,11 +57079,38 @@
       </c>
       <c r="DB18" t="n">
         <v>0.1515784882150819</v>
+      </c>
+      <c r="DC18" t="n">
+        <v>0.11712883180256331</v>
+      </c>
+      <c r="DD18" t="n">
+        <v>0.11023890052005958</v>
+      </c>
+      <c r="DE18" t="n">
+        <v>0.12401876308506703</v>
+      </c>
+      <c r="DF18" t="n">
+        <v>0.12401876308506703</v>
+      </c>
+      <c r="DG18" t="n">
+        <v>0.13090869436757074</v>
+      </c>
+      <c r="DH18" t="n">
+        <v>0.13090869436757074</v>
+      </c>
+      <c r="DI18" t="n">
+        <v>0.13779862565007447</v>
+      </c>
+      <c r="DJ18" t="n">
+        <v>0.11712883180256331</v>
+      </c>
+      <c r="DK18" t="n">
+        <v>0.10334896923755585</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -52998,11 +57426,38 @@
       </c>
       <c r="DB19" t="n">
         <v>0.8320839584722078</v>
+      </c>
+      <c r="DC19" t="n">
+        <v>0.6400645834401598</v>
+      </c>
+      <c r="DD19" t="n">
+        <v>0.5760581250961438</v>
+      </c>
+      <c r="DE19" t="n">
+        <v>0.7680775001281919</v>
+      </c>
+      <c r="DF19" t="n">
+        <v>0.8320839584722078</v>
+      </c>
+      <c r="DG19" t="n">
+        <v>0.8320839584722078</v>
+      </c>
+      <c r="DH19" t="n">
+        <v>0.8320839584722078</v>
+      </c>
+      <c r="DI19" t="n">
+        <v>0.7680775001281919</v>
+      </c>
+      <c r="DJ19" t="n">
+        <v>0.7040710417841758</v>
+      </c>
+      <c r="DK19" t="n">
+        <v>0.6400645834401598</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B20" t="n">
         <v>-0.10197931527535918</v>
@@ -53318,11 +57773,38 @@
       </c>
       <c r="DB20" t="n">
         <v>1.8356276749564653</v>
+      </c>
+      <c r="DC20" t="n">
+        <v>1.2237517833043101</v>
+      </c>
+      <c r="DD20" t="n">
+        <v>1.2237517833043101</v>
+      </c>
+      <c r="DE20" t="n">
+        <v>1.5296897291303877</v>
+      </c>
+      <c r="DF20" t="n">
+        <v>1.733648359681106</v>
+      </c>
+      <c r="DG20" t="n">
+        <v>1.733648359681106</v>
+      </c>
+      <c r="DH20" t="n">
+        <v>1.8356276749564653</v>
+      </c>
+      <c r="DI20" t="n">
+        <v>1.8356276749564653</v>
+      </c>
+      <c r="DJ20" t="n">
+        <v>1.3257310985796693</v>
+      </c>
+      <c r="DK20" t="n">
+        <v>1.3257310985796693</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="B21" t="n">
         <v>0.00976628149959203</v>
@@ -53638,11 +58120,38 @@
       </c>
       <c r="DB21" t="n">
         <v>0.16602678549306452</v>
+      </c>
+      <c r="DC21" t="n">
+        <v>0.13672794099428842</v>
+      </c>
+      <c r="DD21" t="n">
+        <v>0.1562605039934725</v>
+      </c>
+      <c r="DE21" t="n">
+        <v>0.1562605039934725</v>
+      </c>
+      <c r="DF21" t="n">
+        <v>0.1562605039934725</v>
+      </c>
+      <c r="DG21" t="n">
+        <v>0.16602678549306452</v>
+      </c>
+      <c r="DH21" t="n">
+        <v>0.1562605039934725</v>
+      </c>
+      <c r="DI21" t="n">
+        <v>0.16602678549306452</v>
+      </c>
+      <c r="DJ21" t="n">
+        <v>0.14649422249388047</v>
+      </c>
+      <c r="DK21" t="n">
+        <v>0.17579306699265657</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B22" t="n">
         <v>0.006608596488497609</v>
@@ -53958,11 +58467,38 @@
       </c>
       <c r="DB22" t="n">
         <v>0.08591175435046892</v>
+      </c>
+      <c r="DC22" t="n">
+        <v>0.06608596488497609</v>
+      </c>
+      <c r="DD22" t="n">
+        <v>0.059477368396478485</v>
+      </c>
+      <c r="DE22" t="n">
+        <v>0.06608596488497609</v>
+      </c>
+      <c r="DF22" t="n">
+        <v>0.07930315786197131</v>
+      </c>
+      <c r="DG22" t="n">
+        <v>0.07930315786197131</v>
+      </c>
+      <c r="DH22" t="n">
+        <v>0.07930315786197131</v>
+      </c>
+      <c r="DI22" t="n">
+        <v>0.07930315786197131</v>
+      </c>
+      <c r="DJ22" t="n">
+        <v>0.07930315786197131</v>
+      </c>
+      <c r="DK22" t="n">
+        <v>0.0726945613734737</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B23" t="n">
         <v>0.0</v>
@@ -54278,11 +58814,38 @@
       </c>
       <c r="DB23" t="n">
         <v>0.03125399486981512</v>
+      </c>
+      <c r="DC23" t="n">
+        <v>0.025738584010435984</v>
+      </c>
+      <c r="DD23" t="n">
+        <v>0.025738584010435984</v>
+      </c>
+      <c r="DE23" t="n">
+        <v>0.025738584010435984</v>
+      </c>
+      <c r="DF23" t="n">
+        <v>0.025738584010435984</v>
+      </c>
+      <c r="DG23" t="n">
+        <v>0.025738584010435984</v>
+      </c>
+      <c r="DH23" t="n">
+        <v>0.02941552458335541</v>
+      </c>
+      <c r="DI23" t="n">
+        <v>0.0275770542968957</v>
+      </c>
+      <c r="DJ23" t="n">
+        <v>0.023900113723976272</v>
+      </c>
+      <c r="DK23" t="n">
+        <v>0.0275770542968957</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B24" t="n">
         <v>0.06427623169552077</v>
@@ -54598,11 +59161,38 @@
       </c>
       <c r="DB24" t="n">
         <v>0.83559101204177</v>
+      </c>
+      <c r="DC24" t="n">
+        <v>0.5784860852596869</v>
+      </c>
+      <c r="DD24" t="n">
+        <v>0.83559101204177</v>
+      </c>
+      <c r="DE24" t="n">
+        <v>0.83559101204177</v>
+      </c>
+      <c r="DF24" t="n">
+        <v>0.83559101204177</v>
+      </c>
+      <c r="DG24" t="n">
+        <v>0.83559101204177</v>
+      </c>
+      <c r="DH24" t="n">
+        <v>0.83559101204177</v>
+      </c>
+      <c r="DI24" t="n">
+        <v>0.9641434754328115</v>
+      </c>
+      <c r="DJ24" t="n">
+        <v>0.7713147803462492</v>
+      </c>
+      <c r="DK24" t="n">
+        <v>0.9641434754328115</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B25" t="n">
         <v>0.04210519964838624</v>
@@ -54918,11 +59508,38 @@
       </c>
       <c r="DB25" t="n">
         <v>0.5052623957806349</v>
+      </c>
+      <c r="DC25" t="n">
+        <v>0.42105199648386243</v>
+      </c>
+      <c r="DD25" t="n">
+        <v>0.4631571961322487</v>
+      </c>
+      <c r="DE25" t="n">
+        <v>0.5052623957806349</v>
+      </c>
+      <c r="DF25" t="n">
+        <v>0.5052623957806349</v>
+      </c>
+      <c r="DG25" t="n">
+        <v>0.5052623957806349</v>
+      </c>
+      <c r="DH25" t="n">
+        <v>0.4631571961322487</v>
+      </c>
+      <c r="DI25" t="n">
+        <v>0.5473675954290211</v>
+      </c>
+      <c r="DJ25" t="n">
+        <v>0.42105199648386243</v>
+      </c>
+      <c r="DK25" t="n">
+        <v>0.4631571961322487</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B26" t="n">
         <v>0.0</v>
@@ -55238,11 +59855,38 @@
       </c>
       <c r="DB26" t="n">
         <v>0.09274295993786658</v>
+      </c>
+      <c r="DC26" t="n">
+        <v>0.08037723194615103</v>
+      </c>
+      <c r="DD26" t="n">
+        <v>0.08656009594200881</v>
+      </c>
+      <c r="DE26" t="n">
+        <v>0.09274295993786658</v>
+      </c>
+      <c r="DF26" t="n">
+        <v>0.08656009594200881</v>
+      </c>
+      <c r="DG26" t="n">
+        <v>0.08656009594200881</v>
+      </c>
+      <c r="DH26" t="n">
+        <v>0.08656009594200881</v>
+      </c>
+      <c r="DI26" t="n">
+        <v>0.09274295993786658</v>
+      </c>
+      <c r="DJ26" t="n">
+        <v>0.07419436795029326</v>
+      </c>
+      <c r="DK26" t="n">
+        <v>0.07419436795029326</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B27" t="n">
         <v>-0.3220038456272437</v>
@@ -55558,11 +60202,38 @@
       </c>
       <c r="DB27" t="n">
         <v>5.796069221290387</v>
+      </c>
+      <c r="DC27" t="n">
+        <v>3.8640461475269245</v>
+      </c>
+      <c r="DD27" t="n">
+        <v>3.5420423018996807</v>
+      </c>
+      <c r="DE27" t="n">
+        <v>5.152061530035899</v>
+      </c>
+      <c r="DF27" t="n">
+        <v>5.474065375663143</v>
+      </c>
+      <c r="DG27" t="n">
+        <v>5.474065375663143</v>
+      </c>
+      <c r="DH27" t="n">
+        <v>5.474065375663143</v>
+      </c>
+      <c r="DI27" t="n">
+        <v>5.474065375663143</v>
+      </c>
+      <c r="DJ27" t="n">
+        <v>4.186049993154168</v>
+      </c>
+      <c r="DK27" t="n">
+        <v>3.8640461475269245</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B28" t="n">
         <v>0.0</v>
@@ -55878,11 +60549,38 @@
       </c>
       <c r="DB28" t="n">
         <v>0.07252020191422759</v>
+      </c>
+      <c r="DC28" t="n">
+        <v>0.05180014422444827</v>
+      </c>
+      <c r="DD28" t="n">
+        <v>0.04144011537955862</v>
+      </c>
+      <c r="DE28" t="n">
+        <v>0.06216017306933793</v>
+      </c>
+      <c r="DF28" t="n">
+        <v>0.06734018749178276</v>
+      </c>
+      <c r="DG28" t="n">
+        <v>0.06734018749178276</v>
+      </c>
+      <c r="DH28" t="n">
+        <v>0.06734018749178276</v>
+      </c>
+      <c r="DI28" t="n">
+        <v>0.06216017306933793</v>
+      </c>
+      <c r="DJ28" t="n">
+        <v>0.046620129802003446</v>
+      </c>
+      <c r="DK28" t="n">
+        <v>0.036260100957113794</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B29" t="n">
         <v>-0.20071633942799022</v>
@@ -56198,6 +60896,33 @@
       </c>
       <c r="DB29" t="n">
         <v>16.319384823383736</v>
+      </c>
+      <c r="DC29" t="n">
+        <v>11.840549777692882</v>
+      </c>
+      <c r="DD29" t="n">
+        <v>11.610701934772337</v>
+      </c>
+      <c r="DE29" t="n">
+        <v>14.673368449103013</v>
+      </c>
+      <c r="DF29" t="n">
+        <v>15.103862738226535</v>
+      </c>
+      <c r="DG29" t="n">
+        <v>15.321068567254178</v>
+      </c>
+      <c r="DH29" t="n">
+        <v>15.340925651168973</v>
+      </c>
+      <c r="DI29" t="n">
+        <v>15.44665663293728</v>
+      </c>
+      <c r="DJ29" t="n">
+        <v>12.23356535865918</v>
+      </c>
+      <c r="DK29" t="n">
+        <v>12.112159716390408</v>
       </c>
     </row>
   </sheetData>
@@ -56530,10 +61255,37 @@
       <c r="DB1" t="s">
         <v>104</v>
       </c>
+      <c r="DC1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B2" t="n">
         <v>2.0</v>
@@ -56849,11 +61601,38 @@
       </c>
       <c r="DB2" t="n">
         <v>-51.0</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>-55.0</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>-69.0</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>-43.0</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>-42.0</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>-44.0</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>-45.0</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>-48.0</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>-51.0</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>-66.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B3" t="n">
         <v>5.0</v>
@@ -57169,11 +61948,38 @@
       </c>
       <c r="DB3" t="n">
         <v>-56.0</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>-63.0</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>-69.0</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>-53.0</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>-51.0</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>-50.0</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>-52.0</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>-51.0</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>-54.0</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>-65.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B4" t="n">
         <v>9.0</v>
@@ -57489,11 +62295,38 @@
       </c>
       <c r="DB4" t="n">
         <v>-41.0</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>-44.0</v>
+      </c>
+      <c r="DD4" t="n">
+        <v>-55.0</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>-37.0</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>-29.0</v>
+      </c>
+      <c r="DG4" t="n">
+        <v>-32.0</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>-30.0</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>-27.0</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>-29.0</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>-45.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B5" t="n">
         <v>11.0</v>
@@ -57809,11 +62642,38 @@
       </c>
       <c r="DB5" t="n">
         <v>-72.0</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>-76.0</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>-79.0</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>-72.0</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>-70.0</v>
+      </c>
+      <c r="DG5" t="n">
+        <v>-65.0</v>
+      </c>
+      <c r="DH5" t="n">
+        <v>-65.0</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>-61.0</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>-67.0</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>-75.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="B6" t="n">
         <v>-1.0</v>
@@ -58129,11 +62989,38 @@
       </c>
       <c r="DB6" t="n">
         <v>-54.0</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>-57.0</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>-67.0</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>-49.0</v>
+      </c>
+      <c r="DF6" t="n">
+        <v>-49.0</v>
+      </c>
+      <c r="DG6" t="n">
+        <v>-50.0</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>-52.0</v>
+      </c>
+      <c r="DI6" t="n">
+        <v>-51.0</v>
+      </c>
+      <c r="DJ6" t="n">
+        <v>-56.0</v>
+      </c>
+      <c r="DK6" t="n">
+        <v>-67.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B7" t="n">
         <v>5.0</v>
@@ -58449,11 +63336,38 @@
       </c>
       <c r="DB7" t="n">
         <v>-47.0</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>-50.0</v>
+      </c>
+      <c r="DD7" t="n">
+        <v>-60.0</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>-45.0</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>-46.0</v>
+      </c>
+      <c r="DG7" t="n">
+        <v>-44.0</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>-45.0</v>
+      </c>
+      <c r="DI7" t="n">
+        <v>-42.0</v>
+      </c>
+      <c r="DJ7" t="n">
+        <v>-45.0</v>
+      </c>
+      <c r="DK7" t="n">
+        <v>-56.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B8" t="n">
         <v>-2.0</v>
@@ -58769,11 +63683,38 @@
       </c>
       <c r="DB8" t="n">
         <v>-65.0</v>
+      </c>
+      <c r="DC8" t="n">
+        <v>-70.0</v>
+      </c>
+      <c r="DD8" t="n">
+        <v>-75.0</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>-61.0</v>
+      </c>
+      <c r="DF8" t="n">
+        <v>-59.0</v>
+      </c>
+      <c r="DG8" t="n">
+        <v>-59.0</v>
+      </c>
+      <c r="DH8" t="n">
+        <v>-58.0</v>
+      </c>
+      <c r="DI8" t="n">
+        <v>-58.0</v>
+      </c>
+      <c r="DJ8" t="n">
+        <v>-64.0</v>
+      </c>
+      <c r="DK8" t="n">
+        <v>-72.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B9" t="n">
         <v>10.0</v>
@@ -59089,11 +64030,38 @@
       </c>
       <c r="DB9" t="n">
         <v>-47.0</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>-49.0</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>-56.0</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>-46.0</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>-47.0</v>
+      </c>
+      <c r="DG9" t="n">
+        <v>-46.0</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>-45.0</v>
+      </c>
+      <c r="DI9" t="n">
+        <v>-41.0</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>-42.0</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>-50.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="B10" t="n">
         <v>-1.0</v>
@@ -59409,11 +64377,38 @@
       </c>
       <c r="DB10" t="n">
         <v>-48.0</v>
+      </c>
+      <c r="DC10" t="n">
+        <v>-54.0</v>
+      </c>
+      <c r="DD10" t="n">
+        <v>-65.0</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>-44.0</v>
+      </c>
+      <c r="DF10" t="n">
+        <v>-44.0</v>
+      </c>
+      <c r="DG10" t="n">
+        <v>-43.0</v>
+      </c>
+      <c r="DH10" t="n">
+        <v>-43.0</v>
+      </c>
+      <c r="DI10" t="n">
+        <v>-42.0</v>
+      </c>
+      <c r="DJ10" t="n">
+        <v>-53.0</v>
+      </c>
+      <c r="DK10" t="n">
+        <v>-66.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B11" t="n">
         <v>3.0</v>
@@ -59729,11 +64724,38 @@
       </c>
       <c r="DB11" t="n">
         <v>-41.0</v>
+      </c>
+      <c r="DC11" t="n">
+        <v>-46.0</v>
+      </c>
+      <c r="DD11" t="n">
+        <v>-56.0</v>
+      </c>
+      <c r="DE11" t="n">
+        <v>-39.0</v>
+      </c>
+      <c r="DF11" t="n">
+        <v>-37.0</v>
+      </c>
+      <c r="DG11" t="n">
+        <v>-38.0</v>
+      </c>
+      <c r="DH11" t="n">
+        <v>-37.0</v>
+      </c>
+      <c r="DI11" t="n">
+        <v>-35.0</v>
+      </c>
+      <c r="DJ11" t="n">
+        <v>-40.0</v>
+      </c>
+      <c r="DK11" t="n">
+        <v>-50.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="B12" t="n">
         <v>-3.0</v>
@@ -60049,11 +65071,38 @@
       </c>
       <c r="DB12" t="n">
         <v>-50.0</v>
+      </c>
+      <c r="DC12" t="n">
+        <v>-52.0</v>
+      </c>
+      <c r="DD12" t="n">
+        <v>-60.0</v>
+      </c>
+      <c r="DE12" t="n">
+        <v>-43.0</v>
+      </c>
+      <c r="DF12" t="n">
+        <v>-41.0</v>
+      </c>
+      <c r="DG12" t="n">
+        <v>-42.0</v>
+      </c>
+      <c r="DH12" t="n">
+        <v>-43.0</v>
+      </c>
+      <c r="DI12" t="n">
+        <v>-39.0</v>
+      </c>
+      <c r="DJ12" t="n">
+        <v>-45.0</v>
+      </c>
+      <c r="DK12" t="n">
+        <v>-53.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B13" t="n">
         <v>7.0</v>
@@ -60369,11 +65418,38 @@
       </c>
       <c r="DB13" t="n">
         <v>-35.0</v>
+      </c>
+      <c r="DC13" t="n">
+        <v>-43.0</v>
+      </c>
+      <c r="DD13" t="n">
+        <v>-53.0</v>
+      </c>
+      <c r="DE13" t="n">
+        <v>-35.0</v>
+      </c>
+      <c r="DF13" t="n">
+        <v>-37.0</v>
+      </c>
+      <c r="DG13" t="n">
+        <v>-35.0</v>
+      </c>
+      <c r="DH13" t="n">
+        <v>-34.0</v>
+      </c>
+      <c r="DI13" t="n">
+        <v>-31.0</v>
+      </c>
+      <c r="DJ13" t="n">
+        <v>-41.0</v>
+      </c>
+      <c r="DK13" t="n">
+        <v>-52.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="B14" t="n">
         <v>6.0</v>
@@ -60689,11 +65765,38 @@
       </c>
       <c r="DB14" t="n">
         <v>-22.0</v>
+      </c>
+      <c r="DC14" t="n">
+        <v>-26.0</v>
+      </c>
+      <c r="DD14" t="n">
+        <v>-39.0</v>
+      </c>
+      <c r="DE14" t="n">
+        <v>-24.0</v>
+      </c>
+      <c r="DF14" t="n">
+        <v>-31.0</v>
+      </c>
+      <c r="DG14" t="n">
+        <v>-26.0</v>
+      </c>
+      <c r="DH14" t="n">
+        <v>-23.0</v>
+      </c>
+      <c r="DI14" t="n">
+        <v>-13.0</v>
+      </c>
+      <c r="DJ14" t="n">
+        <v>-16.0</v>
+      </c>
+      <c r="DK14" t="n">
+        <v>-30.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -61009,11 +66112,38 @@
       </c>
       <c r="DB15" t="n">
         <v>-28.0</v>
+      </c>
+      <c r="DC15" t="n">
+        <v>-31.0</v>
+      </c>
+      <c r="DD15" t="n">
+        <v>-41.0</v>
+      </c>
+      <c r="DE15" t="n">
+        <v>-26.0</v>
+      </c>
+      <c r="DF15" t="n">
+        <v>-27.0</v>
+      </c>
+      <c r="DG15" t="n">
+        <v>-25.0</v>
+      </c>
+      <c r="DH15" t="n">
+        <v>-22.0</v>
+      </c>
+      <c r="DI15" t="n">
+        <v>-21.0</v>
+      </c>
+      <c r="DJ15" t="n">
+        <v>-29.0</v>
+      </c>
+      <c r="DK15" t="n">
+        <v>-40.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -61329,11 +66459,38 @@
       </c>
       <c r="DB16" t="n">
         <v>-48.0</v>
+      </c>
+      <c r="DC16" t="n">
+        <v>-54.0</v>
+      </c>
+      <c r="DD16" t="n">
+        <v>-61.0</v>
+      </c>
+      <c r="DE16" t="n">
+        <v>-41.0</v>
+      </c>
+      <c r="DF16" t="n">
+        <v>-37.0</v>
+      </c>
+      <c r="DG16" t="n">
+        <v>-37.0</v>
+      </c>
+      <c r="DH16" t="n">
+        <v>-38.0</v>
+      </c>
+      <c r="DI16" t="n">
+        <v>-38.0</v>
+      </c>
+      <c r="DJ16" t="n">
+        <v>-40.0</v>
+      </c>
+      <c r="DK16" t="n">
+        <v>-51.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B17" t="n">
         <v>2.0</v>
@@ -61649,11 +66806,38 @@
       </c>
       <c r="DB17" t="n">
         <v>-62.0</v>
+      </c>
+      <c r="DC17" t="n">
+        <v>-67.0</v>
+      </c>
+      <c r="DD17" t="n">
+        <v>-76.0</v>
+      </c>
+      <c r="DE17" t="n">
+        <v>-68.0</v>
+      </c>
+      <c r="DF17" t="n">
+        <v>-66.0</v>
+      </c>
+      <c r="DG17" t="n">
+        <v>-65.0</v>
+      </c>
+      <c r="DH17" t="n">
+        <v>-61.0</v>
+      </c>
+      <c r="DI17" t="n">
+        <v>-61.0</v>
+      </c>
+      <c r="DJ17" t="n">
+        <v>-64.0</v>
+      </c>
+      <c r="DK17" t="n">
+        <v>-75.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="B18" t="n">
         <v>5.0</v>
@@ -61969,11 +67153,38 @@
       </c>
       <c r="DB18" t="n">
         <v>-63.0</v>
+      </c>
+      <c r="DC18" t="n">
+        <v>-64.0</v>
+      </c>
+      <c r="DD18" t="n">
+        <v>-72.0</v>
+      </c>
+      <c r="DE18" t="n">
+        <v>-57.0</v>
+      </c>
+      <c r="DF18" t="n">
+        <v>-56.0</v>
+      </c>
+      <c r="DG18" t="n">
+        <v>-56.0</v>
+      </c>
+      <c r="DH18" t="n">
+        <v>-57.0</v>
+      </c>
+      <c r="DI18" t="n">
+        <v>-54.0</v>
+      </c>
+      <c r="DJ18" t="n">
+        <v>-58.0</v>
+      </c>
+      <c r="DK18" t="n">
+        <v>-68.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B19" t="n">
         <v>-4.0</v>
@@ -62289,11 +67500,38 @@
       </c>
       <c r="DB19" t="n">
         <v>-67.0</v>
+      </c>
+      <c r="DC19" t="n">
+        <v>-65.0</v>
+      </c>
+      <c r="DD19" t="n">
+        <v>-75.0</v>
+      </c>
+      <c r="DE19" t="n">
+        <v>-57.0</v>
+      </c>
+      <c r="DF19" t="n">
+        <v>-59.0</v>
+      </c>
+      <c r="DG19" t="n">
+        <v>-58.0</v>
+      </c>
+      <c r="DH19" t="n">
+        <v>-58.0</v>
+      </c>
+      <c r="DI19" t="n">
+        <v>-58.0</v>
+      </c>
+      <c r="DJ19" t="n">
+        <v>-62.0</v>
+      </c>
+      <c r="DK19" t="n">
+        <v>-69.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="B20" t="n">
         <v>5.0</v>
@@ -62609,11 +67847,38 @@
       </c>
       <c r="DB20" t="n">
         <v>-32.0</v>
+      </c>
+      <c r="DC20" t="n">
+        <v>-36.0</v>
+      </c>
+      <c r="DD20" t="n">
+        <v>-49.0</v>
+      </c>
+      <c r="DE20" t="n">
+        <v>-34.0</v>
+      </c>
+      <c r="DF20" t="n">
+        <v>-37.0</v>
+      </c>
+      <c r="DG20" t="n">
+        <v>-33.0</v>
+      </c>
+      <c r="DH20" t="n">
+        <v>-32.0</v>
+      </c>
+      <c r="DI20" t="n">
+        <v>-27.0</v>
+      </c>
+      <c r="DJ20" t="n">
+        <v>-31.0</v>
+      </c>
+      <c r="DK20" t="n">
+        <v>-43.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B21" t="n">
         <v>7.0</v>
@@ -62929,11 +68194,38 @@
       </c>
       <c r="DB21" t="n">
         <v>-51.0</v>
+      </c>
+      <c r="DC21" t="n">
+        <v>-56.0</v>
+      </c>
+      <c r="DD21" t="n">
+        <v>-65.0</v>
+      </c>
+      <c r="DE21" t="n">
+        <v>-52.0</v>
+      </c>
+      <c r="DF21" t="n">
+        <v>-53.0</v>
+      </c>
+      <c r="DG21" t="n">
+        <v>-52.0</v>
+      </c>
+      <c r="DH21" t="n">
+        <v>-53.0</v>
+      </c>
+      <c r="DI21" t="n">
+        <v>-45.0</v>
+      </c>
+      <c r="DJ21" t="n">
+        <v>-50.0</v>
+      </c>
+      <c r="DK21" t="n">
+        <v>-62.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="B22" t="n">
         <v>5.0</v>
@@ -63249,11 +68541,38 @@
       </c>
       <c r="DB22" t="n">
         <v>-55.0</v>
+      </c>
+      <c r="DC22" t="n">
+        <v>-58.0</v>
+      </c>
+      <c r="DD22" t="n">
+        <v>-69.0</v>
+      </c>
+      <c r="DE22" t="n">
+        <v>-52.0</v>
+      </c>
+      <c r="DF22" t="n">
+        <v>-53.0</v>
+      </c>
+      <c r="DG22" t="n">
+        <v>-54.0</v>
+      </c>
+      <c r="DH22" t="n">
+        <v>-54.0</v>
+      </c>
+      <c r="DI22" t="n">
+        <v>-54.0</v>
+      </c>
+      <c r="DJ22" t="n">
+        <v>-57.0</v>
+      </c>
+      <c r="DK22" t="n">
+        <v>-70.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B23" t="n">
         <v>7.0</v>
@@ -63569,11 +68888,38 @@
       </c>
       <c r="DB23" t="n">
         <v>-28.0</v>
+      </c>
+      <c r="DC23" t="n">
+        <v>-35.0</v>
+      </c>
+      <c r="DD23" t="n">
+        <v>-48.0</v>
+      </c>
+      <c r="DE23" t="n">
+        <v>-25.0</v>
+      </c>
+      <c r="DF23" t="n">
+        <v>-28.0</v>
+      </c>
+      <c r="DG23" t="n">
+        <v>-30.0</v>
+      </c>
+      <c r="DH23" t="n">
+        <v>-30.0</v>
+      </c>
+      <c r="DI23" t="n">
+        <v>-23.0</v>
+      </c>
+      <c r="DJ23" t="n">
+        <v>-41.0</v>
+      </c>
+      <c r="DK23" t="n">
+        <v>-52.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B24" t="n">
         <v>9.0</v>
@@ -63889,11 +69235,38 @@
       </c>
       <c r="DB24" t="n">
         <v>-43.0</v>
+      </c>
+      <c r="DC24" t="n">
+        <v>-47.0</v>
+      </c>
+      <c r="DD24" t="n">
+        <v>-65.0</v>
+      </c>
+      <c r="DE24" t="n">
+        <v>-38.0</v>
+      </c>
+      <c r="DF24" t="n">
+        <v>-37.0</v>
+      </c>
+      <c r="DG24" t="n">
+        <v>-37.0</v>
+      </c>
+      <c r="DH24" t="n">
+        <v>-38.0</v>
+      </c>
+      <c r="DI24" t="n">
+        <v>-39.0</v>
+      </c>
+      <c r="DJ24" t="n">
+        <v>-45.0</v>
+      </c>
+      <c r="DK24" t="n">
+        <v>-65.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B25" t="n">
         <v>4.0</v>
@@ -64209,11 +69582,38 @@
       </c>
       <c r="DB25" t="n">
         <v>-33.0</v>
+      </c>
+      <c r="DC25" t="n">
+        <v>-35.0</v>
+      </c>
+      <c r="DD25" t="n">
+        <v>-58.0</v>
+      </c>
+      <c r="DE25" t="n">
+        <v>-33.0</v>
+      </c>
+      <c r="DF25" t="n">
+        <v>-35.0</v>
+      </c>
+      <c r="DG25" t="n">
+        <v>-33.0</v>
+      </c>
+      <c r="DH25" t="n">
+        <v>-33.0</v>
+      </c>
+      <c r="DI25" t="n">
+        <v>-36.0</v>
+      </c>
+      <c r="DJ25" t="n">
+        <v>-32.0</v>
+      </c>
+      <c r="DK25" t="n">
+        <v>-54.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B26" t="n">
         <v>1.0</v>
@@ -64529,11 +69929,38 @@
       </c>
       <c r="DB26" t="n">
         <v>-34.0</v>
+      </c>
+      <c r="DC26" t="n">
+        <v>-35.0</v>
+      </c>
+      <c r="DD26" t="n">
+        <v>-48.0</v>
+      </c>
+      <c r="DE26" t="n">
+        <v>-39.0</v>
+      </c>
+      <c r="DF26" t="n">
+        <v>-36.0</v>
+      </c>
+      <c r="DG26" t="n">
+        <v>-33.0</v>
+      </c>
+      <c r="DH26" t="n">
+        <v>-33.0</v>
+      </c>
+      <c r="DI26" t="n">
+        <v>-35.0</v>
+      </c>
+      <c r="DJ26" t="n">
+        <v>-27.0</v>
+      </c>
+      <c r="DK26" t="n">
+        <v>-42.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B27" t="n">
         <v>5.0</v>
@@ -64849,11 +70276,38 @@
       </c>
       <c r="DB27" t="n">
         <v>-50.0</v>
+      </c>
+      <c r="DC27" t="n">
+        <v>-55.0</v>
+      </c>
+      <c r="DD27" t="n">
+        <v>-69.0</v>
+      </c>
+      <c r="DE27" t="n">
+        <v>-50.0</v>
+      </c>
+      <c r="DF27" t="n">
+        <v>-47.0</v>
+      </c>
+      <c r="DG27" t="n">
+        <v>-48.0</v>
+      </c>
+      <c r="DH27" t="n">
+        <v>-47.0</v>
+      </c>
+      <c r="DI27" t="n">
+        <v>-47.0</v>
+      </c>
+      <c r="DJ27" t="n">
+        <v>-53.0</v>
+      </c>
+      <c r="DK27" t="n">
+        <v>-64.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B28" t="n">
         <v>6.0</v>
@@ -65169,11 +70623,38 @@
       </c>
       <c r="DB28" t="n">
         <v>-52.0</v>
+      </c>
+      <c r="DC28" t="n">
+        <v>-55.0</v>
+      </c>
+      <c r="DD28" t="n">
+        <v>-62.0</v>
+      </c>
+      <c r="DE28" t="n">
+        <v>-51.0</v>
+      </c>
+      <c r="DF28" t="n">
+        <v>-54.0</v>
+      </c>
+      <c r="DG28" t="n">
+        <v>-50.0</v>
+      </c>
+      <c r="DH28" t="n">
+        <v>-50.0</v>
+      </c>
+      <c r="DI28" t="n">
+        <v>-47.0</v>
+      </c>
+      <c r="DJ28" t="n">
+        <v>-50.0</v>
+      </c>
+      <c r="DK28" t="n">
+        <v>-58.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B29" t="n">
         <v>4.0</v>
@@ -65489,6 +70970,33 @@
       </c>
       <c r="DB29" t="n">
         <v>-36.0</v>
+      </c>
+      <c r="DC29" t="n">
+        <v>-41.0</v>
+      </c>
+      <c r="DD29" t="n">
+        <v>-51.0</v>
+      </c>
+      <c r="DE29" t="n">
+        <v>-30.0</v>
+      </c>
+      <c r="DF29" t="n">
+        <v>-31.0</v>
+      </c>
+      <c r="DG29" t="n">
+        <v>-29.0</v>
+      </c>
+      <c r="DH29" t="n">
+        <v>-29.0</v>
+      </c>
+      <c r="DI29" t="n">
+        <v>-31.0</v>
+      </c>
+      <c r="DJ29" t="n">
+        <v>-37.0</v>
+      </c>
+      <c r="DK29" t="n">
+        <v>-49.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_base_google.xlsx
+++ b/docs/excel_base_google.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="149">
   <si>
     <t>02/15/20</t>
   </si>
@@ -362,6 +362,27 @@
     <t>06/07/20</t>
   </si>
   <si>
+    <t>06/08/20</t>
+  </si>
+  <si>
+    <t>06/09/20</t>
+  </si>
+  <si>
+    <t>06/10/20</t>
+  </si>
+  <si>
+    <t>06/11/20</t>
+  </si>
+  <si>
+    <t>06/12/20</t>
+  </si>
+  <si>
+    <t>06/13/20</t>
+  </si>
+  <si>
+    <t>06/14/20</t>
+  </si>
+  <si>
     <t>AC</t>
   </si>
   <si>
@@ -838,10 +859,31 @@
       <c r="DK1" t="s">
         <v>113</v>
       </c>
+      <c r="DL1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B2" t="n">
         <v>0.004335522292705126</v>
@@ -1184,11 +1226,32 @@
       </c>
       <c r="DK2" t="n">
         <v>-0.14307223565926916</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>-0.0888782070004551</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>-0.08454268470774996</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>-0.08454268470774996</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>-0.1170591019030384</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>-0.09104596814680765</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>-0.11489134075668585</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>-0.14523999680562172</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B3" t="n">
         <v>0.04013436700937573</v>
@@ -1531,11 +1594,32 @@
       </c>
       <c r="DK3" t="n">
         <v>-0.5217467711218844</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>-0.3933167966918821</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>-0.41739741689750753</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>-0.3451555562806312</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>-0.48161240411250866</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>-0.3612093030843815</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>-0.48161240411250866</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>-0.5458273913275098</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B4" t="n">
         <v>0.12741864323896848</v>
@@ -1878,11 +1962,32 @@
       </c>
       <c r="DK4" t="n">
         <v>-0.6370932161948425</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>-0.3964135567434575</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>-0.3964135567434575</v>
+      </c>
+      <c r="DN4" t="n">
+        <v>-0.3822559297169055</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>-0.5521474540355301</v>
+      </c>
+      <c r="DP4" t="n">
+        <v>-0.26899491350448906</v>
+      </c>
+      <c r="DQ4" t="n">
+        <v>-0.45304406484966575</v>
+      </c>
+      <c r="DR4" t="n">
+        <v>-0.6229355891682904</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B5" t="n">
         <v>0.025865180736859797</v>
@@ -2225,11 +2330,32 @@
       </c>
       <c r="DK5" t="n">
         <v>-0.1763535050240441</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>-0.14343418408622252</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>-0.14343418408622252</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>-0.13638004388526076</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>-0.15519108442115878</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>-0.12697452361731174</v>
+      </c>
+      <c r="DQ5" t="n">
+        <v>-0.15754246448814604</v>
+      </c>
+      <c r="DR5" t="n">
+        <v>-0.17165074489006957</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B6" t="n">
         <v>-0.04080933048911967</v>
@@ -2572,11 +2698,32 @@
       </c>
       <c r="DK6" t="n">
         <v>-2.734225142771018</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>-1.9180385329886247</v>
+      </c>
+      <c r="DM6" t="n">
+        <v>-1.999657193966864</v>
+      </c>
+      <c r="DN6" t="n">
+        <v>-1.754801211032146</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>-2.44855982934718</v>
+      </c>
+      <c r="DP6" t="n">
+        <v>-1.754801211032146</v>
+      </c>
+      <c r="DQ6" t="n">
+        <v>-2.2853225073907018</v>
+      </c>
+      <c r="DR6" t="n">
+        <v>-2.6526064817927786</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B7" t="n">
         <v>-0.04492882442895002</v>
@@ -2919,11 +3066,32 @@
       </c>
       <c r="DK7" t="n">
         <v>-1.6174376794422007</v>
+      </c>
+      <c r="DL7" t="n">
+        <v>-1.1456850229382256</v>
+      </c>
+      <c r="DM7" t="n">
+        <v>-1.1232206107237506</v>
+      </c>
+      <c r="DN7" t="n">
+        <v>-1.0782917862948005</v>
+      </c>
+      <c r="DO7" t="n">
+        <v>-1.1681494351527006</v>
+      </c>
+      <c r="DP7" t="n">
+        <v>-1.0333629618658504</v>
+      </c>
+      <c r="DQ7" t="n">
+        <v>-1.2580070840106006</v>
+      </c>
+      <c r="DR7" t="n">
+        <v>-1.4377223817264007</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B8" t="n">
         <v>0.37167081904072646</v>
@@ -3266,11 +3434,32 @@
       </c>
       <c r="DK8" t="n">
         <v>-1.8583540952036324</v>
+      </c>
+      <c r="DL8" t="n">
+        <v>-1.5610174399710512</v>
+      </c>
+      <c r="DM8" t="n">
+        <v>-1.5981845218751238</v>
+      </c>
+      <c r="DN8" t="n">
+        <v>-1.4123491123547607</v>
+      </c>
+      <c r="DO8" t="n">
+        <v>-1.9698553409158504</v>
+      </c>
+      <c r="DP8" t="n">
+        <v>-1.2265137028343973</v>
+      </c>
+      <c r="DQ8" t="n">
+        <v>-1.7096857675873418</v>
+      </c>
+      <c r="DR8" t="n">
+        <v>-1.9326882590117778</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B9" t="n">
         <v>-0.017218041926451627</v>
@@ -3613,11 +3802,32 @@
       </c>
       <c r="DK9" t="n">
         <v>-1.1363907671458073</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>-0.6715036351316135</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>-0.6715036351316135</v>
+      </c>
+      <c r="DN9" t="n">
+        <v>-0.5854134254993553</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>-0.9986464317341943</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>-0.6542855932051619</v>
+      </c>
+      <c r="DQ9" t="n">
+        <v>-0.9814283898077427</v>
+      </c>
+      <c r="DR9" t="n">
+        <v>-1.1019546832929041</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B10" t="n">
         <v>0.08744769448076166</v>
@@ -3960,11 +4170,32 @@
       </c>
       <c r="DK10" t="n">
         <v>-1.457461574679361</v>
+      </c>
+      <c r="DL10" t="n">
+        <v>-1.0202231022755528</v>
+      </c>
+      <c r="DM10" t="n">
+        <v>-0.9619246392883782</v>
+      </c>
+      <c r="DN10" t="n">
+        <v>-0.8161784818204422</v>
+      </c>
+      <c r="DO10" t="n">
+        <v>-1.5449092691601227</v>
+      </c>
+      <c r="DP10" t="n">
+        <v>-0.9036261763012039</v>
+      </c>
+      <c r="DQ10" t="n">
+        <v>-1.3408646487050122</v>
+      </c>
+      <c r="DR10" t="n">
+        <v>-1.5449092691601227</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B11" t="n">
         <v>-0.040795919322778346</v>
@@ -4307,11 +4538,32 @@
       </c>
       <c r="DK11" t="n">
         <v>-0.7207279080357507</v>
+      </c>
+      <c r="DL11" t="n">
+        <v>-0.516748311421859</v>
+      </c>
+      <c r="DM11" t="n">
+        <v>-0.47595239209908063</v>
+      </c>
+      <c r="DN11" t="n">
+        <v>-0.46235375232482123</v>
+      </c>
+      <c r="DO11" t="n">
+        <v>-0.5847415102931562</v>
+      </c>
+      <c r="DP11" t="n">
+        <v>-0.38076191367926454</v>
+      </c>
+      <c r="DQ11" t="n">
+        <v>-0.5983401500674157</v>
+      </c>
+      <c r="DR11" t="n">
+        <v>-0.6799319887129723</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B12" t="n">
         <v>0.6126686787596378</v>
@@ -4654,11 +4906,32 @@
       </c>
       <c r="DK12" t="n">
         <v>-4.551253042214452</v>
+      </c>
+      <c r="DL12" t="n">
+        <v>-2.713247005935539</v>
+      </c>
+      <c r="DM12" t="n">
+        <v>-2.8007711029012015</v>
+      </c>
+      <c r="DN12" t="n">
+        <v>-2.1881024241415634</v>
+      </c>
+      <c r="DO12" t="n">
+        <v>-4.81382533311144</v>
+      </c>
+      <c r="DP12" t="n">
+        <v>-2.363150618072889</v>
+      </c>
+      <c r="DQ12" t="n">
+        <v>-3.9385843634548143</v>
+      </c>
+      <c r="DR12" t="n">
+        <v>-4.376204848283127</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B13" t="n">
         <v>0.08783307806781981</v>
@@ -5001,11 +5274,32 @@
       </c>
       <c r="DK13" t="n">
         <v>-0.43916539033909907</v>
+      </c>
+      <c r="DL13" t="n">
+        <v>-0.19030500248027626</v>
+      </c>
+      <c r="DM13" t="n">
+        <v>-0.19030500248027626</v>
+      </c>
+      <c r="DN13" t="n">
+        <v>-0.11711077075709309</v>
+      </c>
+      <c r="DO13" t="n">
+        <v>-0.5416373147515555</v>
+      </c>
+      <c r="DP13" t="n">
+        <v>-0.014638846344636636</v>
+      </c>
+      <c r="DQ13" t="n">
+        <v>-0.38061000496055253</v>
+      </c>
+      <c r="DR13" t="n">
+        <v>-0.4977207757176456</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -5348,11 +5642,32 @@
       </c>
       <c r="DK14" t="n">
         <v>-0.7704627883769997</v>
+      </c>
+      <c r="DL14" t="n">
+        <v>-0.36596982447907483</v>
+      </c>
+      <c r="DM14" t="n">
+        <v>-0.4044929638979248</v>
+      </c>
+      <c r="DN14" t="n">
+        <v>-0.23113883651309988</v>
+      </c>
+      <c r="DO14" t="n">
+        <v>-0.9438169157618245</v>
+      </c>
+      <c r="DP14" t="n">
+        <v>-0.25040040622252485</v>
+      </c>
+      <c r="DQ14" t="n">
+        <v>-0.6741549398298746</v>
+      </c>
+      <c r="DR14" t="n">
+        <v>-0.8475090672146995</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -5695,11 +6010,32 @@
       </c>
       <c r="DK15" t="n">
         <v>-1.2022756148942075</v>
+      </c>
+      <c r="DL15" t="n">
+        <v>-0.6836469182731768</v>
+      </c>
+      <c r="DM15" t="n">
+        <v>-0.7072209499377691</v>
+      </c>
+      <c r="DN15" t="n">
+        <v>-0.6129248232793999</v>
+      </c>
+      <c r="DO15" t="n">
+        <v>-1.0372573932420615</v>
+      </c>
+      <c r="DP15" t="n">
+        <v>-0.542202728285623</v>
+      </c>
+      <c r="DQ15" t="n">
+        <v>-0.9193872349190998</v>
+      </c>
+      <c r="DR15" t="n">
+        <v>-1.1315535199004305</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B16" t="n">
         <v>0.018952989106065358</v>
@@ -6042,11 +6378,32 @@
       </c>
       <c r="DK16" t="n">
         <v>-0.7107370914774509</v>
+      </c>
+      <c r="DL16" t="n">
+        <v>-0.5685896731819607</v>
+      </c>
+      <c r="DM16" t="n">
+        <v>-0.5685896731819607</v>
+      </c>
+      <c r="DN16" t="n">
+        <v>-0.5496366840758954</v>
+      </c>
+      <c r="DO16" t="n">
+        <v>-0.6064956513940915</v>
+      </c>
+      <c r="DP16" t="n">
+        <v>-0.53068369496983</v>
+      </c>
+      <c r="DQ16" t="n">
+        <v>-0.5970191568410588</v>
+      </c>
+      <c r="DR16" t="n">
+        <v>-0.7012605969244182</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B17" t="n">
         <v>0.13788686376518408</v>
@@ -6389,11 +6746,32 @@
       </c>
       <c r="DK17" t="n">
         <v>-1.8752613472065036</v>
+      </c>
+      <c r="DL17" t="n">
+        <v>-1.4340233831579146</v>
+      </c>
+      <c r="DM17" t="n">
+        <v>-1.4616007559109512</v>
+      </c>
+      <c r="DN17" t="n">
+        <v>-1.4064460104048777</v>
+      </c>
+      <c r="DO17" t="n">
+        <v>-1.5167555014170249</v>
+      </c>
+      <c r="DP17" t="n">
+        <v>-1.3237138921457672</v>
+      </c>
+      <c r="DQ17" t="n">
+        <v>-1.5719102469230986</v>
+      </c>
+      <c r="DR17" t="n">
+        <v>-1.9028387199595402</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B18" t="n">
         <v>-0.027559725130014895</v>
@@ -6736,11 +7114,32 @@
       </c>
       <c r="DK18" t="n">
         <v>-0.47540525849275694</v>
+      </c>
+      <c r="DL18" t="n">
+        <v>-0.3789462205377048</v>
+      </c>
+      <c r="DM18" t="n">
+        <v>-0.38583615182020853</v>
+      </c>
+      <c r="DN18" t="n">
+        <v>-0.36516635797269736</v>
+      </c>
+      <c r="DO18" t="n">
+        <v>-0.399616014385216</v>
+      </c>
+      <c r="DP18" t="n">
+        <v>-0.3513864954076899</v>
+      </c>
+      <c r="DQ18" t="n">
+        <v>-0.42717573951523086</v>
+      </c>
+      <c r="DR18" t="n">
+        <v>-0.4891851210577644</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B19" t="n">
         <v>0.3200322917200799</v>
@@ -7083,11 +7482,32 @@
       </c>
       <c r="DK19" t="n">
         <v>-2.7522777087926875</v>
+      </c>
+      <c r="DL19" t="n">
+        <v>-1.6001614586003996</v>
+      </c>
+      <c r="DM19" t="n">
+        <v>-1.9201937503204796</v>
+      </c>
+      <c r="DN19" t="n">
+        <v>-1.4721485419123677</v>
+      </c>
+      <c r="DO19" t="n">
+        <v>-3.3283358338888314</v>
+      </c>
+      <c r="DP19" t="n">
+        <v>-0.8960904168162238</v>
+      </c>
+      <c r="DQ19" t="n">
+        <v>-2.2402260420405593</v>
+      </c>
+      <c r="DR19" t="n">
+        <v>-3.200322917200799</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B20" t="n">
         <v>0.7138552069275143</v>
@@ -7429,12 +7849,33 @@
         <v>-5.098965763767959</v>
       </c>
       <c r="DK20" t="n">
+        <v>-6.322717547072269</v>
+      </c>
+      <c r="DL20" t="n">
+        <v>-4.691048502666522</v>
+      </c>
+      <c r="DM20" t="n">
+        <v>-4.8950071332172405</v>
+      </c>
+      <c r="DN20" t="n">
+        <v>-4.385110556840445</v>
+      </c>
+      <c r="DO20" t="n">
+        <v>-6.016779601246192</v>
+      </c>
+      <c r="DP20" t="n">
+        <v>-3.5692760346375714</v>
+      </c>
+      <c r="DQ20" t="n">
+        <v>-4.9969864484926</v>
+      </c>
+      <c r="DR20" t="n">
         <v>-6.322717547072269</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B21" t="n">
         <v>0.04883140749796015</v>
@@ -7777,11 +8218,32 @@
       </c>
       <c r="DK21" t="n">
         <v>-0.6836397049714421</v>
+      </c>
+      <c r="DL21" t="n">
+        <v>-0.5176129194783776</v>
+      </c>
+      <c r="DM21" t="n">
+        <v>-0.5371454824775617</v>
+      </c>
+      <c r="DN21" t="n">
+        <v>-0.5078466379787856</v>
+      </c>
+      <c r="DO21" t="n">
+        <v>-0.6934059864710342</v>
+      </c>
+      <c r="DP21" t="n">
+        <v>-0.6055094529747059</v>
+      </c>
+      <c r="DQ21" t="n">
+        <v>-0.5762106084759299</v>
+      </c>
+      <c r="DR21" t="n">
+        <v>-0.6738734234718501</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B22" t="n">
         <v>0.04626017541948326</v>
@@ -8124,11 +8586,32 @@
       </c>
       <c r="DK22" t="n">
         <v>-0.3436470174018757</v>
+      </c>
+      <c r="DL22" t="n">
+        <v>-0.2313008770974163</v>
+      </c>
+      <c r="DM22" t="n">
+        <v>-0.25773526305140676</v>
+      </c>
+      <c r="DN22" t="n">
+        <v>-0.23790947358591394</v>
+      </c>
+      <c r="DO22" t="n">
+        <v>-0.3502556138903733</v>
+      </c>
+      <c r="DP22" t="n">
+        <v>-0.19164929816643067</v>
+      </c>
+      <c r="DQ22" t="n">
+        <v>-0.2973868419823924</v>
+      </c>
+      <c r="DR22" t="n">
+        <v>-0.3502556138903733</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B23" t="n">
         <v>0.016546232578137417</v>
@@ -8471,11 +8954,32 @@
       </c>
       <c r="DK23" t="n">
         <v>-0.11950056861988136</v>
+      </c>
+      <c r="DL23" t="n">
+        <v>-0.06618493031254967</v>
+      </c>
+      <c r="DM23" t="n">
+        <v>-0.07353881145838853</v>
+      </c>
+      <c r="DN23" t="n">
+        <v>-0.0551541085937914</v>
+      </c>
+      <c r="DO23" t="n">
+        <v>-0.08824657375006623</v>
+      </c>
+      <c r="DP23" t="n">
+        <v>-0.060669519453170534</v>
+      </c>
+      <c r="DQ23" t="n">
+        <v>-0.08824657375006623</v>
+      </c>
+      <c r="DR23" t="n">
+        <v>-0.11766209833342164</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B24" t="n">
         <v>0.2571049267820831</v>
@@ -8818,11 +9322,32 @@
       </c>
       <c r="DK24" t="n">
         <v>-3.4709165115581215</v>
+      </c>
+      <c r="DL24" t="n">
+        <v>-1.4783533289969777</v>
+      </c>
+      <c r="DM24" t="n">
+        <v>-1.928286950865623</v>
+      </c>
+      <c r="DN24" t="n">
+        <v>-1.5426295606924985</v>
+      </c>
+      <c r="DO24" t="n">
+        <v>-3.599468974949163</v>
+      </c>
+      <c r="DP24" t="n">
+        <v>-1.0284197071283323</v>
+      </c>
+      <c r="DQ24" t="n">
+        <v>-2.3139443410387477</v>
+      </c>
+      <c r="DR24" t="n">
+        <v>-3.085259121384997</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B25" t="n">
         <v>0.04210519964838624</v>
@@ -9165,11 +9690,32 @@
       </c>
       <c r="DK25" t="n">
         <v>-1.7684183852322222</v>
+      </c>
+      <c r="DL25" t="n">
+        <v>-1.178945590154815</v>
+      </c>
+      <c r="DM25" t="n">
+        <v>-1.3894715883967461</v>
+      </c>
+      <c r="DN25" t="n">
+        <v>-1.1368403905064286</v>
+      </c>
+      <c r="DO25" t="n">
+        <v>-1.9368391838257673</v>
+      </c>
+      <c r="DP25" t="n">
+        <v>-0.6315779947257937</v>
+      </c>
+      <c r="DQ25" t="n">
+        <v>-1.4315767880451322</v>
+      </c>
+      <c r="DR25" t="n">
+        <v>-2.063154782770926</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B26" t="n">
         <v>0.030914319979288857</v>
@@ -9512,11 +10058,32 @@
       </c>
       <c r="DK26" t="n">
         <v>-0.3957032957348974</v>
+      </c>
+      <c r="DL26" t="n">
+        <v>-0.29677747180117303</v>
+      </c>
+      <c r="DM26" t="n">
+        <v>-0.2844117438094575</v>
+      </c>
+      <c r="DN26" t="n">
+        <v>-0.2596802878260264</v>
+      </c>
+      <c r="DO26" t="n">
+        <v>-0.37715470374732407</v>
+      </c>
+      <c r="DP26" t="n">
+        <v>-0.2596802878260264</v>
+      </c>
+      <c r="DQ26" t="n">
+        <v>-0.36478897575560854</v>
+      </c>
+      <c r="DR26" t="n">
+        <v>-0.3895204317390396</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B27" t="n">
         <v>1.9320230737634623</v>
@@ -9859,11 +10426,32 @@
       </c>
       <c r="DK27" t="n">
         <v>-18.676223046380134</v>
+      </c>
+      <c r="DL27" t="n">
+        <v>-14.812176898853211</v>
+      </c>
+      <c r="DM27" t="n">
+        <v>-15.456184590107698</v>
+      </c>
+      <c r="DN27" t="n">
+        <v>-13.524161516344236</v>
+      </c>
+      <c r="DO27" t="n">
+        <v>-16.42219612698943</v>
+      </c>
+      <c r="DP27" t="n">
+        <v>-12.23614613383526</v>
+      </c>
+      <c r="DQ27" t="n">
+        <v>-15.778188435734942</v>
+      </c>
+      <c r="DR27" t="n">
+        <v>-19.320230737634624</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B28" t="n">
         <v>0.02072005768977931</v>
@@ -10206,11 +10794,32 @@
       </c>
       <c r="DK28" t="n">
         <v>-0.25382070669979656</v>
+      </c>
+      <c r="DL28" t="n">
+        <v>-0.13468037498356553</v>
+      </c>
+      <c r="DM28" t="n">
+        <v>-0.13986038940601034</v>
+      </c>
+      <c r="DN28" t="n">
+        <v>-0.10360028844889654</v>
+      </c>
+      <c r="DO28" t="n">
+        <v>-0.20202056247534828</v>
+      </c>
+      <c r="DP28" t="n">
+        <v>-0.10360028844889654</v>
+      </c>
+      <c r="DQ28" t="n">
+        <v>-0.19684054805290344</v>
+      </c>
+      <c r="DR28" t="n">
+        <v>-0.23828066343246207</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B29" t="n">
         <v>4.771294887206965</v>
@@ -10553,6 +11162,27 @@
       </c>
       <c r="DK29" t="n">
         <v>-55.81428792074261</v>
+      </c>
+      <c r="DL29" t="n">
+        <v>-39.1972291702396</v>
+      </c>
+      <c r="DM29" t="n">
+        <v>-41.272883138760655</v>
+      </c>
+      <c r="DN29" t="n">
+        <v>-35.75332925379089</v>
+      </c>
+      <c r="DO29" t="n">
+        <v>-52.89497914637219</v>
+      </c>
+      <c r="DP29" t="n">
+        <v>-31.76037208273239</v>
+      </c>
+      <c r="DQ29" t="n">
+        <v>-46.17397611158843</v>
+      </c>
+      <c r="DR29" t="n">
+        <v>-56.543016771876836</v>
       </c>
     </row>
   </sheetData>
@@ -10912,10 +11542,31 @@
       <c r="DK1" t="s">
         <v>113</v>
       </c>
+      <c r="DL1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B2" t="n">
         <v>0.010838805731762815</v>
@@ -11258,11 +11909,32 @@
       </c>
       <c r="DK2" t="n">
         <v>-0.010838805731762815</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>0.008671044585410253</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>0.008671044585410253</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>0.010838805731762815</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>-0.008671044585410253</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>0.02167761146352563</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>-0.004335522292705126</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>-0.02601313375623076</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B3" t="n">
         <v>0.024080620205625434</v>
@@ -11605,11 +12277,32 @@
       </c>
       <c r="DK3" t="n">
         <v>-0.1444837212337526</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>-0.04013436700937573</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>-0.10434935422437688</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>-0.03210749360750058</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>-0.15251059463562774</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>0.06421498721500116</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>-0.1605374680375029</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>-0.2327793286543792</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B4" t="n">
         <v>0.09910338918586438</v>
@@ -11952,11 +12645,32 @@
       </c>
       <c r="DK4" t="n">
         <v>0.09910338918586438</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>0.24067965945138492</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>0.21236440539828083</v>
+      </c>
+      <c r="DN4" t="n">
+        <v>0.21236440539828083</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>0.014157627026552055</v>
+      </c>
+      <c r="DP4" t="n">
+        <v>0.2831525405310411</v>
+      </c>
+      <c r="DQ4" t="n">
+        <v>0.19820677837172876</v>
+      </c>
+      <c r="DR4" t="n">
+        <v>0.07078813513276028</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B5" t="n">
         <v>0.014108280401923527</v>
@@ -12299,11 +13013,32 @@
       </c>
       <c r="DK5" t="n">
         <v>-0.007054140200961763</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>0.011756900334936272</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>0.009405520267949018</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>0.028216560803847053</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>-0.004702760133974509</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>0.03762208107179607</v>
+      </c>
+      <c r="DQ5" t="n">
+        <v>-0.014108280401923527</v>
+      </c>
+      <c r="DR5" t="n">
+        <v>-0.009405520267949018</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B6" t="n">
         <v>0.04080933048911967</v>
@@ -12646,11 +13381,32 @@
       </c>
       <c r="DK6" t="n">
         <v>-0.8161866097823934</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>-0.04080933048911967</v>
+      </c>
+      <c r="DM6" t="n">
+        <v>-0.2856653134238377</v>
+      </c>
+      <c r="DN6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>-1.0610425927171114</v>
+      </c>
+      <c r="DP6" t="n">
+        <v>0.2856653134238377</v>
+      </c>
+      <c r="DQ6" t="n">
+        <v>-0.5305212963585557</v>
+      </c>
+      <c r="DR6" t="n">
+        <v>-0.8978052707606328</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B7" t="n">
         <v>0.04492882442895002</v>
@@ -12993,11 +13749,32 @@
       </c>
       <c r="DK7" t="n">
         <v>-0.4043594198605502</v>
+      </c>
+      <c r="DL7" t="n">
+        <v>-0.08985764885790004</v>
+      </c>
+      <c r="DM7" t="n">
+        <v>-0.08985764885790004</v>
+      </c>
+      <c r="DN7" t="n">
+        <v>-0.06739323664342503</v>
+      </c>
+      <c r="DO7" t="n">
+        <v>-0.29203735878817516</v>
+      </c>
+      <c r="DP7" t="n">
+        <v>0.11232206107237505</v>
+      </c>
+      <c r="DQ7" t="n">
+        <v>-0.13478647328685006</v>
+      </c>
+      <c r="DR7" t="n">
+        <v>-0.29203735878817516</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B8" t="n">
         <v>0.26016957332850854</v>
@@ -13340,11 +14117,32 @@
       </c>
       <c r="DK8" t="n">
         <v>0.26016957332850854</v>
+      </c>
+      <c r="DL8" t="n">
+        <v>0.1486683276162906</v>
+      </c>
+      <c r="DM8" t="n">
+        <v>0.26016957332850854</v>
+      </c>
+      <c r="DN8" t="n">
+        <v>0.5203391466570171</v>
+      </c>
+      <c r="DO8" t="n">
+        <v>0.03716708190407265</v>
+      </c>
+      <c r="DP8" t="n">
+        <v>0.9663441295058889</v>
+      </c>
+      <c r="DQ8" t="n">
+        <v>0.1486683276162906</v>
+      </c>
+      <c r="DR8" t="n">
+        <v>-0.03716708190407265</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B9" t="n">
         <v>0.06887216770580651</v>
@@ -13687,11 +14485,32 @@
       </c>
       <c r="DK9" t="n">
         <v>-0.3099247546761293</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>-0.05165412577935488</v>
+      </c>
+      <c r="DN9" t="n">
+        <v>0.15496237733806464</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>-0.49932321586709716</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>0.25827062889677443</v>
+      </c>
+      <c r="DQ9" t="n">
+        <v>-0.17218041926451627</v>
+      </c>
+      <c r="DR9" t="n">
+        <v>-0.36157888045548414</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B10" t="n">
         <v>0.1457461574679361</v>
@@ -14034,11 +14853,32 @@
       </c>
       <c r="DK10" t="n">
         <v>0.23319385194869777</v>
+      </c>
+      <c r="DL10" t="n">
+        <v>0.26234308344228496</v>
+      </c>
+      <c r="DM10" t="n">
+        <v>0.20404462045511054</v>
+      </c>
+      <c r="DN10" t="n">
+        <v>0.46638770389739553</v>
+      </c>
+      <c r="DO10" t="n">
+        <v>-0.08744769448076166</v>
+      </c>
+      <c r="DP10" t="n">
+        <v>0.6412830928589188</v>
+      </c>
+      <c r="DQ10" t="n">
+        <v>0.1457461574679361</v>
+      </c>
+      <c r="DR10" t="n">
+        <v>-0.08744769448076166</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -14381,11 +15221,32 @@
       </c>
       <c r="DK11" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL11" t="n">
+        <v>0.12238775796833502</v>
+      </c>
+      <c r="DM11" t="n">
+        <v>0.14958503751685392</v>
+      </c>
+      <c r="DN11" t="n">
+        <v>0.1767823170653728</v>
+      </c>
+      <c r="DO11" t="n">
+        <v>0.040795919322778346</v>
+      </c>
+      <c r="DP11" t="n">
+        <v>0.2855714352594484</v>
+      </c>
+      <c r="DQ11" t="n">
+        <v>0.040795919322778346</v>
+      </c>
+      <c r="DR11" t="n">
+        <v>-0.05439455909703779</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B12" t="n">
         <v>0.43762048482831273</v>
@@ -14728,11 +15589,32 @@
       </c>
       <c r="DK12" t="n">
         <v>0.1750481939313251</v>
+      </c>
+      <c r="DL12" t="n">
+        <v>0.6126686787596378</v>
+      </c>
+      <c r="DM12" t="n">
+        <v>0.5251445817939753</v>
+      </c>
+      <c r="DN12" t="n">
+        <v>1.4879096484162633</v>
+      </c>
+      <c r="DO12" t="n">
+        <v>-1.3128614544849382</v>
+      </c>
+      <c r="DP12" t="n">
+        <v>2.275626521107226</v>
+      </c>
+      <c r="DQ12" t="n">
+        <v>0.3500963878626502</v>
+      </c>
+      <c r="DR12" t="n">
+        <v>-0.26257229089698764</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B13" t="n">
         <v>0.07319423172318318</v>
@@ -15075,11 +15957,32 @@
       </c>
       <c r="DK13" t="n">
         <v>0.14638846344636636</v>
+      </c>
+      <c r="DL13" t="n">
+        <v>0.17566615613563963</v>
+      </c>
+      <c r="DM13" t="n">
+        <v>0.14638846344636636</v>
+      </c>
+      <c r="DN13" t="n">
+        <v>0.2781380805480961</v>
+      </c>
+      <c r="DO13" t="n">
+        <v>-0.05855538537854654</v>
+      </c>
+      <c r="DP13" t="n">
+        <v>0.2927769268927327</v>
+      </c>
+      <c r="DQ13" t="n">
+        <v>0.08783307806781981</v>
+      </c>
+      <c r="DR13" t="n">
+        <v>0.02927769268927327</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B14" t="n">
         <v>0.01926156970942499</v>
@@ -15422,11 +16325,32 @@
       </c>
       <c r="DK14" t="n">
         <v>-0.03852313941884998</v>
+      </c>
+      <c r="DL14" t="n">
+        <v>0.17335412738482492</v>
+      </c>
+      <c r="DM14" t="n">
+        <v>0.07704627883769996</v>
+      </c>
+      <c r="DN14" t="n">
+        <v>0.34670825476964984</v>
+      </c>
+      <c r="DO14" t="n">
+        <v>-0.28892354564137485</v>
+      </c>
+      <c r="DP14" t="n">
+        <v>0.34670825476964984</v>
+      </c>
+      <c r="DQ14" t="n">
+        <v>-0.05778470912827497</v>
+      </c>
+      <c r="DR14" t="n">
+        <v>-0.21187726680367489</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B15" t="n">
         <v>0.023574031664592304</v>
@@ -15769,11 +16693,32 @@
       </c>
       <c r="DK15" t="n">
         <v>0.07072209499377691</v>
+      </c>
+      <c r="DL15" t="n">
+        <v>0.25931434831051536</v>
+      </c>
+      <c r="DM15" t="n">
+        <v>0.21216628498133072</v>
+      </c>
+      <c r="DN15" t="n">
+        <v>0.33003644330429227</v>
+      </c>
+      <c r="DO15" t="n">
+        <v>-0.16501822165214614</v>
+      </c>
+      <c r="DP15" t="n">
+        <v>0.5186286966210307</v>
+      </c>
+      <c r="DQ15" t="n">
+        <v>0.09429612665836921</v>
+      </c>
+      <c r="DR15" t="n">
+        <v>-0.023574031664592304</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B16" t="n">
         <v>0.037905978212130716</v>
@@ -16116,11 +17061,32 @@
       </c>
       <c r="DK16" t="n">
         <v>-0.12319442918942483</v>
+      </c>
+      <c r="DL16" t="n">
+        <v>-0.04738247276516339</v>
+      </c>
+      <c r="DM16" t="n">
+        <v>-0.08528845097729411</v>
+      </c>
+      <c r="DN16" t="n">
+        <v>-0.06633546187122875</v>
+      </c>
+      <c r="DO16" t="n">
+        <v>-0.1326709237424575</v>
+      </c>
+      <c r="DP16" t="n">
+        <v>0.07581195642426143</v>
+      </c>
+      <c r="DQ16" t="n">
+        <v>-0.08528845097729411</v>
+      </c>
+      <c r="DR16" t="n">
+        <v>-0.1800533965076209</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B17" t="n">
         <v>0.13788686376518408</v>
@@ -16463,11 +17429,32 @@
       </c>
       <c r="DK17" t="n">
         <v>-0.30335110028340495</v>
+      </c>
+      <c r="DL17" t="n">
+        <v>0.05515474550607363</v>
+      </c>
+      <c r="DM17" t="n">
+        <v>-0.11030949101214726</v>
+      </c>
+      <c r="DN17" t="n">
+        <v>-0.05515474550607363</v>
+      </c>
+      <c r="DO17" t="n">
+        <v>-0.1930416092712577</v>
+      </c>
+      <c r="DP17" t="n">
+        <v>0.3309284730364418</v>
+      </c>
+      <c r="DQ17" t="n">
+        <v>-0.13788686376518408</v>
+      </c>
+      <c r="DR17" t="n">
+        <v>-0.5515474550607363</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -16810,11 +17797,32 @@
       </c>
       <c r="DK18" t="n">
         <v>-0.24114759488763032</v>
+      </c>
+      <c r="DL18" t="n">
+        <v>-0.08267917539004468</v>
+      </c>
+      <c r="DM18" t="n">
+        <v>-0.09645903795505213</v>
+      </c>
+      <c r="DN18" t="n">
+        <v>-0.062009381542533513</v>
+      </c>
+      <c r="DO18" t="n">
+        <v>-0.1446885569325782</v>
+      </c>
+      <c r="DP18" t="n">
+        <v>-0.006889931282503724</v>
+      </c>
+      <c r="DQ18" t="n">
+        <v>-0.08956910667254842</v>
+      </c>
+      <c r="DR18" t="n">
+        <v>-0.42717573951523086</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B19" t="n">
         <v>0.3200322917200799</v>
@@ -17157,11 +18165,32 @@
       </c>
       <c r="DK19" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL19" t="n">
+        <v>0.12801291668803197</v>
+      </c>
+      <c r="DM19" t="n">
+        <v>-0.25602583337606394</v>
+      </c>
+      <c r="DN19" t="n">
+        <v>0.5760581250961438</v>
+      </c>
+      <c r="DO19" t="n">
+        <v>-1.2161227085363038</v>
+      </c>
+      <c r="DP19" t="n">
+        <v>0.9600968751602398</v>
+      </c>
+      <c r="DQ19" t="n">
+        <v>0.06400645834401598</v>
+      </c>
+      <c r="DR19" t="n">
+        <v>-0.6400645834401598</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B20" t="n">
         <v>0.6118758916521551</v>
@@ -17504,11 +18533,32 @@
       </c>
       <c r="DK20" t="n">
         <v>-0.8158345222028734</v>
+      </c>
+      <c r="DL20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DM20" t="n">
+        <v>-0.6118758916521551</v>
+      </c>
+      <c r="DN20" t="n">
+        <v>0.5098965763767959</v>
+      </c>
+      <c r="DO20" t="n">
+        <v>-1.733648359681106</v>
+      </c>
+      <c r="DP20" t="n">
+        <v>1.4277104138550285</v>
+      </c>
+      <c r="DQ20" t="n">
+        <v>-0.5098965763767959</v>
+      </c>
+      <c r="DR20" t="n">
+        <v>-1.5296897291303877</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B21" t="n">
         <v>0.05859768899755219</v>
@@ -17851,11 +18901,32 @@
       </c>
       <c r="DK21" t="n">
         <v>-0.16602678549306452</v>
+      </c>
+      <c r="DL21" t="n">
+        <v>-0.04883140749796015</v>
+      </c>
+      <c r="DM21" t="n">
+        <v>-0.0976628149959203</v>
+      </c>
+      <c r="DN21" t="n">
+        <v>-0.04883140749796015</v>
+      </c>
+      <c r="DO21" t="n">
+        <v>-0.30275472648735297</v>
+      </c>
+      <c r="DP21" t="n">
+        <v>-0.13672794099428842</v>
+      </c>
+      <c r="DQ21" t="n">
+        <v>-0.1269616594946964</v>
+      </c>
+      <c r="DR21" t="n">
+        <v>-0.1855593484922486</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B22" t="n">
         <v>0.04626017541948326</v>
@@ -18198,11 +19269,32 @@
       </c>
       <c r="DK22" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL22" t="n">
+        <v>0.026434385953990436</v>
+      </c>
+      <c r="DM22" t="n">
+        <v>-0.019825789465492828</v>
+      </c>
+      <c r="DN22" t="n">
+        <v>0.013217192976995218</v>
+      </c>
+      <c r="DO22" t="n">
+        <v>-0.10573754381596175</v>
+      </c>
+      <c r="DP22" t="n">
+        <v>0.0726945613734737</v>
+      </c>
+      <c r="DQ22" t="n">
+        <v>-0.019825789465492828</v>
+      </c>
+      <c r="DR22" t="n">
+        <v>-0.039651578930985656</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B23" t="n">
         <v>0.007353881145838853</v>
@@ -18545,11 +19637,32 @@
       </c>
       <c r="DK23" t="n">
         <v>-0.009192351432298566</v>
+      </c>
+      <c r="DL23" t="n">
+        <v>0.012869292005217992</v>
+      </c>
+      <c r="DM23" t="n">
+        <v>0.0018384702864597132</v>
+      </c>
+      <c r="DN23" t="n">
+        <v>0.025738584010435984</v>
+      </c>
+      <c r="DO23" t="n">
+        <v>-0.0036769405729194264</v>
+      </c>
+      <c r="DP23" t="n">
+        <v>0.014707762291677706</v>
+      </c>
+      <c r="DQ23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DR23" t="n">
+        <v>-0.012869292005217992</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B24" t="n">
         <v>0.06427623169552077</v>
@@ -18892,11 +20005,32 @@
       </c>
       <c r="DK24" t="n">
         <v>-0.7713147803462492</v>
+      </c>
+      <c r="DL24" t="n">
+        <v>0.2571049267820831</v>
+      </c>
+      <c r="DM24" t="n">
+        <v>-0.06427623169552077</v>
+      </c>
+      <c r="DN24" t="n">
+        <v>0.5784860852596869</v>
+      </c>
+      <c r="DO24" t="n">
+        <v>-1.7997344874745815</v>
+      </c>
+      <c r="DP24" t="n">
+        <v>0.7070385486507285</v>
+      </c>
+      <c r="DQ24" t="n">
+        <v>-0.12855246339104154</v>
+      </c>
+      <c r="DR24" t="n">
+        <v>-0.8998672437372908</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B25" t="n">
         <v>-0.04210519964838624</v>
@@ -19239,11 +20373,32 @@
       </c>
       <c r="DK25" t="n">
         <v>-0.6315779947257937</v>
+      </c>
+      <c r="DL25" t="n">
+        <v>-0.37894679683547616</v>
+      </c>
+      <c r="DM25" t="n">
+        <v>-0.6315779947257937</v>
+      </c>
+      <c r="DN25" t="n">
+        <v>-0.25263119789031746</v>
+      </c>
+      <c r="DO25" t="n">
+        <v>-1.0526299912096562</v>
+      </c>
+      <c r="DP25" t="n">
+        <v>0.04210519964838624</v>
+      </c>
+      <c r="DQ25" t="n">
+        <v>-0.5473675954290211</v>
+      </c>
+      <c r="DR25" t="n">
+        <v>-1.0105247915612698</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B26" t="n">
         <v>0.0061828639958577715</v>
@@ -19586,11 +20741,32 @@
       </c>
       <c r="DK26" t="n">
         <v>-0.04946291196686217</v>
+      </c>
+      <c r="DL26" t="n">
+        <v>-0.03709718397514663</v>
+      </c>
+      <c r="DM26" t="n">
+        <v>-0.024731455983431086</v>
+      </c>
+      <c r="DN26" t="n">
+        <v>0.012365727991715543</v>
+      </c>
+      <c r="DO26" t="n">
+        <v>-0.1978516478674487</v>
+      </c>
+      <c r="DP26" t="n">
+        <v>0.03709718397514663</v>
+      </c>
+      <c r="DQ26" t="n">
+        <v>-0.1298401439130132</v>
+      </c>
+      <c r="DR26" t="n">
+        <v>-0.061828639958577715</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B27" t="n">
         <v>1.6100192281362187</v>
@@ -19933,11 +21109,32 @@
       </c>
       <c r="DK27" t="n">
         <v>-0.9660115368817311</v>
+      </c>
+      <c r="DL27" t="n">
+        <v>-0.3220038456272437</v>
+      </c>
+      <c r="DM27" t="n">
+        <v>-1.6100192281362187</v>
+      </c>
+      <c r="DN27" t="n">
+        <v>0.6440076912544874</v>
+      </c>
+      <c r="DO27" t="n">
+        <v>-1.6100192281362187</v>
+      </c>
+      <c r="DP27" t="n">
+        <v>4.186049993154168</v>
+      </c>
+      <c r="DQ27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DR27" t="n">
+        <v>-4.186049993154168</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B28" t="n">
         <v>0.0</v>
@@ -20280,11 +21477,32 @@
       </c>
       <c r="DK28" t="n">
         <v>-0.031080086534668965</v>
+      </c>
+      <c r="DL28" t="n">
+        <v>0.025900072112224136</v>
+      </c>
+      <c r="DM28" t="n">
+        <v>0.010360028844889655</v>
+      </c>
+      <c r="DN28" t="n">
+        <v>0.046620129802003446</v>
+      </c>
+      <c r="DO28" t="n">
+        <v>-0.04144011537955862</v>
+      </c>
+      <c r="DP28" t="n">
+        <v>0.07252020191422759</v>
+      </c>
+      <c r="DQ28" t="n">
+        <v>-0.010360028844889655</v>
+      </c>
+      <c r="DR28" t="n">
+        <v>-0.06734018749178276</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B29" t="n">
         <v>4.120593361962645</v>
@@ -20627,6 +21845,27 @@
       </c>
       <c r="DK29" t="n">
         <v>-4.854939118013863</v>
+      </c>
+      <c r="DL29" t="n">
+        <v>1.4332441945894507</v>
+      </c>
+      <c r="DM29" t="n">
+        <v>-2.3223943525177244</v>
+      </c>
+      <c r="DN29" t="n">
+        <v>5.834610932139268</v>
+      </c>
+      <c r="DO29" t="n">
+        <v>-12.372990079219162</v>
+      </c>
+      <c r="DP29" t="n">
+        <v>14.173007577896234</v>
+      </c>
+      <c r="DQ29" t="n">
+        <v>-1.7301536133887168</v>
+      </c>
+      <c r="DR29" t="n">
+        <v>-12.188808568693622</v>
       </c>
     </row>
   </sheetData>
@@ -20986,10 +22225,31 @@
       <c r="DK1" t="s">
         <v>113</v>
       </c>
+      <c r="DL1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B2" t="n">
         <v>-0.004335522292705126</v>
@@ -21332,11 +22592,32 @@
       </c>
       <c r="DK2" t="n">
         <v>-0.10188477387857046</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>-0.06069731209787177</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>-0.056361789805166644</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>-0.06286507324422433</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>-0.07153611782963458</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>-0.07370387897598715</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>-0.08020716241504483</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>-0.10838805731762816</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B3" t="n">
         <v>0.008026873401875145</v>
@@ -21679,11 +22960,32 @@
       </c>
       <c r="DK3" t="n">
         <v>-0.5538542647293849</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>-0.44147803710313294</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>-0.45753178390688326</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>-0.38528992329000694</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>-0.41739741689750753</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>-0.41739741689750753</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>-0.5378005179256347</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>-0.5859617583368856</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B4" t="n">
         <v>-0.02831525405310411</v>
@@ -22026,11 +23328,32 @@
       </c>
       <c r="DK4" t="n">
         <v>-0.6512508432213945</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>-0.29731016755759315</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>-0.2831525405310411</v>
+      </c>
+      <c r="DN4" t="n">
+        <v>-0.3397830486372493</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>-0.3397830486372493</v>
+      </c>
+      <c r="DP4" t="n">
+        <v>-0.32562542161069724</v>
+      </c>
+      <c r="DQ4" t="n">
+        <v>-0.3397830486372493</v>
+      </c>
+      <c r="DR4" t="n">
+        <v>-0.49551694592932194</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B5" t="n">
         <v>-0.023513800669872544</v>
@@ -22373,11 +23696,32 @@
       </c>
       <c r="DK5" t="n">
         <v>-0.11756900334936272</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>-0.08935244254551566</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>-0.08935244254551566</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>-0.07054140200961763</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>-0.0822983023445539</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>-0.07759554221057939</v>
+      </c>
+      <c r="DQ5" t="n">
+        <v>-0.11286624321538821</v>
+      </c>
+      <c r="DR5" t="n">
+        <v>-0.09875796281346469</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B6" t="n">
         <v>-0.6937586183150345</v>
@@ -22720,11 +24064,32 @@
       </c>
       <c r="DK6" t="n">
         <v>-2.611797151303659</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>-2.040466524455984</v>
+      </c>
+      <c r="DM6" t="n">
+        <v>-2.040466524455984</v>
+      </c>
+      <c r="DN6" t="n">
+        <v>-1.5915638890756671</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>-1.9588478634777444</v>
+      </c>
+      <c r="DP6" t="n">
+        <v>-1.9180385329886247</v>
+      </c>
+      <c r="DQ6" t="n">
+        <v>-2.2853225073907018</v>
+      </c>
+      <c r="DR6" t="n">
+        <v>-2.4893691598363</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B7" t="n">
         <v>-0.5166814809329252</v>
@@ -23067,11 +24432,32 @@
       </c>
       <c r="DK7" t="n">
         <v>-1.8196173893724759</v>
+      </c>
+      <c r="DL7" t="n">
+        <v>-1.7522241527290507</v>
+      </c>
+      <c r="DM7" t="n">
+        <v>-1.7522241527290507</v>
+      </c>
+      <c r="DN7" t="n">
+        <v>-1.7072953283001007</v>
+      </c>
+      <c r="DO7" t="n">
+        <v>-1.6848309160856259</v>
+      </c>
+      <c r="DP7" t="n">
+        <v>-1.7072953283001007</v>
+      </c>
+      <c r="DQ7" t="n">
+        <v>-1.7971529771580008</v>
+      </c>
+      <c r="DR7" t="n">
+        <v>-1.7746885649435258</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B8" t="n">
         <v>-0.2973366552325812</v>
@@ -23414,11 +24800,32 @@
       </c>
       <c r="DK8" t="n">
         <v>-1.8211870132995598</v>
+      </c>
+      <c r="DL8" t="n">
+        <v>-1.7468528494914144</v>
+      </c>
+      <c r="DM8" t="n">
+        <v>-1.5981845218751238</v>
+      </c>
+      <c r="DN8" t="n">
+        <v>-1.4495161942588333</v>
+      </c>
+      <c r="DO8" t="n">
+        <v>-0.6318403923692351</v>
+      </c>
+      <c r="DP8" t="n">
+        <v>-1.2265137028343973</v>
+      </c>
+      <c r="DQ8" t="n">
+        <v>-1.6353516037791964</v>
+      </c>
+      <c r="DR8" t="n">
+        <v>-1.5981845218751238</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B9" t="n">
         <v>-0.36157888045548414</v>
@@ -23761,11 +25168,32 @@
       </c>
       <c r="DK9" t="n">
         <v>-1.3774433541161302</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>-1.1191727252193557</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>-1.1019546832929041</v>
+      </c>
+      <c r="DN9" t="n">
+        <v>-1.0503005575135493</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>-1.1191727252193557</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>-1.153608809072259</v>
+      </c>
+      <c r="DQ9" t="n">
+        <v>-1.2396990187045172</v>
+      </c>
+      <c r="DR9" t="n">
+        <v>-1.3085711864103238</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B10" t="n">
         <v>-0.20404462045511054</v>
@@ -24108,11 +25536,32 @@
       </c>
       <c r="DK10" t="n">
         <v>-0.46638770389739553</v>
+      </c>
+      <c r="DL10" t="n">
+        <v>-0.4080892409102211</v>
+      </c>
+      <c r="DM10" t="n">
+        <v>-0.3206415464294594</v>
+      </c>
+      <c r="DN10" t="n">
+        <v>-0.26234308344228496</v>
+      </c>
+      <c r="DO10" t="n">
+        <v>-0.11659692597434888</v>
+      </c>
+      <c r="DP10" t="n">
+        <v>-0.23319385194869777</v>
+      </c>
+      <c r="DQ10" t="n">
+        <v>-0.5246861668845699</v>
+      </c>
+      <c r="DR10" t="n">
+        <v>-0.49553693539098276</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B11" t="n">
         <v>-0.10878911819407558</v>
@@ -24455,11 +25904,32 @@
       </c>
       <c r="DK11" t="n">
         <v>-0.3671632739050051</v>
+      </c>
+      <c r="DL11" t="n">
+        <v>-0.21757823638815116</v>
+      </c>
+      <c r="DM11" t="n">
+        <v>-0.23117687616241062</v>
+      </c>
+      <c r="DN11" t="n">
+        <v>-0.23117687616241062</v>
+      </c>
+      <c r="DO11" t="n">
+        <v>-0.27197279548518893</v>
+      </c>
+      <c r="DP11" t="n">
+        <v>-0.21757823638815116</v>
+      </c>
+      <c r="DQ11" t="n">
+        <v>-0.394360553453524</v>
+      </c>
+      <c r="DR11" t="n">
+        <v>-0.3535646341307456</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B12" t="n">
         <v>0.962765066622288</v>
@@ -24802,11 +26272,32 @@
       </c>
       <c r="DK12" t="n">
         <v>-2.713247005935539</v>
+      </c>
+      <c r="DL12" t="n">
+        <v>-1.6629578423475884</v>
+      </c>
+      <c r="DM12" t="n">
+        <v>-1.925530133244576</v>
+      </c>
+      <c r="DN12" t="n">
+        <v>-1.2253373575192756</v>
+      </c>
+      <c r="DO12" t="n">
+        <v>-2.100578327175901</v>
+      </c>
+      <c r="DP12" t="n">
+        <v>-1.2253373575192756</v>
+      </c>
+      <c r="DQ12" t="n">
+        <v>-1.4003855514506007</v>
+      </c>
+      <c r="DR12" t="n">
+        <v>-1.925530133244576</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B13" t="n">
         <v>0.014638846344636636</v>
@@ -25149,11 +26640,32 @@
       </c>
       <c r="DK13" t="n">
         <v>-0.5123596220622822</v>
+      </c>
+      <c r="DL13" t="n">
+        <v>-0.26349923420345944</v>
+      </c>
+      <c r="DM13" t="n">
+        <v>-0.23422154151418617</v>
+      </c>
+      <c r="DN13" t="n">
+        <v>-0.10247192441245645</v>
+      </c>
+      <c r="DO13" t="n">
+        <v>-0.4098876976498258</v>
+      </c>
+      <c r="DP13" t="n">
+        <v>-0.14638846344636636</v>
+      </c>
+      <c r="DQ13" t="n">
+        <v>-0.3366934659266426</v>
+      </c>
+      <c r="DR13" t="n">
+        <v>-0.42452654399446244</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B14" t="n">
         <v>-0.23113883651309988</v>
@@ -25496,11 +27008,32 @@
       </c>
       <c r="DK14" t="n">
         <v>-0.46227767302619976</v>
+      </c>
+      <c r="DL14" t="n">
+        <v>-0.44301610331677477</v>
+      </c>
+      <c r="DM14" t="n">
+        <v>-0.46227767302619976</v>
+      </c>
+      <c r="DN14" t="n">
+        <v>-0.32744668506022484</v>
+      </c>
+      <c r="DO14" t="n">
+        <v>-0.32744668506022484</v>
+      </c>
+      <c r="DP14" t="n">
+        <v>-0.32744668506022484</v>
+      </c>
+      <c r="DQ14" t="n">
+        <v>-0.38523139418849983</v>
+      </c>
+      <c r="DR14" t="n">
+        <v>-0.5585855215733248</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B15" t="n">
         <v>-0.11787015832296152</v>
@@ -25843,11 +27376,32 @@
       </c>
       <c r="DK15" t="n">
         <v>-0.9429612665836922</v>
+      </c>
+      <c r="DL15" t="n">
+        <v>-0.42433256996266144</v>
+      </c>
+      <c r="DM15" t="n">
+        <v>-0.542202728285623</v>
+      </c>
+      <c r="DN15" t="n">
+        <v>-0.35361047496888454</v>
+      </c>
+      <c r="DO15" t="n">
+        <v>-0.5893507916148076</v>
+      </c>
+      <c r="DP15" t="n">
+        <v>-0.5186286966210307</v>
+      </c>
+      <c r="DQ15" t="n">
+        <v>-0.7072209499377691</v>
+      </c>
+      <c r="DR15" t="n">
+        <v>-0.8250911082607306</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B16" t="n">
         <v>-0.18952989106065357</v>
@@ -26190,11 +27744,32 @@
       </c>
       <c r="DK16" t="n">
         <v>-0.7107370914774509</v>
+      </c>
+      <c r="DL16" t="n">
+        <v>-0.5685896731819607</v>
+      </c>
+      <c r="DM16" t="n">
+        <v>-0.5401601895228627</v>
+      </c>
+      <c r="DN16" t="n">
+        <v>-0.5212072004167974</v>
+      </c>
+      <c r="DO16" t="n">
+        <v>-0.5401601895228627</v>
+      </c>
+      <c r="DP16" t="n">
+        <v>-0.53068369496983</v>
+      </c>
+      <c r="DQ16" t="n">
+        <v>-0.6159721459471241</v>
+      </c>
+      <c r="DR16" t="n">
+        <v>-0.7012605969244182</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B17" t="n">
         <v>0.08273211825911045</v>
@@ -26537,11 +28112,32 @@
       </c>
       <c r="DK17" t="n">
         <v>-1.82010660170043</v>
+      </c>
+      <c r="DL17" t="n">
+        <v>-1.2409817738866566</v>
+      </c>
+      <c r="DM17" t="n">
+        <v>-1.3237138921457672</v>
+      </c>
+      <c r="DN17" t="n">
+        <v>-1.2134044011336198</v>
+      </c>
+      <c r="DO17" t="n">
+        <v>-1.2134044011336198</v>
+      </c>
+      <c r="DP17" t="n">
+        <v>-1.1582496556275463</v>
+      </c>
+      <c r="DQ17" t="n">
+        <v>-1.4616007559109512</v>
+      </c>
+      <c r="DR17" t="n">
+        <v>-1.8752613472065036</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B18" t="n">
         <v>0.04133958769502234</v>
@@ -26884,11 +28480,32 @@
       </c>
       <c r="DK18" t="n">
         <v>-0.2549274574526378</v>
+      </c>
+      <c r="DL18" t="n">
+        <v>-0.199808007192608</v>
+      </c>
+      <c r="DM18" t="n">
+        <v>-0.2066979384751117</v>
+      </c>
+      <c r="DN18" t="n">
+        <v>-0.1515784882150819</v>
+      </c>
+      <c r="DO18" t="n">
+        <v>-0.12401876308506703</v>
+      </c>
+      <c r="DP18" t="n">
+        <v>-0.19291807591010426</v>
+      </c>
+      <c r="DQ18" t="n">
+        <v>-0.2273677323226229</v>
+      </c>
+      <c r="DR18" t="n">
+        <v>-0.24803752617013405</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B19" t="n">
         <v>-0.25602583337606394</v>
@@ -27231,11 +28848,32 @@
       </c>
       <c r="DK19" t="n">
         <v>-3.0083035421687514</v>
+      </c>
+      <c r="DL19" t="n">
+        <v>-2.6242647921046554</v>
+      </c>
+      <c r="DM19" t="n">
+        <v>-2.8802906254807192</v>
+      </c>
+      <c r="DN19" t="n">
+        <v>-2.1122131253525276</v>
+      </c>
+      <c r="DO19" t="n">
+        <v>-1.9201937503204796</v>
+      </c>
+      <c r="DP19" t="n">
+        <v>-1.8561872919764635</v>
+      </c>
+      <c r="DQ19" t="n">
+        <v>-2.6242647921046554</v>
+      </c>
+      <c r="DR19" t="n">
+        <v>-3.6483681256089113</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B20" t="n">
         <v>0.4079172611014367</v>
@@ -27578,11 +29216,32 @@
       </c>
       <c r="DK20" t="n">
         <v>-7.2405313845505015</v>
+      </c>
+      <c r="DL20" t="n">
+        <v>-5.914800285970832</v>
+      </c>
+      <c r="DM20" t="n">
+        <v>-5.710841655420114</v>
+      </c>
+      <c r="DN20" t="n">
+        <v>-5.608862340144755</v>
+      </c>
+      <c r="DO20" t="n">
+        <v>-5.098965763767959</v>
+      </c>
+      <c r="DP20" t="n">
+        <v>-4.793027817941882</v>
+      </c>
+      <c r="DQ20" t="n">
+        <v>-5.302924394318677</v>
+      </c>
+      <c r="DR20" t="n">
+        <v>-7.5464693303765795</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B21" t="n">
         <v>-0.13672794099428842</v>
@@ -27925,11 +29584,32 @@
       </c>
       <c r="DK21" t="n">
         <v>-0.7227048309698103</v>
+      </c>
+      <c r="DL21" t="n">
+        <v>-0.654340860472666</v>
+      </c>
+      <c r="DM21" t="n">
+        <v>-0.644574578973074</v>
+      </c>
+      <c r="DN21" t="n">
+        <v>-0.634808297473482</v>
+      </c>
+      <c r="DO21" t="n">
+        <v>-0.6641071419722581</v>
+      </c>
+      <c r="DP21" t="n">
+        <v>-0.6055094529747059</v>
+      </c>
+      <c r="DQ21" t="n">
+        <v>-0.6738734234718501</v>
+      </c>
+      <c r="DR21" t="n">
+        <v>-0.6836397049714421</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B22" t="n">
         <v>0.019825789465492828</v>
@@ -28272,11 +29952,32 @@
       </c>
       <c r="DK22" t="n">
         <v>-0.17182350870093785</v>
+      </c>
+      <c r="DL22" t="n">
+        <v>-0.10573754381596175</v>
+      </c>
+      <c r="DM22" t="n">
+        <v>-0.13217192976995218</v>
+      </c>
+      <c r="DN22" t="n">
+        <v>-0.11234614030445936</v>
+      </c>
+      <c r="DO22" t="n">
+        <v>-0.0726945613734737</v>
+      </c>
+      <c r="DP22" t="n">
+        <v>-0.11895473679295697</v>
+      </c>
+      <c r="DQ22" t="n">
+        <v>-0.1387805262584498</v>
+      </c>
+      <c r="DR22" t="n">
+        <v>-0.19164929816643067</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B23" t="n">
         <v>-0.0036769405729194264</v>
@@ -28619,11 +30320,32 @@
       </c>
       <c r="DK23" t="n">
         <v>-0.1103082171875828</v>
+      </c>
+      <c r="DL23" t="n">
+        <v>-0.08273116289068709</v>
+      </c>
+      <c r="DM23" t="n">
+        <v>-0.08824657375006623</v>
+      </c>
+      <c r="DN23" t="n">
+        <v>-0.06434646002608996</v>
+      </c>
+      <c r="DO23" t="n">
+        <v>-0.07353881145838853</v>
+      </c>
+      <c r="DP23" t="n">
+        <v>-0.07537728174484824</v>
+      </c>
+      <c r="DQ23" t="n">
+        <v>-0.09008504403652595</v>
+      </c>
+      <c r="DR23" t="n">
+        <v>-0.10111586575528422</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B24" t="n">
         <v>-0.5142098535641662</v>
@@ -28966,11 +30688,32 @@
       </c>
       <c r="DK24" t="n">
         <v>-4.370783755295412</v>
+      </c>
+      <c r="DL24" t="n">
+        <v>-2.185391877647706</v>
+      </c>
+      <c r="DM24" t="n">
+        <v>-2.828154194602914</v>
+      </c>
+      <c r="DN24" t="n">
+        <v>-2.2496681093432267</v>
+      </c>
+      <c r="DO24" t="n">
+        <v>-2.763877962907393</v>
+      </c>
+      <c r="DP24" t="n">
+        <v>-1.9925631825611438</v>
+      </c>
+      <c r="DQ24" t="n">
+        <v>-3.34236404816708</v>
+      </c>
+      <c r="DR24" t="n">
+        <v>-3.406640279862601</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B25" t="n">
         <v>-0.6315779947257937</v>
@@ -29313,11 +31056,32 @@
       </c>
       <c r="DK25" t="n">
         <v>-2.6947327774967196</v>
+      </c>
+      <c r="DL25" t="n">
+        <v>-2.7368379771451057</v>
+      </c>
+      <c r="DM25" t="n">
+        <v>-3.0315743746838093</v>
+      </c>
+      <c r="DN25" t="n">
+        <v>-2.7368379771451057</v>
+      </c>
+      <c r="DO25" t="n">
+        <v>-2.1052599824193123</v>
+      </c>
+      <c r="DP25" t="n">
+        <v>-2.273680781012857</v>
+      </c>
+      <c r="DQ25" t="n">
+        <v>-2.8210483764418783</v>
+      </c>
+      <c r="DR25" t="n">
+        <v>-3.073679574332196</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B26" t="n">
         <v>-0.13602300790887098</v>
@@ -29660,11 +31424,32 @@
       </c>
       <c r="DK26" t="n">
         <v>-0.36478897575560854</v>
+      </c>
+      <c r="DL26" t="n">
+        <v>-0.31532606378874634</v>
+      </c>
+      <c r="DM26" t="n">
+        <v>-0.29059460780531526</v>
+      </c>
+      <c r="DN26" t="n">
+        <v>-0.25349742383016866</v>
+      </c>
+      <c r="DO26" t="n">
+        <v>-0.2658631518218842</v>
+      </c>
+      <c r="DP26" t="n">
+        <v>-0.29059460780531526</v>
+      </c>
+      <c r="DQ26" t="n">
+        <v>-0.3957032957348974</v>
+      </c>
+      <c r="DR26" t="n">
+        <v>-0.35860611175975077</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B27" t="n">
         <v>1.9320230737634623</v>
@@ -30007,11 +31792,32 @@
       </c>
       <c r="DK27" t="n">
         <v>-15.456184590107698</v>
+      </c>
+      <c r="DL27" t="n">
+        <v>-12.23614613383526</v>
+      </c>
+      <c r="DM27" t="n">
+        <v>-13.84616536197148</v>
+      </c>
+      <c r="DN27" t="n">
+        <v>-9.982119214444555</v>
+      </c>
+      <c r="DO27" t="n">
+        <v>-7.728092295053849</v>
+      </c>
+      <c r="DP27" t="n">
+        <v>-7.728092295053849</v>
+      </c>
+      <c r="DQ27" t="n">
+        <v>-10.948130751326286</v>
+      </c>
+      <c r="DR27" t="n">
+        <v>-17.066203818243917</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B28" t="n">
         <v>0.046620129802003446</v>
@@ -30354,11 +32160,32 @@
       </c>
       <c r="DK28" t="n">
         <v>-0.09324025960400689</v>
+      </c>
+      <c r="DL28" t="n">
+        <v>-0.056980158646893105</v>
+      </c>
+      <c r="DM28" t="n">
+        <v>-0.10360028844889654</v>
+      </c>
+      <c r="DN28" t="n">
+        <v>-0.036260100957113794</v>
+      </c>
+      <c r="DO28" t="n">
+        <v>0.02072005768977931</v>
+      </c>
+      <c r="DP28" t="n">
+        <v>-0.046620129802003446</v>
+      </c>
+      <c r="DQ28" t="n">
+        <v>-0.036260100957113794</v>
+      </c>
+      <c r="DR28" t="n">
+        <v>-0.05180014422444827</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B29" t="n">
         <v>-0.9392456611843827</v>
@@ -30701,6 +32528,27 @@
       </c>
       <c r="DK29" t="n">
         <v>-51.5381733311482</v>
+      </c>
+      <c r="DL29" t="n">
+        <v>-39.888963748908516</v>
+      </c>
+      <c r="DM29" t="n">
+        <v>-42.722065148854206</v>
+      </c>
+      <c r="DN29" t="n">
+        <v>-34.83669109668177</v>
+      </c>
+      <c r="DO29" t="n">
+        <v>-32.67099672296797</v>
+      </c>
+      <c r="DP29" t="n">
+        <v>-31.230810928047404</v>
+      </c>
+      <c r="DQ29" t="n">
+        <v>-40.455136548065454</v>
+      </c>
+      <c r="DR29" t="n">
+        <v>-51.99500475766001</v>
       </c>
     </row>
   </sheetData>
@@ -31060,10 +32908,31 @@
       <c r="DK1" t="s">
         <v>113</v>
       </c>
+      <c r="DL1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B2" t="n">
         <v>0.010838805731762815</v>
@@ -31406,11 +33275,32 @@
       </c>
       <c r="DK2" t="n">
         <v>-0.15607880253738454</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>-0.14307223565926916</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>-0.13656895222021148</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>-0.09321372929316021</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>-0.1474077579519743</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>-0.14957551909832686</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>-0.14523999680562172</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>-0.1582465636837371</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B3" t="n">
         <v>-0.0722418606168763</v>
@@ -31753,11 +33643,32 @@
       </c>
       <c r="DK3" t="n">
         <v>-0.5297736445237595</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>-0.4093705434956324</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>-0.4093705434956324</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>-0.38528992329000694</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>-0.497666150916259</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>-0.3772630498881318</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>-0.5137198977200093</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>-0.5458273913275098</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B4" t="n">
         <v>0.14157627026552055</v>
@@ -32099,12 +34010,33 @@
         <v>-0.12741864323896848</v>
       </c>
       <c r="DK4" t="n">
+        <v>-0.3114677945841452</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>-0.22652203242483288</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>-0.25483728647793696</v>
+      </c>
+      <c r="DN4" t="n">
+        <v>-0.25483728647793696</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>-0.4672016918762178</v>
+      </c>
+      <c r="DP4" t="n">
+        <v>-0.24067965945138492</v>
+      </c>
+      <c r="DQ4" t="n">
+        <v>-0.25483728647793696</v>
+      </c>
+      <c r="DR4" t="n">
         <v>-0.3114677945841452</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B5" t="n">
         <v>-0.007054140200961763</v>
@@ -32447,11 +34379,32 @@
       </c>
       <c r="DK5" t="n">
         <v>-0.15283970435417155</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>-0.14578556415320978</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>-0.13873142395224802</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>-0.1340286638182735</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>-0.12462314355032449</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>-0.14108280401923526</v>
+      </c>
+      <c r="DQ5" t="n">
+        <v>-0.1645966046891078</v>
+      </c>
+      <c r="DR5" t="n">
+        <v>-0.13873142395224802</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -32794,11 +34747,32 @@
       </c>
       <c r="DK6" t="n">
         <v>-2.6934158122818985</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>-2.0812758549451034</v>
+      </c>
+      <c r="DM6" t="n">
+        <v>-2.162894515923343</v>
+      </c>
+      <c r="DN6" t="n">
+        <v>-1.999657193966864</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>-2.6526064817927786</v>
+      </c>
+      <c r="DP6" t="n">
+        <v>-2.040466524455984</v>
+      </c>
+      <c r="DQ6" t="n">
+        <v>-2.2853225073907018</v>
+      </c>
+      <c r="DR6" t="n">
+        <v>-2.6526064817927786</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B7" t="n">
         <v>0.02246441221447501</v>
@@ -33141,11 +35115,32 @@
       </c>
       <c r="DK7" t="n">
         <v>-1.3703291450829755</v>
+      </c>
+      <c r="DL7" t="n">
+        <v>-1.1007561985092755</v>
+      </c>
+      <c r="DM7" t="n">
+        <v>-1.1007561985092755</v>
+      </c>
+      <c r="DN7" t="n">
+        <v>-1.0558273740803255</v>
+      </c>
+      <c r="DO7" t="n">
+        <v>-1.1906138473671755</v>
+      </c>
+      <c r="DP7" t="n">
+        <v>-1.0558273740803255</v>
+      </c>
+      <c r="DQ7" t="n">
+        <v>-1.1007561985092755</v>
+      </c>
+      <c r="DR7" t="n">
+        <v>-1.2355426717961255</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B8" t="n">
         <v>0.2973366552325812</v>
@@ -33488,11 +35483,32 @@
       </c>
       <c r="DK8" t="n">
         <v>-1.0035112114099616</v>
+      </c>
+      <c r="DL8" t="n">
+        <v>-1.2636807847384701</v>
+      </c>
+      <c r="DM8" t="n">
+        <v>-1.2265137028343973</v>
+      </c>
+      <c r="DN8" t="n">
+        <v>-1.1150124571221793</v>
+      </c>
+      <c r="DO8" t="n">
+        <v>-1.6725186856832692</v>
+      </c>
+      <c r="DP8" t="n">
+        <v>-1.2265137028343973</v>
+      </c>
+      <c r="DQ8" t="n">
+        <v>-1.1150124571221793</v>
+      </c>
+      <c r="DR8" t="n">
+        <v>-1.1150124571221793</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B9" t="n">
         <v>-0.017218041926451627</v>
@@ -33835,11 +35851,32 @@
       </c>
       <c r="DK9" t="n">
         <v>-1.067518599440001</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>-0.7748118866903232</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>-0.7920299286167749</v>
+      </c>
+      <c r="DN9" t="n">
+        <v>-0.7059397189845167</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>-1.1019546832929041</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>-0.7920299286167749</v>
+      </c>
+      <c r="DQ9" t="n">
+        <v>-0.878120138249033</v>
+      </c>
+      <c r="DR9" t="n">
+        <v>-0.9469923059548395</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B10" t="n">
         <v>0.11659692597434888</v>
@@ -34182,11 +36219,32 @@
       </c>
       <c r="DK10" t="n">
         <v>-0.5538353983781572</v>
+      </c>
+      <c r="DL10" t="n">
+        <v>-0.5538353983781572</v>
+      </c>
+      <c r="DM10" t="n">
+        <v>-0.49553693539098276</v>
+      </c>
+      <c r="DN10" t="n">
+        <v>-0.4372384724038083</v>
+      </c>
+      <c r="DO10" t="n">
+        <v>-0.9619246392883782</v>
+      </c>
+      <c r="DP10" t="n">
+        <v>-0.6412830928589188</v>
+      </c>
+      <c r="DQ10" t="n">
+        <v>-0.6995815558460933</v>
+      </c>
+      <c r="DR10" t="n">
+        <v>-0.7287307873396806</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B11" t="n">
         <v>-0.09519047841981614</v>
@@ -34529,11 +36587,32 @@
       </c>
       <c r="DK11" t="n">
         <v>-0.7615238273585291</v>
+      </c>
+      <c r="DL11" t="n">
+        <v>-0.6663333489387129</v>
+      </c>
+      <c r="DM11" t="n">
+        <v>-0.5711428705188968</v>
+      </c>
+      <c r="DN11" t="n">
+        <v>-0.5575442307446373</v>
+      </c>
+      <c r="DO11" t="n">
+        <v>-0.6799319887129723</v>
+      </c>
+      <c r="DP11" t="n">
+        <v>-0.6255374296159346</v>
+      </c>
+      <c r="DQ11" t="n">
+        <v>-0.6527347091644535</v>
+      </c>
+      <c r="DR11" t="n">
+        <v>-0.7071292682614913</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B12" t="n">
         <v>0.8752409696566255</v>
@@ -34875,12 +36954,33 @@
         <v>-2.275626521107226</v>
       </c>
       <c r="DK12" t="n">
+        <v>-3.3259156846951767</v>
+      </c>
+      <c r="DL12" t="n">
+        <v>-2.4506747150385513</v>
+      </c>
+      <c r="DM12" t="n">
+        <v>-2.4506747150385513</v>
+      </c>
+      <c r="DN12" t="n">
+        <v>-1.925530133244576</v>
+      </c>
+      <c r="DO12" t="n">
+        <v>-4.46372894524879</v>
+      </c>
+      <c r="DP12" t="n">
+        <v>-2.5381988120042136</v>
+      </c>
+      <c r="DQ12" t="n">
+        <v>-2.8007711029012015</v>
+      </c>
+      <c r="DR12" t="n">
         <v>-3.3259156846951767</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B13" t="n">
         <v>0.02927769268927327</v>
@@ -35222,12 +37322,33 @@
         <v>-0.39524885130518916</v>
       </c>
       <c r="DK13" t="n">
+        <v>-0.5855538537854654</v>
+      </c>
+      <c r="DL13" t="n">
+        <v>-0.38061000496055253</v>
+      </c>
+      <c r="DM13" t="n">
+        <v>-0.4098876976498258</v>
+      </c>
+      <c r="DN13" t="n">
+        <v>-0.3366934659266426</v>
+      </c>
+      <c r="DO13" t="n">
+        <v>-0.7173034708871951</v>
+      </c>
+      <c r="DP13" t="n">
+        <v>-0.42452654399446244</v>
+      </c>
+      <c r="DQ13" t="n">
+        <v>-0.4977207757176456</v>
+      </c>
+      <c r="DR13" t="n">
         <v>-0.5855538537854654</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -35570,11 +37691,32 @@
       </c>
       <c r="DK14" t="n">
         <v>-0.6741549398298746</v>
+      </c>
+      <c r="DL14" t="n">
+        <v>-0.6163702307015997</v>
+      </c>
+      <c r="DM14" t="n">
+        <v>-0.6356318004110246</v>
+      </c>
+      <c r="DN14" t="n">
+        <v>-0.5008008124450497</v>
+      </c>
+      <c r="DO14" t="n">
+        <v>-0.9438169157618245</v>
+      </c>
+      <c r="DP14" t="n">
+        <v>-0.6548933701204497</v>
+      </c>
+      <c r="DQ14" t="n">
+        <v>-0.6934165095392997</v>
+      </c>
+      <c r="DR14" t="n">
+        <v>-0.7897243580864246</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B15" t="n">
         <v>0.14144418998755381</v>
@@ -35917,11 +38059,32 @@
       </c>
       <c r="DK15" t="n">
         <v>-1.320145773217169</v>
+      </c>
+      <c r="DL15" t="n">
+        <v>-0.8958132032545075</v>
+      </c>
+      <c r="DM15" t="n">
+        <v>-0.9193872349190998</v>
+      </c>
+      <c r="DN15" t="n">
+        <v>-0.8250911082607306</v>
+      </c>
+      <c r="DO15" t="n">
+        <v>-1.1551275515650228</v>
+      </c>
+      <c r="DP15" t="n">
+        <v>-0.9193872349190998</v>
+      </c>
+      <c r="DQ15" t="n">
+        <v>-1.013683361577469</v>
+      </c>
+      <c r="DR15" t="n">
+        <v>-1.2729977098879843</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B16" t="n">
         <v>0.05685896731819608</v>
@@ -36264,11 +38427,32 @@
       </c>
       <c r="DK16" t="n">
         <v>-0.5591131786289281</v>
+      </c>
+      <c r="DL16" t="n">
+        <v>-0.5401601895228627</v>
+      </c>
+      <c r="DM16" t="n">
+        <v>-0.53068369496983</v>
+      </c>
+      <c r="DN16" t="n">
+        <v>-0.5496366840758954</v>
+      </c>
+      <c r="DO16" t="n">
+        <v>-0.5401601895228627</v>
+      </c>
+      <c r="DP16" t="n">
+        <v>-0.502254211310732</v>
+      </c>
+      <c r="DQ16" t="n">
+        <v>-0.502254211310732</v>
+      </c>
+      <c r="DR16" t="n">
+        <v>-0.6064956513940915</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B17" t="n">
         <v>0.1930416092712577</v>
@@ -36611,11 +38795,32 @@
       </c>
       <c r="DK17" t="n">
         <v>-1.351291264898804</v>
+      </c>
+      <c r="DL17" t="n">
+        <v>-1.0203627918623621</v>
+      </c>
+      <c r="DM17" t="n">
+        <v>-1.1030949101214726</v>
+      </c>
+      <c r="DN17" t="n">
+        <v>-1.0203627918623621</v>
+      </c>
+      <c r="DO17" t="n">
+        <v>-1.1306722828745095</v>
+      </c>
+      <c r="DP17" t="n">
+        <v>-0.9376306736032518</v>
+      </c>
+      <c r="DQ17" t="n">
+        <v>-1.047940164615399</v>
+      </c>
+      <c r="DR17" t="n">
+        <v>-1.3788686376518409</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B18" t="n">
         <v>-0.062009381542533513</v>
@@ -36958,11 +39163,32 @@
       </c>
       <c r="DK18" t="n">
         <v>-0.5029649836227719</v>
+      </c>
+      <c r="DL18" t="n">
+        <v>-0.4340656707977346</v>
+      </c>
+      <c r="DM18" t="n">
+        <v>-0.447845533362742</v>
+      </c>
+      <c r="DN18" t="n">
+        <v>-0.447845533362742</v>
+      </c>
+      <c r="DO18" t="n">
+        <v>-0.4891851210577644</v>
+      </c>
+      <c r="DP18" t="n">
+        <v>-0.4547354646452458</v>
+      </c>
+      <c r="DQ18" t="n">
+        <v>-0.48229518977526065</v>
+      </c>
+      <c r="DR18" t="n">
+        <v>-0.4891851210577644</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B19" t="n">
         <v>0.4480452084081119</v>
@@ -37305,11 +39531,32 @@
       </c>
       <c r="DK19" t="n">
         <v>-2.496251875416623</v>
+      </c>
+      <c r="DL19" t="n">
+        <v>-1.9842002086644954</v>
+      </c>
+      <c r="DM19" t="n">
+        <v>-2.1122131253525276</v>
+      </c>
+      <c r="DN19" t="n">
+        <v>-1.9201937503204796</v>
+      </c>
+      <c r="DO19" t="n">
+        <v>-3.6483681256089113</v>
+      </c>
+      <c r="DP19" t="n">
+        <v>-1.9842002086644954</v>
+      </c>
+      <c r="DQ19" t="n">
+        <v>-2.1122131253525276</v>
+      </c>
+      <c r="DR19" t="n">
+        <v>-2.6882712504486714</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B20" t="n">
         <v>1.3257310985796693</v>
@@ -37652,11 +39899,32 @@
       </c>
       <c r="DK20" t="n">
         <v>-4.793027817941882</v>
+      </c>
+      <c r="DL20" t="n">
+        <v>-4.283131241565085</v>
+      </c>
+      <c r="DM20" t="n">
+        <v>-4.589069187391163</v>
+      </c>
+      <c r="DN20" t="n">
+        <v>-4.1811519262897265</v>
+      </c>
+      <c r="DO20" t="n">
+        <v>-6.22073823179691</v>
+      </c>
+      <c r="DP20" t="n">
+        <v>-3.977193295739008</v>
+      </c>
+      <c r="DQ20" t="n">
+        <v>-4.079172611014367</v>
+      </c>
+      <c r="DR20" t="n">
+        <v>-4.9969864484926</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B21" t="n">
         <v>-0.00976628149959203</v>
@@ -37999,11 +40267,32 @@
       </c>
       <c r="DK21" t="n">
         <v>-0.5664443269763378</v>
+      </c>
+      <c r="DL21" t="n">
+        <v>-0.42971638598204936</v>
+      </c>
+      <c r="DM21" t="n">
+        <v>-0.45901523048082543</v>
+      </c>
+      <c r="DN21" t="n">
+        <v>-0.4492489489812334</v>
+      </c>
+      <c r="DO21" t="n">
+        <v>-0.634808297473482</v>
+      </c>
+      <c r="DP21" t="n">
+        <v>-0.5371454824775617</v>
+      </c>
+      <c r="DQ21" t="n">
+        <v>-0.4980803564791936</v>
+      </c>
+      <c r="DR21" t="n">
+        <v>-0.5566780454767457</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B22" t="n">
         <v>0.0</v>
@@ -38346,11 +40635,32 @@
       </c>
       <c r="DK22" t="n">
         <v>-0.44938456121783743</v>
+      </c>
+      <c r="DL22" t="n">
+        <v>-0.38990719282135894</v>
+      </c>
+      <c r="DM22" t="n">
+        <v>-0.39651578930985654</v>
+      </c>
+      <c r="DN22" t="n">
+        <v>-0.38990719282135894</v>
+      </c>
+      <c r="DO22" t="n">
+        <v>-0.4626017541948326</v>
+      </c>
+      <c r="DP22" t="n">
+        <v>-0.4295587717523446</v>
+      </c>
+      <c r="DQ22" t="n">
+        <v>-0.4361673682408422</v>
+      </c>
+      <c r="DR22" t="n">
+        <v>-0.4758189471718279</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B23" t="n">
         <v>-0.005515410859379139</v>
@@ -38693,11 +41003,32 @@
       </c>
       <c r="DK23" t="n">
         <v>-0.11214668747404251</v>
+      </c>
+      <c r="DL23" t="n">
+        <v>-0.09192351432298566</v>
+      </c>
+      <c r="DM23" t="n">
+        <v>-0.10295433604174394</v>
+      </c>
+      <c r="DN23" t="n">
+        <v>-0.08640810346360651</v>
+      </c>
+      <c r="DO23" t="n">
+        <v>-0.1103082171875828</v>
+      </c>
+      <c r="DP23" t="n">
+        <v>-0.09560045489590509</v>
+      </c>
+      <c r="DQ23" t="n">
+        <v>-0.10663127661466336</v>
+      </c>
+      <c r="DR23" t="n">
+        <v>-0.11766209833342164</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B24" t="n">
         <v>0.1928286950865623</v>
@@ -39040,11 +41371,32 @@
       </c>
       <c r="DK24" t="n">
         <v>-3.278087816471559</v>
+      </c>
+      <c r="DL24" t="n">
+        <v>-1.9925631825611438</v>
+      </c>
+      <c r="DM24" t="n">
+        <v>-2.1211156459521856</v>
+      </c>
+      <c r="DN24" t="n">
+        <v>-1.928286950865623</v>
+      </c>
+      <c r="DO24" t="n">
+        <v>-3.7280214383402046</v>
+      </c>
+      <c r="DP24" t="n">
+        <v>-2.185391877647706</v>
+      </c>
+      <c r="DQ24" t="n">
+        <v>-2.5710492678208308</v>
+      </c>
+      <c r="DR24" t="n">
+        <v>-2.828154194602914</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B25" t="n">
         <v>-0.04210519964838624</v>
@@ -39387,11 +41739,32 @@
       </c>
       <c r="DK25" t="n">
         <v>-2.35789118030963</v>
+      </c>
+      <c r="DL25" t="n">
+        <v>-2.399996379958016</v>
+      </c>
+      <c r="DM25" t="n">
+        <v>-2.442101579606402</v>
+      </c>
+      <c r="DN25" t="n">
+        <v>-2.399996379958016</v>
+      </c>
+      <c r="DO25" t="n">
+        <v>-2.8631535760902644</v>
+      </c>
+      <c r="DP25" t="n">
+        <v>-2.35789118030963</v>
+      </c>
+      <c r="DQ25" t="n">
+        <v>-2.35789118030963</v>
+      </c>
+      <c r="DR25" t="n">
+        <v>-2.568417178551561</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B26" t="n">
         <v>-0.06801150395443549</v>
@@ -39734,11 +42107,32 @@
       </c>
       <c r="DK26" t="n">
         <v>-0.4760805276810484</v>
+      </c>
+      <c r="DL26" t="n">
+        <v>-0.36478897575560854</v>
+      </c>
+      <c r="DM26" t="n">
+        <v>-0.34624038376803523</v>
+      </c>
+      <c r="DN26" t="n">
+        <v>-0.33387465577631964</v>
+      </c>
+      <c r="DO26" t="n">
+        <v>-0.45134907169761734</v>
+      </c>
+      <c r="DP26" t="n">
+        <v>-0.35860611175975077</v>
+      </c>
+      <c r="DQ26" t="n">
+        <v>-0.42043475171832845</v>
+      </c>
+      <c r="DR26" t="n">
+        <v>-0.4575319356934751</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B27" t="n">
         <v>3.5420423018996807</v>
@@ -40081,11 +42475,32 @@
       </c>
       <c r="DK27" t="n">
         <v>-14.168169207598723</v>
+      </c>
+      <c r="DL27" t="n">
+        <v>-14.168169207598723</v>
+      </c>
+      <c r="DM27" t="n">
+        <v>-14.490173053225966</v>
+      </c>
+      <c r="DN27" t="n">
+        <v>-13.524161516344236</v>
+      </c>
+      <c r="DO27" t="n">
+        <v>-15.134180744480455</v>
+      </c>
+      <c r="DP27" t="n">
+        <v>-13.202157670716993</v>
+      </c>
+      <c r="DQ27" t="n">
+        <v>-12.23614613383526</v>
+      </c>
+      <c r="DR27" t="n">
+        <v>-15.456184590107698</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B28" t="n">
         <v>-0.031080086534668965</v>
@@ -40428,11 +42843,32 @@
       </c>
       <c r="DK28" t="n">
         <v>-0.29526082207935517</v>
+      </c>
+      <c r="DL28" t="n">
+        <v>-0.22274062016512758</v>
+      </c>
+      <c r="DM28" t="n">
+        <v>-0.21756060574268277</v>
+      </c>
+      <c r="DN28" t="n">
+        <v>-0.20202056247534828</v>
+      </c>
+      <c r="DO28" t="n">
+        <v>-0.25382070669979656</v>
+      </c>
+      <c r="DP28" t="n">
+        <v>-0.23310064901001723</v>
+      </c>
+      <c r="DQ28" t="n">
+        <v>-0.2590007211222414</v>
+      </c>
+      <c r="DR28" t="n">
+        <v>-0.2849007932344655</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B29" t="n">
         <v>6.983131417112518</v>
@@ -40775,6 +43211,27 @@
       </c>
       <c r="DK29" t="n">
         <v>-45.912178441796215</v>
+      </c>
+      <c r="DL29" t="n">
+        <v>-40.03063756346575</v>
+      </c>
+      <c r="DM29" t="n">
+        <v>-41.06254688128364</v>
+      </c>
+      <c r="DN29" t="n">
+        <v>-37.75979956665566</v>
+      </c>
+      <c r="DO29" t="n">
+        <v>-52.44379371092028</v>
+      </c>
+      <c r="DP29" t="n">
+        <v>-39.08273109849028</v>
+      </c>
+      <c r="DQ29" t="n">
+        <v>-39.9247894599193</v>
+      </c>
+      <c r="DR29" t="n">
+        <v>-47.419633644486865</v>
       </c>
     </row>
   </sheetData>
@@ -41134,10 +43591,31 @@
       <c r="DK1" t="s">
         <v>113</v>
       </c>
+      <c r="DL1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B2" t="n">
         <v>0.010838805731762815</v>
@@ -41480,11 +43958,32 @@
       </c>
       <c r="DK2" t="n">
         <v>-0.023845372609878193</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>-0.04552298407340383</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>-0.05202626751246152</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>-0.047690745219756386</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>-0.09754925158586535</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>-0.0585295509515192</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>-0.023845372609878193</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>-0.017342089170820505</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B3" t="n">
         <v>0.008026873401875145</v>
@@ -41827,11 +44326,32 @@
       </c>
       <c r="DK3" t="n">
         <v>-0.12040310102812717</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>-0.2327793286543792</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>-0.2488330754581295</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>-0.22475245525250404</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>-0.4093705434956324</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>-0.20869870844875377</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>-0.16856434143937804</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>-0.1284299744300023</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B4" t="n">
         <v>0.08494576215931232</v>
@@ -42174,11 +44694,32 @@
       </c>
       <c r="DK4" t="n">
         <v>-0.02831525405310411</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>-0.22652203242483288</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>-0.24067965945138492</v>
+      </c>
+      <c r="DN4" t="n">
+        <v>-0.24067965945138492</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>-0.6512508432213945</v>
+      </c>
+      <c r="DP4" t="n">
+        <v>-0.3539406756638014</v>
+      </c>
+      <c r="DQ4" t="n">
+        <v>-0.09910338918586438</v>
+      </c>
+      <c r="DR4" t="n">
+        <v>0.04247288107965616</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B5" t="n">
         <v>0.009405520267949018</v>
@@ -42521,11 +45062,32 @@
       </c>
       <c r="DK5" t="n">
         <v>-0.025865180736859797</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>-0.08464968241154117</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>-0.08464968241154117</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>-0.08935244254551566</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>-0.12227176348333724</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>-0.08700106247852842</v>
+      </c>
+      <c r="DQ5" t="n">
+        <v>-0.04702760133974509</v>
+      </c>
+      <c r="DR5" t="n">
+        <v>-0.009405520267949018</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B6" t="n">
         <v>0.20404665244559836</v>
@@ -42868,11 +45430,32 @@
       </c>
       <c r="DK6" t="n">
         <v>-0.5713306268476754</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>-0.9794239317388722</v>
+      </c>
+      <c r="DM6" t="n">
+        <v>-1.0610425927171114</v>
+      </c>
+      <c r="DN6" t="n">
+        <v>-0.9386146012497525</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>-1.9588478634777444</v>
+      </c>
+      <c r="DP6" t="n">
+        <v>-1.020233262227992</v>
+      </c>
+      <c r="DQ6" t="n">
+        <v>-0.7753772792932738</v>
+      </c>
+      <c r="DR6" t="n">
+        <v>-0.4489026353803164</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B7" t="n">
         <v>0.08985764885790004</v>
@@ -43215,11 +45798,32 @@
       </c>
       <c r="DK7" t="n">
         <v>-0.31450177100265014</v>
+      </c>
+      <c r="DL7" t="n">
+        <v>-0.6739323664342503</v>
+      </c>
+      <c r="DM7" t="n">
+        <v>-0.7413256030776754</v>
+      </c>
+      <c r="DN7" t="n">
+        <v>-0.7413256030776754</v>
+      </c>
+      <c r="DO7" t="n">
+        <v>-0.9435053130079505</v>
+      </c>
+      <c r="DP7" t="n">
+        <v>-0.6963967786487253</v>
+      </c>
+      <c r="DQ7" t="n">
+        <v>-0.4043594198605502</v>
+      </c>
+      <c r="DR7" t="n">
+        <v>-0.13478647328685006</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B8" t="n">
         <v>0.2973366552325812</v>
@@ -43562,11 +46166,32 @@
       </c>
       <c r="DK8" t="n">
         <v>-0.03716708190407265</v>
+      </c>
+      <c r="DL8" t="n">
+        <v>-1.1150124571221793</v>
+      </c>
+      <c r="DM8" t="n">
+        <v>-1.1521795390262521</v>
+      </c>
+      <c r="DN8" t="n">
+        <v>-1.1150124571221793</v>
+      </c>
+      <c r="DO8" t="n">
+        <v>-2.3043590780525043</v>
+      </c>
+      <c r="DP8" t="n">
+        <v>-1.1893466209303247</v>
+      </c>
+      <c r="DQ8" t="n">
+        <v>-0.2973366552325812</v>
+      </c>
+      <c r="DR8" t="n">
+        <v>0.03716708190407265</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B9" t="n">
         <v>0.12052629348516139</v>
@@ -43909,11 +46534,32 @@
       </c>
       <c r="DK9" t="n">
         <v>-0.20661650311741953</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>-0.27548867082322603</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>-0.29270671274967763</v>
+      </c>
+      <c r="DN9" t="n">
+        <v>-0.29270671274967763</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>-0.9642103478812911</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>-0.4476690900877423</v>
+      </c>
+      <c r="DQ9" t="n">
+        <v>-0.20661650311741953</v>
+      </c>
+      <c r="DR9" t="n">
+        <v>-0.13774433541161302</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B10" t="n">
         <v>0.23319385194869777</v>
@@ -44256,11 +46902,32 @@
       </c>
       <c r="DK10" t="n">
         <v>0.11659692597434888</v>
+      </c>
+      <c r="DL10" t="n">
+        <v>-0.26234308344228496</v>
+      </c>
+      <c r="DM10" t="n">
+        <v>-0.4080892409102211</v>
+      </c>
+      <c r="DN10" t="n">
+        <v>-0.4080892409102211</v>
+      </c>
+      <c r="DO10" t="n">
+        <v>-1.57405850065371</v>
+      </c>
+      <c r="DP10" t="n">
+        <v>-0.6412830928589188</v>
+      </c>
+      <c r="DQ10" t="n">
+        <v>-0.20404462045511054</v>
+      </c>
+      <c r="DR10" t="n">
+        <v>0.08744769448076166</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B11" t="n">
         <v>0.027197279548518895</v>
@@ -44603,11 +47270,32 @@
       </c>
       <c r="DK11" t="n">
         <v>-0.040795919322778346</v>
+      </c>
+      <c r="DL11" t="n">
+        <v>-0.27197279548518893</v>
+      </c>
+      <c r="DM11" t="n">
+        <v>-0.27197279548518893</v>
+      </c>
+      <c r="DN11" t="n">
+        <v>-0.2855714352594484</v>
+      </c>
+      <c r="DO11" t="n">
+        <v>-0.5031496716475996</v>
+      </c>
+      <c r="DP11" t="n">
+        <v>-0.2855714352594484</v>
+      </c>
+      <c r="DQ11" t="n">
+        <v>-0.12238775796833502</v>
+      </c>
+      <c r="DR11" t="n">
+        <v>0.013598639774259447</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B12" t="n">
         <v>0.7001927757253004</v>
@@ -44950,11 +47638,32 @@
       </c>
       <c r="DK12" t="n">
         <v>-0.26257229089698764</v>
+      </c>
+      <c r="DL12" t="n">
+        <v>-0.962765066622288</v>
+      </c>
+      <c r="DM12" t="n">
+        <v>-1.2253373575192756</v>
+      </c>
+      <c r="DN12" t="n">
+        <v>-1.137813260553613</v>
+      </c>
+      <c r="DO12" t="n">
+        <v>-4.726301236145778</v>
+      </c>
+      <c r="DP12" t="n">
+        <v>-2.0130542302102388</v>
+      </c>
+      <c r="DQ12" t="n">
+        <v>-0.7877168726909629</v>
+      </c>
+      <c r="DR12" t="n">
+        <v>0.08752409696566255</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B13" t="n">
         <v>0.07319423172318318</v>
@@ -45297,11 +48006,32 @@
       </c>
       <c r="DK13" t="n">
         <v>0.10247192441245645</v>
+      </c>
+      <c r="DL13" t="n">
+        <v>-0.014638846344636636</v>
+      </c>
+      <c r="DM13" t="n">
+        <v>-0.04391653903390991</v>
+      </c>
+      <c r="DN13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO13" t="n">
+        <v>-0.6880257781979219</v>
+      </c>
+      <c r="DP13" t="n">
+        <v>-0.21958269516954954</v>
+      </c>
+      <c r="DQ13" t="n">
+        <v>-0.10247192441245645</v>
+      </c>
+      <c r="DR13" t="n">
+        <v>0.11711077075709309</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B14" t="n">
         <v>0.05778470912827497</v>
@@ -45644,11 +48374,32 @@
       </c>
       <c r="DK14" t="n">
         <v>0.05778470912827497</v>
+      </c>
+      <c r="DL14" t="n">
+        <v>-0.11556941825654994</v>
+      </c>
+      <c r="DM14" t="n">
+        <v>-0.13483098796597492</v>
+      </c>
+      <c r="DN14" t="n">
+        <v>-0.13483098796597492</v>
+      </c>
+      <c r="DO14" t="n">
+        <v>-1.0208631945995246</v>
+      </c>
+      <c r="DP14" t="n">
+        <v>-0.28892354564137485</v>
+      </c>
+      <c r="DQ14" t="n">
+        <v>-0.15409255767539992</v>
+      </c>
+      <c r="DR14" t="n">
+        <v>0.03852313941884998</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B15" t="n">
         <v>0.11787015832296152</v>
@@ -45991,11 +48742,32 @@
       </c>
       <c r="DK15" t="n">
         <v>-0.07072209499377691</v>
+      </c>
+      <c r="DL15" t="n">
+        <v>-0.37718450663347686</v>
+      </c>
+      <c r="DM15" t="n">
+        <v>-0.4714806332918461</v>
+      </c>
+      <c r="DN15" t="n">
+        <v>-0.44790660162725376</v>
+      </c>
+      <c r="DO15" t="n">
+        <v>-1.1079794882358383</v>
+      </c>
+      <c r="DP15" t="n">
+        <v>-0.49505466495643835</v>
+      </c>
+      <c r="DQ15" t="n">
+        <v>-0.16501822165214614</v>
+      </c>
+      <c r="DR15" t="n">
+        <v>0.023574031664592304</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B16" t="n">
         <v>0.037905978212130716</v>
@@ -46338,11 +49110,32 @@
       </c>
       <c r="DK16" t="n">
         <v>-0.12319442918942483</v>
+      </c>
+      <c r="DL16" t="n">
+        <v>-0.2748183420379477</v>
+      </c>
+      <c r="DM16" t="n">
+        <v>-0.29377133114401305</v>
+      </c>
+      <c r="DN16" t="n">
+        <v>-0.3032478256970457</v>
+      </c>
+      <c r="DO16" t="n">
+        <v>-0.4074892657804052</v>
+      </c>
+      <c r="DP16" t="n">
+        <v>-0.265341847484915</v>
+      </c>
+      <c r="DQ16" t="n">
+        <v>-0.16110040740155554</v>
+      </c>
+      <c r="DR16" t="n">
+        <v>-0.09476494553032679</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B17" t="n">
         <v>0.13788686376518408</v>
@@ -46685,11 +49478,32 @@
       </c>
       <c r="DK17" t="n">
         <v>-0.4136605912955522</v>
+      </c>
+      <c r="DL17" t="n">
+        <v>-0.7721664370850309</v>
+      </c>
+      <c r="DM17" t="n">
+        <v>-0.8273211825911044</v>
+      </c>
+      <c r="DN17" t="n">
+        <v>-0.7997438098380677</v>
+      </c>
+      <c r="DO17" t="n">
+        <v>-1.0755175373684358</v>
+      </c>
+      <c r="DP17" t="n">
+        <v>-0.744589064331994</v>
+      </c>
+      <c r="DQ17" t="n">
+        <v>-0.44123796404858906</v>
+      </c>
+      <c r="DR17" t="n">
+        <v>-0.35850584578947864</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B18" t="n">
         <v>0.02066979384751117</v>
@@ -47032,11 +49846,32 @@
       </c>
       <c r="DK18" t="n">
         <v>-0.04133958769502234</v>
+      </c>
+      <c r="DL18" t="n">
+        <v>-0.17913821334509683</v>
+      </c>
+      <c r="DM18" t="n">
+        <v>-0.199808007192608</v>
+      </c>
+      <c r="DN18" t="n">
+        <v>-0.199808007192608</v>
+      </c>
+      <c r="DO18" t="n">
+        <v>-0.2618173887351415</v>
+      </c>
+      <c r="DP18" t="n">
+        <v>-0.18602814462760053</v>
+      </c>
+      <c r="DQ18" t="n">
+        <v>-0.11023890052005958</v>
+      </c>
+      <c r="DR18" t="n">
+        <v>-0.05511945026002979</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B19" t="n">
         <v>0.38403875006409594</v>
@@ -47378,12 +50213,33 @@
         <v>-0.3200322917200799</v>
       </c>
       <c r="DK19" t="n">
+        <v>0.12801291668803197</v>
+      </c>
+      <c r="DL19" t="n">
+        <v>-0.5120516667521279</v>
+      </c>
+      <c r="DM19" t="n">
+        <v>-0.7680775001281919</v>
+      </c>
+      <c r="DN19" t="n">
+        <v>-0.7040710417841758</v>
+      </c>
+      <c r="DO19" t="n">
+        <v>-3.840387500640959</v>
+      </c>
+      <c r="DP19" t="n">
+        <v>-1.2161227085363038</v>
+      </c>
+      <c r="DQ19" t="n">
+        <v>-0.3200322917200799</v>
+      </c>
+      <c r="DR19" t="n">
         <v>0.12801291668803197</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B20" t="n">
         <v>0.6118758916521551</v>
@@ -47725,12 +50581,33 @@
         <v>-1.733648359681106</v>
       </c>
       <c r="DK20" t="n">
+        <v>-1.4277104138550285</v>
+      </c>
+      <c r="DL20" t="n">
+        <v>-2.855420827710057</v>
+      </c>
+      <c r="DM20" t="n">
+        <v>-3.263338088811494</v>
+      </c>
+      <c r="DN20" t="n">
+        <v>-3.1613587735361346</v>
+      </c>
+      <c r="DO20" t="n">
+        <v>-5.608862340144755</v>
+      </c>
+      <c r="DP20" t="n">
+        <v>-3.263338088811494</v>
+      </c>
+      <c r="DQ20" t="n">
+        <v>-1.5296897291303877</v>
+      </c>
+      <c r="DR20" t="n">
         <v>-1.4277104138550285</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B21" t="n">
         <v>0.05859768899755219</v>
@@ -48073,11 +50950,32 @@
       </c>
       <c r="DK21" t="n">
         <v>-0.1855593484922486</v>
+      </c>
+      <c r="DL21" t="n">
+        <v>-0.27345588198857684</v>
+      </c>
+      <c r="DM21" t="n">
+        <v>-0.29298844498776094</v>
+      </c>
+      <c r="DN21" t="n">
+        <v>-0.29298844498776094</v>
+      </c>
+      <c r="DO21" t="n">
+        <v>-0.5664443269763378</v>
+      </c>
+      <c r="DP21" t="n">
+        <v>-0.4492489489812334</v>
+      </c>
+      <c r="DQ21" t="n">
+        <v>-0.21485819299102468</v>
+      </c>
+      <c r="DR21" t="n">
+        <v>-0.13672794099428842</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B22" t="n">
         <v>0.039651578930985656</v>
@@ -48420,11 +51318,32 @@
       </c>
       <c r="DK22" t="n">
         <v>-0.026434385953990436</v>
+      </c>
+      <c r="DL22" t="n">
+        <v>-0.10573754381596175</v>
+      </c>
+      <c r="DM22" t="n">
+        <v>-0.11895473679295697</v>
+      </c>
+      <c r="DN22" t="n">
+        <v>-0.12556333328145458</v>
+      </c>
+      <c r="DO22" t="n">
+        <v>-0.32382122793638285</v>
+      </c>
+      <c r="DP22" t="n">
+        <v>-0.1453891227469474</v>
+      </c>
+      <c r="DQ22" t="n">
+        <v>-0.07930315786197131</v>
+      </c>
+      <c r="DR22" t="n">
+        <v>-0.019825789465492828</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B23" t="n">
         <v>0.011030821718758278</v>
@@ -48767,11 +51686,32 @@
       </c>
       <c r="DK23" t="n">
         <v>-0.016546232578137417</v>
+      </c>
+      <c r="DL23" t="n">
+        <v>-0.03125399486981512</v>
+      </c>
+      <c r="DM23" t="n">
+        <v>-0.03860787601565398</v>
+      </c>
+      <c r="DN23" t="n">
+        <v>-0.036769405729194266</v>
+      </c>
+      <c r="DO23" t="n">
+        <v>-0.08640810346360651</v>
+      </c>
+      <c r="DP23" t="n">
+        <v>-0.049638697734412256</v>
+      </c>
+      <c r="DQ23" t="n">
+        <v>-0.016546232578137417</v>
+      </c>
+      <c r="DR23" t="n">
+        <v>-0.007353881145838853</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B24" t="n">
         <v>0.12855246339104154</v>
@@ -49114,11 +52054,32 @@
       </c>
       <c r="DK24" t="n">
         <v>-0.3856573901731246</v>
+      </c>
+      <c r="DL24" t="n">
+        <v>-0.7070385486507285</v>
+      </c>
+      <c r="DM24" t="n">
+        <v>-0.83559101204177</v>
+      </c>
+      <c r="DN24" t="n">
+        <v>-0.83559101204177</v>
+      </c>
+      <c r="DO24" t="n">
+        <v>-3.856573901731246</v>
+      </c>
+      <c r="DP24" t="n">
+        <v>-1.414077097301457</v>
+      </c>
+      <c r="DQ24" t="n">
+        <v>-0.5142098535641662</v>
+      </c>
+      <c r="DR24" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B25" t="n">
         <v>0.12631559894515873</v>
@@ -49461,11 +52422,32 @@
       </c>
       <c r="DK25" t="n">
         <v>-0.21052599824193122</v>
+      </c>
+      <c r="DL25" t="n">
+        <v>-0.37894679683547616</v>
+      </c>
+      <c r="DM25" t="n">
+        <v>-0.5052623957806349</v>
+      </c>
+      <c r="DN25" t="n">
+        <v>-0.5052623957806349</v>
+      </c>
+      <c r="DO25" t="n">
+        <v>-2.399996379958016</v>
+      </c>
+      <c r="DP25" t="n">
+        <v>-0.8842091926161111</v>
+      </c>
+      <c r="DQ25" t="n">
+        <v>-0.29473639753870373</v>
+      </c>
+      <c r="DR25" t="n">
+        <v>-0.16842079859354497</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B26" t="n">
         <v>0.030914319979288857</v>
@@ -49808,11 +52790,32 @@
       </c>
       <c r="DK26" t="n">
         <v>-0.043280047971004404</v>
+      </c>
+      <c r="DL26" t="n">
+        <v>-0.19166878387159092</v>
+      </c>
+      <c r="DM26" t="n">
+        <v>-0.19166878387159092</v>
+      </c>
+      <c r="DN26" t="n">
+        <v>-0.18548591987573315</v>
+      </c>
+      <c r="DO26" t="n">
+        <v>-0.34624038376803523</v>
+      </c>
+      <c r="DP26" t="n">
+        <v>-0.18548591987573315</v>
+      </c>
+      <c r="DQ26" t="n">
+        <v>-0.1298401439130132</v>
+      </c>
+      <c r="DR26" t="n">
+        <v>-0.018548591987573314</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B27" t="n">
         <v>2.5760307650179497</v>
@@ -50154,12 +53157,33 @@
         <v>-3.8640461475269245</v>
       </c>
       <c r="DK27" t="n">
+        <v>-1.6100192281362187</v>
+      </c>
+      <c r="DL27" t="n">
+        <v>-7.728092295053849</v>
+      </c>
+      <c r="DM27" t="n">
+        <v>-8.69410383193558</v>
+      </c>
+      <c r="DN27" t="n">
+        <v>-8.372099986308337</v>
+      </c>
+      <c r="DO27" t="n">
+        <v>-15.134180744480455</v>
+      </c>
+      <c r="DP27" t="n">
+        <v>-9.660115368817312</v>
+      </c>
+      <c r="DQ27" t="n">
+        <v>-3.2200384562724373</v>
+      </c>
+      <c r="DR27" t="n">
         <v>-1.6100192281362187</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B28" t="n">
         <v>0.046620129802003446</v>
@@ -50502,11 +53526,32 @@
       </c>
       <c r="DK28" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL28" t="n">
+        <v>-0.046620129802003446</v>
+      </c>
+      <c r="DM28" t="n">
+        <v>-0.056980158646893105</v>
+      </c>
+      <c r="DN28" t="n">
+        <v>-0.056980158646893105</v>
+      </c>
+      <c r="DO28" t="n">
+        <v>-0.21238059132023793</v>
+      </c>
+      <c r="DP28" t="n">
+        <v>-0.09842027402645172</v>
+      </c>
+      <c r="DQ28" t="n">
+        <v>-0.031080086534668965</v>
+      </c>
+      <c r="DR28" t="n">
+        <v>0.010360028844889655</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B29" t="n">
         <v>6.244507862302893</v>
@@ -50849,6 +53894,27 @@
       </c>
       <c r="DK29" t="n">
         <v>-5.781196373891901</v>
+      </c>
+      <c r="DL29" t="n">
+        <v>-19.694214632285373</v>
+      </c>
+      <c r="DM29" t="n">
+        <v>-22.515544036550903</v>
+      </c>
+      <c r="DN29" t="n">
+        <v>-21.683316317684767</v>
+      </c>
+      <c r="DO29" t="n">
+        <v>-51.19186256599011</v>
+      </c>
+      <c r="DP29" t="n">
+        <v>-26.56728988942532</v>
+      </c>
+      <c r="DQ29" t="n">
+        <v>-10.620874331007895</v>
+      </c>
+      <c r="DR29" t="n">
+        <v>-4.187816632127503</v>
       </c>
     </row>
   </sheetData>
@@ -51208,10 +54274,31 @@
       <c r="DK1" t="s">
         <v>113</v>
       </c>
+      <c r="DL1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B2" t="n">
         <v>0.002167761146352563</v>
@@ -51553,12 +54640,33 @@
         <v>0.023845372609878193</v>
       </c>
       <c r="DK2" t="n">
+        <v>0.023845372609878193</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>0.028180894902583322</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>0.028180894902583322</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>0.028180894902583322</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>0.039019700634346136</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>0.032516417195288444</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>0.023845372609878193</v>
+      </c>
+      <c r="DR2" t="n">
         <v>0.023845372609878193</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -51901,11 +55009,32 @@
       </c>
       <c r="DK3" t="n">
         <v>0.11237622762625202</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>0.11237622762625202</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>0.11237622762625202</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>0.10434935422437688</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>0.1444837212337526</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>0.11237622762625202</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>0.11237622762625202</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>0.12040310102812717</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B4" t="n">
         <v>-0.014157627026552055</v>
@@ -52247,12 +55376,33 @@
         <v>0.12741864323896848</v>
       </c>
       <c r="DK4" t="n">
+        <v>0.12741864323896848</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>0.14157627026552055</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>0.14157627026552055</v>
+      </c>
+      <c r="DN4" t="n">
+        <v>0.14157627026552055</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>0.24067965945138492</v>
+      </c>
+      <c r="DP4" t="n">
+        <v>0.18404915134517671</v>
+      </c>
+      <c r="DQ4" t="n">
+        <v>0.14157627026552055</v>
+      </c>
+      <c r="DR4" t="n">
         <v>0.12741864323896848</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -52594,12 +55744,33 @@
         <v>0.035270701004808815</v>
       </c>
       <c r="DK5" t="n">
+        <v>0.03056794087083431</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>0.03762208107179607</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>0.03762208107179607</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>0.035270701004808815</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>0.04702760133974509</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>0.03997346113878333</v>
+      </c>
+      <c r="DQ5" t="n">
+        <v>0.035270701004808815</v>
+      </c>
+      <c r="DR5" t="n">
         <v>0.03056794087083431</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B6" t="n">
         <v>0.04080933048911967</v>
@@ -52942,11 +56113,32 @@
       </c>
       <c r="DK6" t="n">
         <v>0.612139957336795</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>0.612139957336795</v>
+      </c>
+      <c r="DM6" t="n">
+        <v>0.612139957336795</v>
+      </c>
+      <c r="DN6" t="n">
+        <v>0.5713306268476754</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>0.7753772792932738</v>
+      </c>
+      <c r="DP6" t="n">
+        <v>0.6529492878259148</v>
+      </c>
+      <c r="DQ6" t="n">
+        <v>0.612139957336795</v>
+      </c>
+      <c r="DR6" t="n">
+        <v>0.5713306268476754</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B7" t="n">
         <v>0.02246441221447501</v>
@@ -53289,11 +56481,32 @@
       </c>
       <c r="DK7" t="n">
         <v>0.3369661832171251</v>
+      </c>
+      <c r="DL7" t="n">
+        <v>0.3369661832171251</v>
+      </c>
+      <c r="DM7" t="n">
+        <v>0.35943059543160016</v>
+      </c>
+      <c r="DN7" t="n">
+        <v>0.35943059543160016</v>
+      </c>
+      <c r="DO7" t="n">
+        <v>0.4043594198605502</v>
+      </c>
+      <c r="DP7" t="n">
+        <v>0.35943059543160016</v>
+      </c>
+      <c r="DQ7" t="n">
+        <v>0.31450177100265014</v>
+      </c>
+      <c r="DR7" t="n">
+        <v>0.29203735878817516</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -53635,12 +56848,33 @@
         <v>0.48317206475294444</v>
       </c>
       <c r="DK8" t="n">
+        <v>0.48317206475294444</v>
+      </c>
+      <c r="DL8" t="n">
+        <v>0.6318403923692351</v>
+      </c>
+      <c r="DM8" t="n">
+        <v>0.6690074742733076</v>
+      </c>
+      <c r="DN8" t="n">
+        <v>0.6318403923692351</v>
+      </c>
+      <c r="DO8" t="n">
+        <v>0.9291770476018162</v>
+      </c>
+      <c r="DP8" t="n">
+        <v>0.6690074742733076</v>
+      </c>
+      <c r="DQ8" t="n">
+        <v>0.5203391466570171</v>
+      </c>
+      <c r="DR8" t="n">
         <v>0.48317206475294444</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -53983,11 +57217,32 @@
       </c>
       <c r="DK9" t="n">
         <v>0.24105258697032278</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>0.22383454504387115</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>0.22383454504387115</v>
+      </c>
+      <c r="DN9" t="n">
+        <v>0.20661650311741953</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>0.36157888045548414</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>0.25827062889677443</v>
+      </c>
+      <c r="DQ9" t="n">
+        <v>0.20661650311741953</v>
+      </c>
+      <c r="DR9" t="n">
+        <v>0.20661650311741953</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -54330,11 +57585,32 @@
       </c>
       <c r="DK10" t="n">
         <v>0.26234308344228496</v>
+      </c>
+      <c r="DL10" t="n">
+        <v>0.37894000941663386</v>
+      </c>
+      <c r="DM10" t="n">
+        <v>0.37894000941663386</v>
+      </c>
+      <c r="DN10" t="n">
+        <v>0.3206415464294594</v>
+      </c>
+      <c r="DO10" t="n">
+        <v>0.6121338613653317</v>
+      </c>
+      <c r="DP10" t="n">
+        <v>0.4080892409102211</v>
+      </c>
+      <c r="DQ10" t="n">
+        <v>0.3206415464294594</v>
+      </c>
+      <c r="DR10" t="n">
+        <v>0.23319385194869777</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B11" t="n">
         <v>0.013598639774259447</v>
@@ -54676,12 +57952,33 @@
         <v>0.16318367729111338</v>
       </c>
       <c r="DK11" t="n">
+        <v>0.14958503751685392</v>
+      </c>
+      <c r="DL11" t="n">
+        <v>0.19038095683963227</v>
+      </c>
+      <c r="DM11" t="n">
+        <v>0.16318367729111338</v>
+      </c>
+      <c r="DN11" t="n">
+        <v>0.1767823170653728</v>
+      </c>
+      <c r="DO11" t="n">
+        <v>0.23117687616241062</v>
+      </c>
+      <c r="DP11" t="n">
+        <v>0.1767823170653728</v>
+      </c>
+      <c r="DQ11" t="n">
+        <v>0.16318367729111338</v>
+      </c>
+      <c r="DR11" t="n">
         <v>0.14958503751685392</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -55024,11 +58321,32 @@
       </c>
       <c r="DK12" t="n">
         <v>0.8752409696566255</v>
+      </c>
+      <c r="DL12" t="n">
+        <v>1.0502891635879505</v>
+      </c>
+      <c r="DM12" t="n">
+        <v>0.962765066622288</v>
+      </c>
+      <c r="DN12" t="n">
+        <v>0.8752409696566255</v>
+      </c>
+      <c r="DO12" t="n">
+        <v>1.750481939313251</v>
+      </c>
+      <c r="DP12" t="n">
+        <v>1.137813260553613</v>
+      </c>
+      <c r="DQ12" t="n">
+        <v>0.8752409696566255</v>
+      </c>
+      <c r="DR12" t="n">
+        <v>0.7001927757253004</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -55371,11 +58689,32 @@
       </c>
       <c r="DK13" t="n">
         <v>0.13174961710172972</v>
+      </c>
+      <c r="DL13" t="n">
+        <v>0.13174961710172972</v>
+      </c>
+      <c r="DM13" t="n">
+        <v>0.11711077075709309</v>
+      </c>
+      <c r="DN13" t="n">
+        <v>0.10247192441245645</v>
+      </c>
+      <c r="DO13" t="n">
+        <v>0.23422154151418617</v>
+      </c>
+      <c r="DP13" t="n">
+        <v>0.14638846344636636</v>
+      </c>
+      <c r="DQ13" t="n">
+        <v>0.11711077075709309</v>
+      </c>
+      <c r="DR13" t="n">
+        <v>0.10247192441245645</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B14" t="n">
         <v>0.01926156970942499</v>
@@ -55717,12 +59056,33 @@
         <v>0.17335412738482492</v>
       </c>
       <c r="DK14" t="n">
+        <v>0.15409255767539992</v>
+      </c>
+      <c r="DL14" t="n">
+        <v>0.17335412738482492</v>
+      </c>
+      <c r="DM14" t="n">
+        <v>0.19261569709424992</v>
+      </c>
+      <c r="DN14" t="n">
+        <v>0.13483098796597492</v>
+      </c>
+      <c r="DO14" t="n">
+        <v>0.36596982447907483</v>
+      </c>
+      <c r="DP14" t="n">
+        <v>0.23113883651309988</v>
+      </c>
+      <c r="DQ14" t="n">
+        <v>0.19261569709424992</v>
+      </c>
+      <c r="DR14" t="n">
         <v>0.15409255767539992</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -56064,12 +59424,33 @@
         <v>0.25931434831051536</v>
       </c>
       <c r="DK15" t="n">
+        <v>0.25931434831051536</v>
+      </c>
+      <c r="DL15" t="n">
+        <v>0.28288837997510763</v>
+      </c>
+      <c r="DM15" t="n">
+        <v>0.28288837997510763</v>
+      </c>
+      <c r="DN15" t="n">
+        <v>0.28288837997510763</v>
+      </c>
+      <c r="DO15" t="n">
+        <v>0.44790660162725376</v>
+      </c>
+      <c r="DP15" t="n">
+        <v>0.35361047496888454</v>
+      </c>
+      <c r="DQ15" t="n">
+        <v>0.28288837997510763</v>
+      </c>
+      <c r="DR15" t="n">
         <v>0.25931434831051536</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B16" t="n">
         <v>0.009476494553032679</v>
@@ -56411,12 +59792,33 @@
         <v>0.14214741829549019</v>
       </c>
       <c r="DK16" t="n">
+        <v>0.15162391284852286</v>
+      </c>
+      <c r="DL16" t="n">
+        <v>0.15162391284852286</v>
+      </c>
+      <c r="DM16" t="n">
+        <v>0.14214741829549019</v>
+      </c>
+      <c r="DN16" t="n">
+        <v>0.14214741829549019</v>
+      </c>
+      <c r="DO16" t="n">
+        <v>0.17057690195458822</v>
+      </c>
+      <c r="DP16" t="n">
+        <v>0.14214741829549019</v>
+      </c>
+      <c r="DQ16" t="n">
+        <v>0.1326709237424575</v>
+      </c>
+      <c r="DR16" t="n">
         <v>0.15162391284852286</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -56758,12 +60160,33 @@
         <v>0.3860832185425154</v>
       </c>
       <c r="DK17" t="n">
+        <v>0.4136605912955522</v>
+      </c>
+      <c r="DL17" t="n">
+        <v>0.44123796404858906</v>
+      </c>
+      <c r="DM17" t="n">
+        <v>0.44123796404858906</v>
+      </c>
+      <c r="DN17" t="n">
+        <v>0.4136605912955522</v>
+      </c>
+      <c r="DO17" t="n">
+        <v>0.4688153368016259</v>
+      </c>
+      <c r="DP17" t="n">
+        <v>0.4136605912955522</v>
+      </c>
+      <c r="DQ17" t="n">
+        <v>0.35850584578947864</v>
+      </c>
+      <c r="DR17" t="n">
         <v>0.4136605912955522</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B18" t="n">
         <v>0.006889931282503724</v>
@@ -57106,11 +60529,32 @@
       </c>
       <c r="DK18" t="n">
         <v>0.10334896923755585</v>
+      </c>
+      <c r="DL18" t="n">
+        <v>0.12401876308506703</v>
+      </c>
+      <c r="DM18" t="n">
+        <v>0.12401876308506703</v>
+      </c>
+      <c r="DN18" t="n">
+        <v>0.12401876308506703</v>
+      </c>
+      <c r="DO18" t="n">
+        <v>0.1446885569325782</v>
+      </c>
+      <c r="DP18" t="n">
+        <v>0.13090869436757074</v>
+      </c>
+      <c r="DQ18" t="n">
+        <v>0.11712883180256331</v>
+      </c>
+      <c r="DR18" t="n">
+        <v>0.11023890052005958</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -57452,12 +60896,33 @@
         <v>0.7040710417841758</v>
       </c>
       <c r="DK19" t="n">
+        <v>0.6400645834401598</v>
+      </c>
+      <c r="DL19" t="n">
+        <v>0.7040710417841758</v>
+      </c>
+      <c r="DM19" t="n">
+        <v>0.7680775001281919</v>
+      </c>
+      <c r="DN19" t="n">
+        <v>0.6400645834401598</v>
+      </c>
+      <c r="DO19" t="n">
+        <v>1.3441356252243357</v>
+      </c>
+      <c r="DP19" t="n">
+        <v>0.7680775001281919</v>
+      </c>
+      <c r="DQ19" t="n">
+        <v>0.6400645834401598</v>
+      </c>
+      <c r="DR19" t="n">
         <v>0.6400645834401598</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B20" t="n">
         <v>-0.10197931527535918</v>
@@ -57799,12 +61264,33 @@
         <v>1.3257310985796693</v>
       </c>
       <c r="DK20" t="n">
+        <v>1.3257310985796693</v>
+      </c>
+      <c r="DL20" t="n">
+        <v>1.5296897291303877</v>
+      </c>
+      <c r="DM20" t="n">
+        <v>1.631669044405747</v>
+      </c>
+      <c r="DN20" t="n">
+        <v>1.5296897291303877</v>
+      </c>
+      <c r="DO20" t="n">
+        <v>2.243544936057902</v>
+      </c>
+      <c r="DP20" t="n">
+        <v>1.631669044405747</v>
+      </c>
+      <c r="DQ20" t="n">
+        <v>1.2237517833043101</v>
+      </c>
+      <c r="DR20" t="n">
         <v>1.3257310985796693</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B21" t="n">
         <v>0.00976628149959203</v>
@@ -58147,11 +61633,32 @@
       </c>
       <c r="DK21" t="n">
         <v>0.17579306699265657</v>
+      </c>
+      <c r="DL21" t="n">
+        <v>0.16602678549306452</v>
+      </c>
+      <c r="DM21" t="n">
+        <v>0.16602678549306452</v>
+      </c>
+      <c r="DN21" t="n">
+        <v>0.1562605039934725</v>
+      </c>
+      <c r="DO21" t="n">
+        <v>0.2246244744906167</v>
+      </c>
+      <c r="DP21" t="n">
+        <v>0.20509191149143266</v>
+      </c>
+      <c r="DQ21" t="n">
+        <v>0.1562605039934725</v>
+      </c>
+      <c r="DR21" t="n">
+        <v>0.16602678549306452</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B22" t="n">
         <v>0.006608596488497609</v>
@@ -58493,12 +62000,33 @@
         <v>0.07930315786197131</v>
       </c>
       <c r="DK22" t="n">
+        <v>0.0726945613734737</v>
+      </c>
+      <c r="DL22" t="n">
+        <v>0.08591175435046892</v>
+      </c>
+      <c r="DM22" t="n">
+        <v>0.09252035083896652</v>
+      </c>
+      <c r="DN22" t="n">
+        <v>0.08591175435046892</v>
+      </c>
+      <c r="DO22" t="n">
+        <v>0.12556333328145458</v>
+      </c>
+      <c r="DP22" t="n">
+        <v>0.09912894732746413</v>
+      </c>
+      <c r="DQ22" t="n">
+        <v>0.08591175435046892</v>
+      </c>
+      <c r="DR22" t="n">
         <v>0.0726945613734737</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B23" t="n">
         <v>0.0</v>
@@ -58841,11 +62369,32 @@
       </c>
       <c r="DK23" t="n">
         <v>0.0275770542968957</v>
+      </c>
+      <c r="DL23" t="n">
+        <v>0.023900113723976272</v>
+      </c>
+      <c r="DM23" t="n">
+        <v>0.0275770542968957</v>
+      </c>
+      <c r="DN23" t="n">
+        <v>0.022061643437516557</v>
+      </c>
+      <c r="DO23" t="n">
+        <v>0.036769405729194266</v>
+      </c>
+      <c r="DP23" t="n">
+        <v>0.03125399486981512</v>
+      </c>
+      <c r="DQ23" t="n">
+        <v>0.025738584010435984</v>
+      </c>
+      <c r="DR23" t="n">
+        <v>0.025738584010435984</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B24" t="n">
         <v>0.06427623169552077</v>
@@ -59188,11 +62737,32 @@
       </c>
       <c r="DK24" t="n">
         <v>0.9641434754328115</v>
+      </c>
+      <c r="DL24" t="n">
+        <v>0.7713147803462492</v>
+      </c>
+      <c r="DM24" t="n">
+        <v>0.83559101204177</v>
+      </c>
+      <c r="DN24" t="n">
+        <v>0.7070385486507285</v>
+      </c>
+      <c r="DO24" t="n">
+        <v>1.5426295606924985</v>
+      </c>
+      <c r="DP24" t="n">
+        <v>0.8998672437372908</v>
+      </c>
+      <c r="DQ24" t="n">
+        <v>0.83559101204177</v>
+      </c>
+      <c r="DR24" t="n">
+        <v>0.83559101204177</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B25" t="n">
         <v>0.04210519964838624</v>
@@ -59534,12 +63104,33 @@
         <v>0.42105199648386243</v>
       </c>
       <c r="DK25" t="n">
+        <v>0.4631571961322487</v>
+      </c>
+      <c r="DL25" t="n">
+        <v>0.42105199648386243</v>
+      </c>
+      <c r="DM25" t="n">
+        <v>0.4631571961322487</v>
+      </c>
+      <c r="DN25" t="n">
+        <v>0.42105199648386243</v>
+      </c>
+      <c r="DO25" t="n">
+        <v>0.8421039929677249</v>
+      </c>
+      <c r="DP25" t="n">
+        <v>0.5052623957806349</v>
+      </c>
+      <c r="DQ25" t="n">
+        <v>0.4631571961322487</v>
+      </c>
+      <c r="DR25" t="n">
         <v>0.4631571961322487</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B26" t="n">
         <v>0.0</v>
@@ -59881,12 +63472,33 @@
         <v>0.07419436795029326</v>
       </c>
       <c r="DK26" t="n">
+        <v>0.07419436795029326</v>
+      </c>
+      <c r="DL26" t="n">
+        <v>0.08656009594200881</v>
+      </c>
+      <c r="DM26" t="n">
+        <v>0.08037723194615103</v>
+      </c>
+      <c r="DN26" t="n">
+        <v>0.08037723194615103</v>
+      </c>
+      <c r="DO26" t="n">
+        <v>0.11747441592129766</v>
+      </c>
+      <c r="DP26" t="n">
+        <v>0.08656009594200881</v>
+      </c>
+      <c r="DQ26" t="n">
+        <v>0.09274295993786658</v>
+      </c>
+      <c r="DR26" t="n">
         <v>0.07419436795029326</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B27" t="n">
         <v>-0.3220038456272437</v>
@@ -60228,12 +63840,33 @@
         <v>4.186049993154168</v>
       </c>
       <c r="DK27" t="n">
+        <v>3.8640461475269245</v>
+      </c>
+      <c r="DL27" t="n">
+        <v>5.152061530035899</v>
+      </c>
+      <c r="DM27" t="n">
+        <v>5.152061530035899</v>
+      </c>
+      <c r="DN27" t="n">
+        <v>4.830057684408656</v>
+      </c>
+      <c r="DO27" t="n">
+        <v>6.440076912544875</v>
+      </c>
+      <c r="DP27" t="n">
+        <v>5.152061530035899</v>
+      </c>
+      <c r="DQ27" t="n">
+        <v>3.8640461475269245</v>
+      </c>
+      <c r="DR27" t="n">
         <v>3.8640461475269245</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B28" t="n">
         <v>0.0</v>
@@ -60576,11 +64209,32 @@
       </c>
       <c r="DK28" t="n">
         <v>0.036260100957113794</v>
+      </c>
+      <c r="DL28" t="n">
+        <v>0.056980158646893105</v>
+      </c>
+      <c r="DM28" t="n">
+        <v>0.06216017306933793</v>
+      </c>
+      <c r="DN28" t="n">
+        <v>0.05180014422444827</v>
+      </c>
+      <c r="DO28" t="n">
+        <v>0.08288023075911724</v>
+      </c>
+      <c r="DP28" t="n">
+        <v>0.06216017306933793</v>
+      </c>
+      <c r="DQ28" t="n">
+        <v>0.046620129802003446</v>
+      </c>
+      <c r="DR28" t="n">
+        <v>0.031080086534668965</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B29" t="n">
         <v>-0.20071633942799022</v>
@@ -60923,6 +64577,27 @@
       </c>
       <c r="DK29" t="n">
         <v>12.112159716390408</v>
+      </c>
+      <c r="DL29" t="n">
+        <v>14.046587432058223</v>
+      </c>
+      <c r="DM29" t="n">
+        <v>14.268293670925631</v>
+      </c>
+      <c r="DN29" t="n">
+        <v>13.175592056410178</v>
+      </c>
+      <c r="DO29" t="n">
+        <v>20.36747763768967</v>
+      </c>
+      <c r="DP29" t="n">
+        <v>14.890245377937092</v>
+      </c>
+      <c r="DQ29" t="n">
+        <v>11.96053724669815</v>
+      </c>
+      <c r="DR29" t="n">
+        <v>11.62808993459009</v>
       </c>
     </row>
   </sheetData>
@@ -61282,10 +64957,31 @@
       <c r="DK1" t="s">
         <v>113</v>
       </c>
+      <c r="DL1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B2" t="n">
         <v>2.0</v>
@@ -61628,11 +65324,32 @@
       </c>
       <c r="DK2" t="n">
         <v>-66.0</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>-41.0</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>-39.0</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>-39.0</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>-54.0</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>-42.0</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>-53.0</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>-67.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B3" t="n">
         <v>5.0</v>
@@ -61975,11 +65692,32 @@
       </c>
       <c r="DK3" t="n">
         <v>-65.0</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>-49.0</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>-52.0</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>-43.0</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>-60.0</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>-45.0</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>-60.0</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>-68.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B4" t="n">
         <v>9.0</v>
@@ -62322,11 +66060,32 @@
       </c>
       <c r="DK4" t="n">
         <v>-45.0</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>-28.0</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>-28.0</v>
+      </c>
+      <c r="DN4" t="n">
+        <v>-27.0</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>-39.0</v>
+      </c>
+      <c r="DP4" t="n">
+        <v>-19.0</v>
+      </c>
+      <c r="DQ4" t="n">
+        <v>-32.0</v>
+      </c>
+      <c r="DR4" t="n">
+        <v>-44.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B5" t="n">
         <v>11.0</v>
@@ -62669,11 +66428,32 @@
       </c>
       <c r="DK5" t="n">
         <v>-75.0</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>-61.0</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>-61.0</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>-58.0</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>-66.0</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>-54.0</v>
+      </c>
+      <c r="DQ5" t="n">
+        <v>-67.0</v>
+      </c>
+      <c r="DR5" t="n">
+        <v>-73.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B6" t="n">
         <v>-1.0</v>
@@ -63016,11 +66796,32 @@
       </c>
       <c r="DK6" t="n">
         <v>-67.0</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>-47.0</v>
+      </c>
+      <c r="DM6" t="n">
+        <v>-49.0</v>
+      </c>
+      <c r="DN6" t="n">
+        <v>-43.0</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>-60.0</v>
+      </c>
+      <c r="DP6" t="n">
+        <v>-43.0</v>
+      </c>
+      <c r="DQ6" t="n">
+        <v>-56.0</v>
+      </c>
+      <c r="DR6" t="n">
+        <v>-65.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B7" t="n">
         <v>5.0</v>
@@ -63363,11 +67164,32 @@
       </c>
       <c r="DK7" t="n">
         <v>-56.0</v>
+      </c>
+      <c r="DL7" t="n">
+        <v>-39.0</v>
+      </c>
+      <c r="DM7" t="n">
+        <v>-42.0</v>
+      </c>
+      <c r="DN7" t="n">
+        <v>-36.0</v>
+      </c>
+      <c r="DO7" t="n">
+        <v>-54.0</v>
+      </c>
+      <c r="DP7" t="n">
+        <v>-33.0</v>
+      </c>
+      <c r="DQ7" t="n">
+        <v>-46.0</v>
+      </c>
+      <c r="DR7" t="n">
+        <v>-57.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B8" t="n">
         <v>-2.0</v>
@@ -63710,11 +67532,32 @@
       </c>
       <c r="DK8" t="n">
         <v>-72.0</v>
+      </c>
+      <c r="DL8" t="n">
+        <v>-51.0</v>
+      </c>
+      <c r="DM8" t="n">
+        <v>-50.0</v>
+      </c>
+      <c r="DN8" t="n">
+        <v>-48.0</v>
+      </c>
+      <c r="DO8" t="n">
+        <v>-52.0</v>
+      </c>
+      <c r="DP8" t="n">
+        <v>-46.0</v>
+      </c>
+      <c r="DQ8" t="n">
+        <v>-56.0</v>
+      </c>
+      <c r="DR8" t="n">
+        <v>-64.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B9" t="n">
         <v>10.0</v>
@@ -64057,11 +67900,32 @@
       </c>
       <c r="DK9" t="n">
         <v>-50.0</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>-42.0</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>-43.0</v>
+      </c>
+      <c r="DN9" t="n">
+        <v>-38.0</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>-53.0</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>-33.0</v>
+      </c>
+      <c r="DQ9" t="n">
+        <v>-46.0</v>
+      </c>
+      <c r="DR9" t="n">
+        <v>-52.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B10" t="n">
         <v>-1.0</v>
@@ -64404,11 +68268,32 @@
       </c>
       <c r="DK10" t="n">
         <v>-66.0</v>
+      </c>
+      <c r="DL10" t="n">
+        <v>-39.0</v>
+      </c>
+      <c r="DM10" t="n">
+        <v>-39.0</v>
+      </c>
+      <c r="DN10" t="n">
+        <v>-34.0</v>
+      </c>
+      <c r="DO10" t="n">
+        <v>-58.0</v>
+      </c>
+      <c r="DP10" t="n">
+        <v>-38.0</v>
+      </c>
+      <c r="DQ10" t="n">
+        <v>-57.0</v>
+      </c>
+      <c r="DR10" t="n">
+        <v>-64.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B11" t="n">
         <v>3.0</v>
@@ -64751,11 +68636,32 @@
       </c>
       <c r="DK11" t="n">
         <v>-50.0</v>
+      </c>
+      <c r="DL11" t="n">
+        <v>-35.0</v>
+      </c>
+      <c r="DM11" t="n">
+        <v>-33.0</v>
+      </c>
+      <c r="DN11" t="n">
+        <v>-28.0</v>
+      </c>
+      <c r="DO11" t="n">
+        <v>-53.0</v>
+      </c>
+      <c r="DP11" t="n">
+        <v>-31.0</v>
+      </c>
+      <c r="DQ11" t="n">
+        <v>-46.0</v>
+      </c>
+      <c r="DR11" t="n">
+        <v>-53.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B12" t="n">
         <v>-3.0</v>
@@ -65098,11 +69004,32 @@
       </c>
       <c r="DK12" t="n">
         <v>-53.0</v>
+      </c>
+      <c r="DL12" t="n">
+        <v>-38.0</v>
+      </c>
+      <c r="DM12" t="n">
+        <v>-35.0</v>
+      </c>
+      <c r="DN12" t="n">
+        <v>-34.0</v>
+      </c>
+      <c r="DO12" t="n">
+        <v>-43.0</v>
+      </c>
+      <c r="DP12" t="n">
+        <v>-28.0</v>
+      </c>
+      <c r="DQ12" t="n">
+        <v>-44.0</v>
+      </c>
+      <c r="DR12" t="n">
+        <v>-50.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B13" t="n">
         <v>7.0</v>
@@ -65445,11 +69372,32 @@
       </c>
       <c r="DK13" t="n">
         <v>-52.0</v>
+      </c>
+      <c r="DL13" t="n">
+        <v>-31.0</v>
+      </c>
+      <c r="DM13" t="n">
+        <v>-32.0</v>
+      </c>
+      <c r="DN13" t="n">
+        <v>-25.0</v>
+      </c>
+      <c r="DO13" t="n">
+        <v>-55.0</v>
+      </c>
+      <c r="DP13" t="n">
+        <v>-27.0</v>
+      </c>
+      <c r="DQ13" t="n">
+        <v>-45.0</v>
+      </c>
+      <c r="DR13" t="n">
+        <v>-50.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B14" t="n">
         <v>6.0</v>
@@ -65792,11 +69740,32 @@
       </c>
       <c r="DK14" t="n">
         <v>-30.0</v>
+      </c>
+      <c r="DL14" t="n">
+        <v>-13.0</v>
+      </c>
+      <c r="DM14" t="n">
+        <v>-13.0</v>
+      </c>
+      <c r="DN14" t="n">
+        <v>-8.0</v>
+      </c>
+      <c r="DO14" t="n">
+        <v>-37.0</v>
+      </c>
+      <c r="DP14" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="DQ14" t="n">
+        <v>-26.0</v>
+      </c>
+      <c r="DR14" t="n">
+        <v>-34.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -66139,11 +70108,32 @@
       </c>
       <c r="DK15" t="n">
         <v>-40.0</v>
+      </c>
+      <c r="DL15" t="n">
+        <v>-19.0</v>
+      </c>
+      <c r="DM15" t="n">
+        <v>-21.0</v>
+      </c>
+      <c r="DN15" t="n">
+        <v>-12.0</v>
+      </c>
+      <c r="DO15" t="n">
+        <v>-49.0</v>
+      </c>
+      <c r="DP15" t="n">
+        <v>-13.0</v>
+      </c>
+      <c r="DQ15" t="n">
+        <v>-35.0</v>
+      </c>
+      <c r="DR15" t="n">
+        <v>-44.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -66486,11 +70476,32 @@
       </c>
       <c r="DK16" t="n">
         <v>-51.0</v>
+      </c>
+      <c r="DL16" t="n">
+        <v>-29.0</v>
+      </c>
+      <c r="DM16" t="n">
+        <v>-30.0</v>
+      </c>
+      <c r="DN16" t="n">
+        <v>-26.0</v>
+      </c>
+      <c r="DO16" t="n">
+        <v>-44.0</v>
+      </c>
+      <c r="DP16" t="n">
+        <v>-23.0</v>
+      </c>
+      <c r="DQ16" t="n">
+        <v>-39.0</v>
+      </c>
+      <c r="DR16" t="n">
+        <v>-48.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B17" t="n">
         <v>2.0</v>
@@ -66833,11 +70844,32 @@
       </c>
       <c r="DK17" t="n">
         <v>-75.0</v>
+      </c>
+      <c r="DL17" t="n">
+        <v>-60.0</v>
+      </c>
+      <c r="DM17" t="n">
+        <v>-60.0</v>
+      </c>
+      <c r="DN17" t="n">
+        <v>-58.0</v>
+      </c>
+      <c r="DO17" t="n">
+        <v>-64.0</v>
+      </c>
+      <c r="DP17" t="n">
+        <v>-56.0</v>
+      </c>
+      <c r="DQ17" t="n">
+        <v>-63.0</v>
+      </c>
+      <c r="DR17" t="n">
+        <v>-74.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B18" t="n">
         <v>5.0</v>
@@ -67180,11 +71212,32 @@
       </c>
       <c r="DK18" t="n">
         <v>-68.0</v>
+      </c>
+      <c r="DL18" t="n">
+        <v>-52.0</v>
+      </c>
+      <c r="DM18" t="n">
+        <v>-53.0</v>
+      </c>
+      <c r="DN18" t="n">
+        <v>-51.0</v>
+      </c>
+      <c r="DO18" t="n">
+        <v>-55.0</v>
+      </c>
+      <c r="DP18" t="n">
+        <v>-48.0</v>
+      </c>
+      <c r="DQ18" t="n">
+        <v>-57.0</v>
+      </c>
+      <c r="DR18" t="n">
+        <v>-69.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B19" t="n">
         <v>-4.0</v>
@@ -67527,11 +71580,32 @@
       </c>
       <c r="DK19" t="n">
         <v>-69.0</v>
+      </c>
+      <c r="DL19" t="n">
+        <v>-55.0</v>
+      </c>
+      <c r="DM19" t="n">
+        <v>-56.0</v>
+      </c>
+      <c r="DN19" t="n">
+        <v>-53.0</v>
+      </c>
+      <c r="DO19" t="n">
+        <v>-58.0</v>
+      </c>
+      <c r="DP19" t="n">
+        <v>-51.0</v>
+      </c>
+      <c r="DQ19" t="n">
+        <v>-62.0</v>
+      </c>
+      <c r="DR19" t="n">
+        <v>-71.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B20" t="n">
         <v>5.0</v>
@@ -67874,11 +71948,32 @@
       </c>
       <c r="DK20" t="n">
         <v>-43.0</v>
+      </c>
+      <c r="DL20" t="n">
+        <v>-25.0</v>
+      </c>
+      <c r="DM20" t="n">
+        <v>-30.0</v>
+      </c>
+      <c r="DN20" t="n">
+        <v>-23.0</v>
+      </c>
+      <c r="DO20" t="n">
+        <v>-52.0</v>
+      </c>
+      <c r="DP20" t="n">
+        <v>-14.0</v>
+      </c>
+      <c r="DQ20" t="n">
+        <v>-35.0</v>
+      </c>
+      <c r="DR20" t="n">
+        <v>-50.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B21" t="n">
         <v>7.0</v>
@@ -68220,12 +72315,33 @@
         <v>-50.0</v>
       </c>
       <c r="DK21" t="n">
+        <v>-62.0</v>
+      </c>
+      <c r="DL21" t="n">
+        <v>-46.0</v>
+      </c>
+      <c r="DM21" t="n">
+        <v>-48.0</v>
+      </c>
+      <c r="DN21" t="n">
+        <v>-43.0</v>
+      </c>
+      <c r="DO21" t="n">
+        <v>-59.0</v>
+      </c>
+      <c r="DP21" t="n">
+        <v>-35.0</v>
+      </c>
+      <c r="DQ21" t="n">
+        <v>-49.0</v>
+      </c>
+      <c r="DR21" t="n">
         <v>-62.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B22" t="n">
         <v>5.0</v>
@@ -68568,11 +72684,32 @@
       </c>
       <c r="DK22" t="n">
         <v>-70.0</v>
+      </c>
+      <c r="DL22" t="n">
+        <v>-53.0</v>
+      </c>
+      <c r="DM22" t="n">
+        <v>-55.0</v>
+      </c>
+      <c r="DN22" t="n">
+        <v>-52.0</v>
+      </c>
+      <c r="DO22" t="n">
+        <v>-71.0</v>
+      </c>
+      <c r="DP22" t="n">
+        <v>-62.0</v>
+      </c>
+      <c r="DQ22" t="n">
+        <v>-59.0</v>
+      </c>
+      <c r="DR22" t="n">
+        <v>-69.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B23" t="n">
         <v>7.0</v>
@@ -68915,11 +73052,32 @@
       </c>
       <c r="DK23" t="n">
         <v>-52.0</v>
+      </c>
+      <c r="DL23" t="n">
+        <v>-35.0</v>
+      </c>
+      <c r="DM23" t="n">
+        <v>-39.0</v>
+      </c>
+      <c r="DN23" t="n">
+        <v>-36.0</v>
+      </c>
+      <c r="DO23" t="n">
+        <v>-53.0</v>
+      </c>
+      <c r="DP23" t="n">
+        <v>-29.0</v>
+      </c>
+      <c r="DQ23" t="n">
+        <v>-45.0</v>
+      </c>
+      <c r="DR23" t="n">
+        <v>-53.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B24" t="n">
         <v>9.0</v>
@@ -69262,11 +73420,32 @@
       </c>
       <c r="DK24" t="n">
         <v>-65.0</v>
+      </c>
+      <c r="DL24" t="n">
+        <v>-36.0</v>
+      </c>
+      <c r="DM24" t="n">
+        <v>-40.0</v>
+      </c>
+      <c r="DN24" t="n">
+        <v>-30.0</v>
+      </c>
+      <c r="DO24" t="n">
+        <v>-48.0</v>
+      </c>
+      <c r="DP24" t="n">
+        <v>-33.0</v>
+      </c>
+      <c r="DQ24" t="n">
+        <v>-48.0</v>
+      </c>
+      <c r="DR24" t="n">
+        <v>-64.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B25" t="n">
         <v>4.0</v>
@@ -69609,11 +73788,32 @@
       </c>
       <c r="DK25" t="n">
         <v>-54.0</v>
+      </c>
+      <c r="DL25" t="n">
+        <v>-23.0</v>
+      </c>
+      <c r="DM25" t="n">
+        <v>-30.0</v>
+      </c>
+      <c r="DN25" t="n">
+        <v>-24.0</v>
+      </c>
+      <c r="DO25" t="n">
+        <v>-56.0</v>
+      </c>
+      <c r="DP25" t="n">
+        <v>-16.0</v>
+      </c>
+      <c r="DQ25" t="n">
+        <v>-36.0</v>
+      </c>
+      <c r="DR25" t="n">
+        <v>-48.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B26" t="n">
         <v>1.0</v>
@@ -69956,11 +74156,32 @@
       </c>
       <c r="DK26" t="n">
         <v>-42.0</v>
+      </c>
+      <c r="DL26" t="n">
+        <v>-28.0</v>
+      </c>
+      <c r="DM26" t="n">
+        <v>-33.0</v>
+      </c>
+      <c r="DN26" t="n">
+        <v>-27.0</v>
+      </c>
+      <c r="DO26" t="n">
+        <v>-46.0</v>
+      </c>
+      <c r="DP26" t="n">
+        <v>-15.0</v>
+      </c>
+      <c r="DQ26" t="n">
+        <v>-34.0</v>
+      </c>
+      <c r="DR26" t="n">
+        <v>-49.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B27" t="n">
         <v>5.0</v>
@@ -70303,11 +74524,32 @@
       </c>
       <c r="DK27" t="n">
         <v>-64.0</v>
+      </c>
+      <c r="DL27" t="n">
+        <v>-48.0</v>
+      </c>
+      <c r="DM27" t="n">
+        <v>-46.0</v>
+      </c>
+      <c r="DN27" t="n">
+        <v>-42.0</v>
+      </c>
+      <c r="DO27" t="n">
+        <v>-61.0</v>
+      </c>
+      <c r="DP27" t="n">
+        <v>-42.0</v>
+      </c>
+      <c r="DQ27" t="n">
+        <v>-59.0</v>
+      </c>
+      <c r="DR27" t="n">
+        <v>-63.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B28" t="n">
         <v>6.0</v>
@@ -70650,11 +74892,32 @@
       </c>
       <c r="DK28" t="n">
         <v>-58.0</v>
+      </c>
+      <c r="DL28" t="n">
+        <v>-46.0</v>
+      </c>
+      <c r="DM28" t="n">
+        <v>-48.0</v>
+      </c>
+      <c r="DN28" t="n">
+        <v>-42.0</v>
+      </c>
+      <c r="DO28" t="n">
+        <v>-51.0</v>
+      </c>
+      <c r="DP28" t="n">
+        <v>-38.0</v>
+      </c>
+      <c r="DQ28" t="n">
+        <v>-49.0</v>
+      </c>
+      <c r="DR28" t="n">
+        <v>-60.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B29" t="n">
         <v>4.0</v>
@@ -70997,6 +75260,27 @@
       </c>
       <c r="DK29" t="n">
         <v>-49.0</v>
+      </c>
+      <c r="DL29" t="n">
+        <v>-26.0</v>
+      </c>
+      <c r="DM29" t="n">
+        <v>-27.0</v>
+      </c>
+      <c r="DN29" t="n">
+        <v>-20.0</v>
+      </c>
+      <c r="DO29" t="n">
+        <v>-39.0</v>
+      </c>
+      <c r="DP29" t="n">
+        <v>-20.0</v>
+      </c>
+      <c r="DQ29" t="n">
+        <v>-38.0</v>
+      </c>
+      <c r="DR29" t="n">
+        <v>-46.0</v>
       </c>
     </row>
   </sheetData>
